--- a/Outputs/5. Budget constrained/Grid Search/Output Files/1750000/Output_1_35.xlsx
+++ b/Outputs/5. Budget constrained/Grid Search/Output Files/1750000/Output_1_35.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="4">
@@ -501,7 +501,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>3578093.567856642</v>
+        <v>3576205.986340241</v>
       </c>
     </row>
     <row r="7">
@@ -511,7 +511,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>2264668.837800622</v>
+        <v>2264668.83780062</v>
       </c>
     </row>
     <row r="8">
@@ -521,7 +521,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>603248.4937673433</v>
+        <v>603248.4937673432</v>
       </c>
     </row>
     <row r="9">
@@ -656,7 +656,7 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C2" t="n">
         <v>0</v>
@@ -668,13 +668,13 @@
         <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>406.8760457417114</v>
+        <v>6.876045741711437</v>
       </c>
       <c r="G2" t="n">
         <v>413.784170020795</v>
       </c>
       <c r="H2" t="n">
-        <v>296.2343098005535</v>
+        <v>323.9227727643571</v>
       </c>
       <c r="I2" t="n">
         <v>151.9313162448613</v>
@@ -704,13 +704,13 @@
         <v>0</v>
       </c>
       <c r="R2" t="n">
-        <v>0</v>
+        <v>54.47840257481172</v>
       </c>
       <c r="S2" t="n">
-        <v>0</v>
+        <v>174.4157128089715</v>
       </c>
       <c r="T2" t="n">
-        <v>0</v>
+        <v>216.4483203576578</v>
       </c>
       <c r="U2" t="n">
         <v>251.2241675082893</v>
@@ -719,13 +719,13 @@
         <v>327.7522584701349</v>
       </c>
       <c r="W2" t="n">
-        <v>0</v>
+        <v>326.2097809358202</v>
       </c>
       <c r="X2" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y2" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3">
@@ -756,7 +756,7 @@
         <v>104.3883541553076</v>
       </c>
       <c r="I3" t="n">
-        <v>61.4222199825084</v>
+        <v>61.42221998250819</v>
       </c>
       <c r="J3" t="n">
         <v>0</v>
@@ -783,7 +783,7 @@
         <v>0</v>
       </c>
       <c r="R3" t="n">
-        <v>49.71123688229331</v>
+        <v>49.71123688229332</v>
       </c>
       <c r="S3" t="n">
         <v>156.5912426325231</v>
@@ -814,28 +814,28 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C4" t="n">
         <v>0</v>
       </c>
       <c r="D4" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F4" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>167.3098022590509</v>
+        <v>0</v>
       </c>
       <c r="H4" t="n">
         <v>0</v>
       </c>
       <c r="I4" t="n">
-        <v>59.66385641544539</v>
+        <v>0</v>
       </c>
       <c r="J4" t="n">
         <v>0</v>
@@ -865,10 +865,10 @@
         <v>0</v>
       </c>
       <c r="S4" t="n">
-        <v>0</v>
+        <v>43.99240337009272</v>
       </c>
       <c r="T4" t="n">
-        <v>0</v>
+        <v>225.0351054580843</v>
       </c>
       <c r="U4" t="n">
         <v>0</v>
@@ -883,7 +883,7 @@
         <v>0</v>
       </c>
       <c r="Y4" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="5">
@@ -896,25 +896,25 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C5" t="n">
-        <v>365.2728917710076</v>
+        <v>37.94448079992561</v>
       </c>
       <c r="D5" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E5" t="n">
         <v>381.9303700722618</v>
       </c>
       <c r="F5" t="n">
-        <v>406.8760457417114</v>
+        <v>6.876045741711437</v>
       </c>
       <c r="G5" t="n">
-        <v>413.784170020795</v>
+        <v>13.784170020795</v>
       </c>
       <c r="H5" t="n">
-        <v>311.4936872159398</v>
+        <v>323.9227727643571</v>
       </c>
       <c r="I5" t="n">
-        <v>0</v>
+        <v>151.9313162448613</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -941,25 +941,25 @@
         <v>0</v>
       </c>
       <c r="R5" t="n">
-        <v>0</v>
+        <v>54.47840257481171</v>
       </c>
       <c r="S5" t="n">
         <v>0</v>
       </c>
       <c r="T5" t="n">
-        <v>0</v>
+        <v>216.4483203576578</v>
       </c>
       <c r="U5" t="n">
         <v>0</v>
       </c>
       <c r="V5" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W5" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X5" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y5" t="n">
         <v>0</v>
@@ -1057,10 +1057,10 @@
         <v>0</v>
       </c>
       <c r="D7" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E7" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F7" t="n">
         <v>0</v>
@@ -1096,10 +1096,10 @@
         <v>0</v>
       </c>
       <c r="Q7" t="n">
-        <v>0</v>
+        <v>29.1227499549143</v>
       </c>
       <c r="R7" t="n">
-        <v>0</v>
+        <v>146.6651919801579</v>
       </c>
       <c r="S7" t="n">
         <v>0</v>
@@ -1111,16 +1111,16 @@
         <v>0</v>
       </c>
       <c r="V7" t="n">
-        <v>0</v>
+        <v>86.11456485616236</v>
       </c>
       <c r="W7" t="n">
         <v>0</v>
       </c>
       <c r="X7" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y7" t="n">
-        <v>192.5627265154902</v>
+        <v>0</v>
       </c>
     </row>
     <row r="8">
@@ -1130,25 +1130,25 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C8" t="n">
         <v>365.2728917710076</v>
       </c>
       <c r="D8" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E8" t="n">
         <v>381.9303700722618</v>
       </c>
       <c r="F8" t="n">
-        <v>406.8760457417114</v>
+        <v>6.876045741711437</v>
       </c>
       <c r="G8" t="n">
-        <v>13.784170020795</v>
+        <v>413.784170020795</v>
       </c>
       <c r="H8" t="n">
-        <v>0</v>
+        <v>289.2221598733564</v>
       </c>
       <c r="I8" t="n">
         <v>0</v>
@@ -1178,7 +1178,7 @@
         <v>0</v>
       </c>
       <c r="R8" t="n">
-        <v>0</v>
+        <v>54.47840257481171</v>
       </c>
       <c r="S8" t="n">
         <v>0</v>
@@ -1193,10 +1193,10 @@
         <v>0</v>
       </c>
       <c r="W8" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X8" t="n">
-        <v>325.255748559886</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y8" t="n">
         <v>386.2379386560536</v>
@@ -1230,7 +1230,7 @@
         <v>104.3883541553076</v>
       </c>
       <c r="I9" t="n">
-        <v>61.42221998250819</v>
+        <v>61.42221998250818</v>
       </c>
       <c r="J9" t="n">
         <v>0</v>
@@ -1257,7 +1257,7 @@
         <v>0</v>
       </c>
       <c r="R9" t="n">
-        <v>49.71123688229332</v>
+        <v>49.71123688229331</v>
       </c>
       <c r="S9" t="n">
         <v>156.5912426325231</v>
@@ -1288,13 +1288,13 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C10" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D10" t="n">
-        <v>101.7806877295491</v>
+        <v>0</v>
       </c>
       <c r="E10" t="n">
         <v>0</v>
@@ -1336,16 +1336,16 @@
         <v>0</v>
       </c>
       <c r="R10" t="n">
-        <v>0</v>
+        <v>146.6651919801579</v>
       </c>
       <c r="S10" t="n">
-        <v>0</v>
+        <v>9.461970681989216</v>
       </c>
       <c r="T10" t="n">
-        <v>0</v>
+        <v>225.0351054580843</v>
       </c>
       <c r="U10" t="n">
-        <v>0</v>
+        <v>286.2818742419777</v>
       </c>
       <c r="V10" t="n">
         <v>0</v>
@@ -1357,7 +1357,7 @@
         <v>0</v>
       </c>
       <c r="Y10" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="11">
@@ -1388,7 +1388,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I11" t="n">
-        <v>81.77913505274074</v>
+        <v>81.77913505274024</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -1418,7 +1418,7 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>132.9503648051988</v>
+        <v>132.9503648051989</v>
       </c>
       <c r="T11" t="n">
         <v>208.4827883385019</v>
@@ -1467,7 +1467,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I12" t="n">
-        <v>27.90133207014442</v>
+        <v>27.90133207014444</v>
       </c>
       <c r="J12" t="n">
         <v>0</v>
@@ -1573,13 +1573,13 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>0</v>
+        <v>109.9643524037928</v>
       </c>
       <c r="S13" t="n">
-        <v>197.9208099836032</v>
+        <v>0</v>
       </c>
       <c r="T13" t="n">
-        <v>139.153727875004</v>
+        <v>8.525532102719083</v>
       </c>
       <c r="U13" t="n">
         <v>286.2373523985773</v>
@@ -1594,7 +1594,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y13" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="14">
@@ -1619,13 +1619,13 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G14" t="n">
-        <v>411.9645167896915</v>
+        <v>411.9645167896912</v>
       </c>
       <c r="H14" t="n">
         <v>305.2872491113177</v>
       </c>
       <c r="I14" t="n">
-        <v>81.77913505274074</v>
+        <v>81.77913505274077</v>
       </c>
       <c r="J14" t="n">
         <v>0</v>
@@ -1655,7 +1655,7 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>132.9503648052002</v>
+        <v>132.9503648051989</v>
       </c>
       <c r="T14" t="n">
         <v>208.4827883385019</v>
@@ -1704,7 +1704,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I15" t="n">
-        <v>27.90133207014442</v>
+        <v>27.90133207014444</v>
       </c>
       <c r="J15" t="n">
         <v>0</v>
@@ -1762,7 +1762,7 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C16" t="n">
         <v>0</v>
@@ -1810,7 +1810,7 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>0</v>
+        <v>109.9643524037928</v>
       </c>
       <c r="S16" t="n">
         <v>197.9208099836032</v>
@@ -1819,7 +1819,7 @@
         <v>221.5475610583892</v>
       </c>
       <c r="U16" t="n">
-        <v>286.2373523985773</v>
+        <v>0</v>
       </c>
       <c r="V16" t="n">
         <v>252.137643323828</v>
@@ -1828,7 +1828,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X16" t="n">
-        <v>143.3158222056514</v>
+        <v>139.7568420184985</v>
       </c>
       <c r="Y16" t="n">
         <v>0</v>
@@ -1856,13 +1856,13 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G17" t="n">
-        <v>411.9645167896915</v>
+        <v>411.9645167896912</v>
       </c>
       <c r="H17" t="n">
         <v>305.2872491113177</v>
       </c>
       <c r="I17" t="n">
-        <v>81.77913505274225</v>
+        <v>81.77913505274077</v>
       </c>
       <c r="J17" t="n">
         <v>0</v>
@@ -1892,7 +1892,7 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>132.9503648051988</v>
+        <v>132.9503648051989</v>
       </c>
       <c r="T17" t="n">
         <v>208.4827883385019</v>
@@ -1941,7 +1941,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I18" t="n">
-        <v>27.90133207014442</v>
+        <v>27.90133207014444</v>
       </c>
       <c r="J18" t="n">
         <v>0</v>
@@ -1999,10 +1999,10 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C19" t="n">
-        <v>0</v>
+        <v>24.68164956070928</v>
       </c>
       <c r="D19" t="n">
         <v>0</v>
@@ -2017,7 +2017,7 @@
         <v>0</v>
       </c>
       <c r="H19" t="n">
-        <v>0</v>
+        <v>148.9138283675361</v>
       </c>
       <c r="I19" t="n">
         <v>0</v>
@@ -2047,28 +2047,28 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>0</v>
+        <v>109.9643524037928</v>
       </c>
       <c r="S19" t="n">
         <v>197.9208099836032</v>
       </c>
       <c r="T19" t="n">
-        <v>139.1537278750038</v>
+        <v>221.5475610583892</v>
       </c>
       <c r="U19" t="n">
         <v>286.2373523985773</v>
       </c>
       <c r="V19" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W19" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X19" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y19" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="20">
@@ -2099,7 +2099,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I20" t="n">
-        <v>81.77913505274049</v>
+        <v>81.77913505274074</v>
       </c>
       <c r="J20" t="n">
         <v>0</v>
@@ -2178,7 +2178,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I21" t="n">
-        <v>27.90133207014442</v>
+        <v>27.90133207014443</v>
       </c>
       <c r="J21" t="n">
         <v>0</v>
@@ -2236,7 +2236,7 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C22" t="n">
         <v>0</v>
@@ -2284,28 +2284,28 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>26.97444673954907</v>
+        <v>0</v>
       </c>
       <c r="S22" t="n">
         <v>197.9208099836032</v>
       </c>
       <c r="T22" t="n">
-        <v>0</v>
+        <v>221.5475610583892</v>
       </c>
       <c r="U22" t="n">
-        <v>0</v>
+        <v>286.2373523985773</v>
       </c>
       <c r="V22" t="n">
         <v>252.137643323828</v>
       </c>
       <c r="W22" t="n">
-        <v>286.522998336591</v>
+        <v>204.1291651532053</v>
       </c>
       <c r="X22" t="n">
         <v>225.7096553890372</v>
       </c>
       <c r="Y22" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="23">
@@ -2415,7 +2415,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I24" t="n">
-        <v>27.90133207014442</v>
+        <v>27.90133207014443</v>
       </c>
       <c r="J24" t="n">
         <v>0</v>
@@ -2476,7 +2476,7 @@
         <v>0</v>
       </c>
       <c r="C25" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D25" t="n">
         <v>0</v>
@@ -2521,13 +2521,13 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>0</v>
+        <v>109.9643524037928</v>
       </c>
       <c r="S25" t="n">
-        <v>115.5269768002178</v>
+        <v>197.9208099836032</v>
       </c>
       <c r="T25" t="n">
-        <v>221.5475610583892</v>
+        <v>87.6522097616201</v>
       </c>
       <c r="U25" t="n">
         <v>286.2373523985773</v>
@@ -2539,7 +2539,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X25" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y25" t="n">
         <v>0</v>
@@ -2567,7 +2567,7 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G26" t="n">
-        <v>411.9645167896915</v>
+        <v>411.9645167896912</v>
       </c>
       <c r="H26" t="n">
         <v>305.2872491113177</v>
@@ -2606,7 +2606,7 @@
         <v>132.9503648051988</v>
       </c>
       <c r="T26" t="n">
-        <v>208.4827883385028</v>
+        <v>208.4827883385019</v>
       </c>
       <c r="U26" t="n">
         <v>251.078595249801</v>
@@ -2652,7 +2652,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I27" t="n">
-        <v>27.90133207014442</v>
+        <v>27.90133207014443</v>
       </c>
       <c r="J27" t="n">
         <v>0</v>
@@ -2710,10 +2710,10 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>0</v>
+        <v>127.8017093406825</v>
       </c>
       <c r="C28" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D28" t="n">
         <v>0</v>
@@ -2758,13 +2758,13 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>0</v>
+        <v>109.9643524037928</v>
       </c>
       <c r="S28" t="n">
-        <v>197.9208099836032</v>
+        <v>0</v>
       </c>
       <c r="T28" t="n">
-        <v>221.5475610583892</v>
+        <v>0</v>
       </c>
       <c r="U28" t="n">
         <v>286.2373523985773</v>
@@ -2773,13 +2773,13 @@
         <v>252.137643323828</v>
       </c>
       <c r="W28" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X28" t="n">
-        <v>143.3158222056519</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y28" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="29">
@@ -2843,7 +2843,7 @@
         <v>132.9503648051988</v>
       </c>
       <c r="T29" t="n">
-        <v>208.482788338503</v>
+        <v>208.4827883385019</v>
       </c>
       <c r="U29" t="n">
         <v>251.078595249801</v>
@@ -2889,7 +2889,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I30" t="n">
-        <v>27.90133207014442</v>
+        <v>27.90133207014443</v>
       </c>
       <c r="J30" t="n">
         <v>0</v>
@@ -2947,28 +2947,28 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>124.6287235533803</v>
+        <v>124.6287235533802</v>
       </c>
       <c r="C31" t="n">
-        <v>112.0435644700708</v>
+        <v>0</v>
       </c>
       <c r="D31" t="n">
-        <v>93.41221638965533</v>
+        <v>93.41221638965526</v>
       </c>
       <c r="E31" t="n">
-        <v>91.23070601801214</v>
+        <v>91.23070601801207</v>
       </c>
       <c r="F31" t="n">
-        <v>90.21779139437422</v>
+        <v>0</v>
       </c>
       <c r="G31" t="n">
-        <v>0</v>
+        <v>111.2903118348205</v>
       </c>
       <c r="H31" t="n">
-        <v>60.15331472470271</v>
+        <v>0</v>
       </c>
       <c r="I31" t="n">
-        <v>55.21598883571495</v>
+        <v>55.21598883571488</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -2995,7 +2995,7 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>54.76109577523575</v>
+        <v>54.76109577523569</v>
       </c>
       <c r="S31" t="n">
         <v>142.7175533550462</v>
@@ -3007,16 +3007,16 @@
         <v>231.0340957700203</v>
       </c>
       <c r="V31" t="n">
-        <v>196.934386695271</v>
+        <v>196.9343866952709</v>
       </c>
       <c r="W31" t="n">
-        <v>231.319741708034</v>
+        <v>231.3197417080339</v>
       </c>
       <c r="X31" t="n">
         <v>170.5063987604801</v>
       </c>
       <c r="Y31" t="n">
-        <v>0</v>
+        <v>151.1243587543287</v>
       </c>
     </row>
     <row r="32">
@@ -3041,7 +3041,7 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G32" t="n">
-        <v>411.9645167896915</v>
+        <v>411.9645167896921</v>
       </c>
       <c r="H32" t="n">
         <v>305.2872491113177</v>
@@ -3126,7 +3126,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I33" t="n">
-        <v>27.90133207014442</v>
+        <v>27.90133207014443</v>
       </c>
       <c r="J33" t="n">
         <v>0</v>
@@ -3184,28 +3184,28 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>111.7000900522967</v>
+        <v>111.7000900522966</v>
       </c>
       <c r="C34" t="n">
-        <v>99.1149309689872</v>
+        <v>99.11493096898717</v>
       </c>
       <c r="D34" t="n">
-        <v>80.48358288857172</v>
+        <v>80.48358288857169</v>
       </c>
       <c r="E34" t="n">
-        <v>78.30207251692853</v>
+        <v>78.3020725169285</v>
       </c>
       <c r="F34" t="n">
-        <v>77.28915789329061</v>
+        <v>77.28915789329058</v>
       </c>
       <c r="G34" t="n">
-        <v>98.36167833373696</v>
+        <v>98.36167833373692</v>
       </c>
       <c r="H34" t="n">
-        <v>80.78193823789549</v>
+        <v>80.78193823789546</v>
       </c>
       <c r="I34" t="n">
-        <v>42.28735533463134</v>
+        <v>42.28735533463131</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -3232,7 +3232,7 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>41.83246227415214</v>
+        <v>41.83246227415212</v>
       </c>
       <c r="S34" t="n">
         <v>129.7889198539626</v>
@@ -3244,16 +3244,16 @@
         <v>218.1054622689367</v>
       </c>
       <c r="V34" t="n">
-        <v>184.0057531941874</v>
+        <v>184.0057531941873</v>
       </c>
       <c r="W34" t="n">
-        <v>218.3911082069504</v>
+        <v>218.3911082069503</v>
       </c>
       <c r="X34" t="n">
         <v>157.5777652593965</v>
       </c>
       <c r="Y34" t="n">
-        <v>150.4527632224542</v>
+        <v>150.4527632224541</v>
       </c>
     </row>
     <row r="35">
@@ -3278,7 +3278,7 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G35" t="n">
-        <v>411.9645167896915</v>
+        <v>411.9645167896921</v>
       </c>
       <c r="H35" t="n">
         <v>305.2872491113177</v>
@@ -3363,7 +3363,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I36" t="n">
-        <v>27.90133207014442</v>
+        <v>27.90133207014443</v>
       </c>
       <c r="J36" t="n">
         <v>0</v>
@@ -3421,28 +3421,28 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>111.7000900522967</v>
+        <v>111.7000900522966</v>
       </c>
       <c r="C37" t="n">
-        <v>99.1149309689872</v>
+        <v>99.11493096898717</v>
       </c>
       <c r="D37" t="n">
-        <v>80.48358288857172</v>
+        <v>80.48358288857169</v>
       </c>
       <c r="E37" t="n">
-        <v>78.30207251692853</v>
+        <v>78.3020725169285</v>
       </c>
       <c r="F37" t="n">
-        <v>77.28915789329061</v>
+        <v>77.28915789329058</v>
       </c>
       <c r="G37" t="n">
-        <v>98.36167833373695</v>
+        <v>98.36167833373692</v>
       </c>
       <c r="H37" t="n">
-        <v>80.78193823789549</v>
+        <v>80.78193823789546</v>
       </c>
       <c r="I37" t="n">
-        <v>42.28735533463133</v>
+        <v>42.28735533463131</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -3469,7 +3469,7 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>41.83246227415214</v>
+        <v>41.83246227415212</v>
       </c>
       <c r="S37" t="n">
         <v>129.7889198539626</v>
@@ -3481,16 +3481,16 @@
         <v>218.1054622689367</v>
       </c>
       <c r="V37" t="n">
-        <v>184.0057531941874</v>
+        <v>184.0057531941873</v>
       </c>
       <c r="W37" t="n">
-        <v>218.3911082069504</v>
+        <v>218.3911082069503</v>
       </c>
       <c r="X37" t="n">
         <v>157.5777652593965</v>
       </c>
       <c r="Y37" t="n">
-        <v>150.4527632224542</v>
+        <v>150.4527632224541</v>
       </c>
     </row>
     <row r="38">
@@ -3512,7 +3512,7 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F38" t="n">
-        <v>406.8760457417103</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G38" t="n">
         <v>411.9645167896915</v>
@@ -3600,7 +3600,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I39" t="n">
-        <v>27.90133207014442</v>
+        <v>27.90133207014443</v>
       </c>
       <c r="J39" t="n">
         <v>0</v>
@@ -3673,13 +3673,13 @@
         <v>77.28915789329059</v>
       </c>
       <c r="G40" t="n">
-        <v>98.36167833373693</v>
+        <v>98.36167833373695</v>
       </c>
       <c r="H40" t="n">
         <v>80.78193823789547</v>
       </c>
       <c r="I40" t="n">
-        <v>42.28735533463131</v>
+        <v>42.28735533463133</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -3706,7 +3706,7 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>41.83246227415212</v>
+        <v>41.83246227415214</v>
       </c>
       <c r="S40" t="n">
         <v>129.7889198539626</v>
@@ -3758,7 +3758,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I41" t="n">
-        <v>81.77913505274077</v>
+        <v>81.77913505274074</v>
       </c>
       <c r="J41" t="n">
         <v>0</v>
@@ -3788,7 +3788,7 @@
         <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>132.9503648051989</v>
+        <v>132.9503648051988</v>
       </c>
       <c r="T41" t="n">
         <v>208.4827883385019</v>
@@ -3837,7 +3837,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I42" t="n">
-        <v>27.90133207014444</v>
+        <v>27.90133207014443</v>
       </c>
       <c r="J42" t="n">
         <v>0</v>
@@ -3898,22 +3898,22 @@
         <v>111.7000900522966</v>
       </c>
       <c r="C43" t="n">
-        <v>99.11493096898715</v>
+        <v>99.11493096898717</v>
       </c>
       <c r="D43" t="n">
-        <v>80.48358288857168</v>
+        <v>80.48358288857169</v>
       </c>
       <c r="E43" t="n">
-        <v>78.30207251692849</v>
+        <v>78.3020725169285</v>
       </c>
       <c r="F43" t="n">
-        <v>77.28915789329056</v>
+        <v>77.28915789329058</v>
       </c>
       <c r="G43" t="n">
-        <v>98.3616783337369</v>
+        <v>98.36167833373693</v>
       </c>
       <c r="H43" t="n">
-        <v>80.78193823789545</v>
+        <v>80.78193823789546</v>
       </c>
       <c r="I43" t="n">
         <v>42.28735533463131</v>
@@ -3995,7 +3995,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I44" t="n">
-        <v>81.77913505274077</v>
+        <v>81.77913505274074</v>
       </c>
       <c r="J44" t="n">
         <v>0</v>
@@ -4025,7 +4025,7 @@
         <v>0</v>
       </c>
       <c r="S44" t="n">
-        <v>132.9503648051989</v>
+        <v>132.9503648051988</v>
       </c>
       <c r="T44" t="n">
         <v>208.4827883385019</v>
@@ -4074,7 +4074,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I45" t="n">
-        <v>27.90133207014444</v>
+        <v>27.90133207014443</v>
       </c>
       <c r="J45" t="n">
         <v>0</v>
@@ -4135,22 +4135,22 @@
         <v>111.7000900522966</v>
       </c>
       <c r="C46" t="n">
-        <v>99.11493096898715</v>
+        <v>99.11493096898717</v>
       </c>
       <c r="D46" t="n">
-        <v>80.48358288857168</v>
+        <v>80.48358288857169</v>
       </c>
       <c r="E46" t="n">
-        <v>78.30207251692849</v>
+        <v>78.3020725169285</v>
       </c>
       <c r="F46" t="n">
-        <v>77.28915789329056</v>
+        <v>77.28915789329058</v>
       </c>
       <c r="G46" t="n">
-        <v>98.3616783337369</v>
+        <v>98.36167833373693</v>
       </c>
       <c r="H46" t="n">
-        <v>80.78193823789545</v>
+        <v>80.78193823789546</v>
       </c>
       <c r="I46" t="n">
         <v>42.28735533463131</v>
@@ -4304,76 +4304,76 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>1335.58524627281</v>
+        <v>959.5129866402885</v>
       </c>
       <c r="C2" t="n">
-        <v>1335.58524627281</v>
+        <v>959.5129866402885</v>
       </c>
       <c r="D2" t="n">
-        <v>1335.58524627281</v>
+        <v>959.5129866402885</v>
       </c>
       <c r="E2" t="n">
-        <v>1335.58524627281</v>
+        <v>959.5129866402885</v>
       </c>
       <c r="F2" t="n">
-        <v>924.5993414832026</v>
+        <v>952.5674858910851</v>
       </c>
       <c r="G2" t="n">
-        <v>506.6355333813895</v>
+        <v>534.603677789272</v>
       </c>
       <c r="H2" t="n">
         <v>207.4089578252748</v>
       </c>
       <c r="I2" t="n">
-        <v>53.94298182036446</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="J2" t="n">
-        <v>169.7108380533143</v>
+        <v>169.7108380533141</v>
       </c>
       <c r="K2" t="n">
-        <v>463.9616490733129</v>
+        <v>463.9616490733124</v>
       </c>
       <c r="L2" t="n">
-        <v>881.2824271224077</v>
+        <v>881.2824271224073</v>
       </c>
       <c r="M2" t="n">
         <v>1362.238747280443</v>
       </c>
       <c r="N2" t="n">
-        <v>1836.345445977175</v>
+        <v>1836.345445977174</v>
       </c>
       <c r="O2" t="n">
         <v>2238.843319642689</v>
       </c>
       <c r="P2" t="n">
-        <v>2544.691559791253</v>
+        <v>2544.691559791252</v>
       </c>
       <c r="Q2" t="n">
-        <v>2697.149091018223</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="R2" t="n">
-        <v>2697.149091018223</v>
+        <v>2642.120401548716</v>
       </c>
       <c r="S2" t="n">
-        <v>2697.149091018223</v>
+        <v>2465.942913862886</v>
       </c>
       <c r="T2" t="n">
-        <v>2697.149091018223</v>
+        <v>2247.308246834948</v>
       </c>
       <c r="U2" t="n">
-        <v>2443.387305656314</v>
+        <v>1993.54646147304</v>
       </c>
       <c r="V2" t="n">
-        <v>2112.324418312744</v>
+        <v>1662.48357412947</v>
       </c>
       <c r="W2" t="n">
-        <v>2112.324418312744</v>
+        <v>1332.978744901368</v>
       </c>
       <c r="X2" t="n">
-        <v>2112.324418312744</v>
+        <v>959.5129866402885</v>
       </c>
       <c r="Y2" t="n">
-        <v>1722.185086336932</v>
+        <v>959.5129866402885</v>
       </c>
     </row>
     <row r="3">
@@ -4383,76 +4383,76 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>988.4979752170834</v>
+        <v>988.4979752170825</v>
       </c>
       <c r="C3" t="n">
-        <v>814.0449459359564</v>
+        <v>814.0449459359555</v>
       </c>
       <c r="D3" t="n">
-        <v>665.1105362747052</v>
+        <v>665.1105362747041</v>
       </c>
       <c r="E3" t="n">
-        <v>505.8730812692497</v>
+        <v>505.8730812692486</v>
       </c>
       <c r="F3" t="n">
-        <v>359.3385232961347</v>
+        <v>359.3385232961338</v>
       </c>
       <c r="G3" t="n">
-        <v>221.4284102424008</v>
+        <v>221.4284102424003</v>
       </c>
       <c r="H3" t="n">
-        <v>115.9856282673426</v>
+        <v>115.9856282673424</v>
       </c>
       <c r="I3" t="n">
-        <v>53.94298182036446</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="J3" t="n">
-        <v>53.94298182036446</v>
+        <v>129.2001442204943</v>
       </c>
       <c r="K3" t="n">
-        <v>309.190302261463</v>
+        <v>384.4474646615928</v>
       </c>
       <c r="L3" t="n">
-        <v>713.8062203571349</v>
+        <v>789.0633827572647</v>
       </c>
       <c r="M3" t="n">
-        <v>1237.953133915166</v>
+        <v>1313.210296315296</v>
       </c>
       <c r="N3" t="n">
-        <v>1791.679670014717</v>
+        <v>1748.695370517453</v>
       </c>
       <c r="O3" t="n">
-        <v>2231.815593035061</v>
+        <v>2188.831293537797</v>
       </c>
       <c r="P3" t="n">
-        <v>2568.06040664989</v>
+        <v>2525.076107152626</v>
       </c>
       <c r="Q3" t="n">
-        <v>2697.149091018223</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="R3" t="n">
-        <v>2646.935720430048</v>
+        <v>2646.935720430047</v>
       </c>
       <c r="S3" t="n">
-        <v>2488.762748073964</v>
+        <v>2488.762748073963</v>
       </c>
       <c r="T3" t="n">
-        <v>2289.884200196743</v>
+        <v>2289.884200196742</v>
       </c>
       <c r="U3" t="n">
         <v>2061.714576167582</v>
       </c>
       <c r="V3" t="n">
-        <v>1826.56246793584</v>
+        <v>1826.562467935839</v>
       </c>
       <c r="W3" t="n">
-        <v>1572.325111207638</v>
+        <v>1572.325111207637</v>
       </c>
       <c r="X3" t="n">
-        <v>1364.473611002105</v>
+        <v>1364.473611002104</v>
       </c>
       <c r="Y3" t="n">
-        <v>1156.713312237152</v>
+        <v>1156.713312237151</v>
       </c>
     </row>
     <row r="4">
@@ -4462,31 +4462,31 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>728.1289842064343</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="C4" t="n">
-        <v>728.1289842064343</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="D4" t="n">
-        <v>578.0123447940986</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="E4" t="n">
-        <v>430.0992512117055</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="F4" t="n">
-        <v>283.2093037137951</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="G4" t="n">
-        <v>114.2095034521275</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="H4" t="n">
-        <v>114.2095034521275</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="I4" t="n">
-        <v>53.94298182036446</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="J4" t="n">
-        <v>53.94298182036446</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="K4" t="n">
         <v>110.2451748866326</v>
@@ -4495,43 +4495,43 @@
         <v>237.819032447791</v>
       </c>
       <c r="M4" t="n">
-        <v>382.716901165821</v>
+        <v>382.7169011658209</v>
       </c>
       <c r="N4" t="n">
-        <v>529.60403885025</v>
+        <v>529.6040388502499</v>
       </c>
       <c r="O4" t="n">
-        <v>649.2617893594902</v>
+        <v>649.2617893594901</v>
       </c>
       <c r="P4" t="n">
-        <v>728.1289842064343</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="Q4" t="n">
-        <v>728.1289842064343</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="R4" t="n">
-        <v>728.1289842064343</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="S4" t="n">
-        <v>728.1289842064343</v>
+        <v>683.6922131255325</v>
       </c>
       <c r="T4" t="n">
-        <v>728.1289842064343</v>
+        <v>456.3840257941342</v>
       </c>
       <c r="U4" t="n">
-        <v>728.1289842064343</v>
+        <v>456.3840257941342</v>
       </c>
       <c r="V4" t="n">
-        <v>728.1289842064343</v>
+        <v>456.3840257941342</v>
       </c>
       <c r="W4" t="n">
-        <v>728.1289842064343</v>
+        <v>456.3840257941342</v>
       </c>
       <c r="X4" t="n">
-        <v>728.1289842064343</v>
+        <v>456.3840257941342</v>
       </c>
       <c r="Y4" t="n">
-        <v>728.1289842064343</v>
+        <v>235.5914466506042</v>
       </c>
     </row>
     <row r="5">
@@ -4541,43 +4541,43 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>2310.5492509541</v>
+        <v>979.5885935818919</v>
       </c>
       <c r="C5" t="n">
-        <v>1941.586734013689</v>
+        <v>941.2608351981287</v>
       </c>
       <c r="D5" t="n">
-        <v>1583.321035406938</v>
+        <v>941.2608351981287</v>
       </c>
       <c r="E5" t="n">
-        <v>1197.532782808694</v>
+        <v>555.4725825998845</v>
       </c>
       <c r="F5" t="n">
-        <v>786.5468780190865</v>
+        <v>548.527081850681</v>
       </c>
       <c r="G5" t="n">
-        <v>368.5830699172734</v>
+        <v>534.603677789272</v>
       </c>
       <c r="H5" t="n">
-        <v>53.94298182036445</v>
+        <v>207.4089578252748</v>
       </c>
       <c r="I5" t="n">
         <v>53.94298182036445</v>
       </c>
       <c r="J5" t="n">
-        <v>169.7108380533142</v>
+        <v>169.7108380533141</v>
       </c>
       <c r="K5" t="n">
-        <v>463.9616490733127</v>
+        <v>463.9616490733126</v>
       </c>
       <c r="L5" t="n">
-        <v>881.2824271224076</v>
+        <v>881.2824271224075</v>
       </c>
       <c r="M5" t="n">
         <v>1362.238747280443</v>
       </c>
       <c r="N5" t="n">
-        <v>1836.345445977175</v>
+        <v>1836.345445977174</v>
       </c>
       <c r="O5" t="n">
         <v>2238.843319642689</v>
@@ -4589,28 +4589,28 @@
         <v>2697.149091018222</v>
       </c>
       <c r="R5" t="n">
-        <v>2697.149091018222</v>
+        <v>2642.120401548716</v>
       </c>
       <c r="S5" t="n">
-        <v>2697.149091018222</v>
+        <v>2642.120401548716</v>
       </c>
       <c r="T5" t="n">
-        <v>2697.149091018222</v>
+        <v>2423.485734520778</v>
       </c>
       <c r="U5" t="n">
-        <v>2697.149091018222</v>
+        <v>2423.485734520778</v>
       </c>
       <c r="V5" t="n">
-        <v>2697.149091018222</v>
+        <v>2092.422847177208</v>
       </c>
       <c r="W5" t="n">
-        <v>2697.149091018222</v>
+        <v>1739.654191907093</v>
       </c>
       <c r="X5" t="n">
-        <v>2697.149091018222</v>
+        <v>1366.188433646014</v>
       </c>
       <c r="Y5" t="n">
-        <v>2697.149091018222</v>
+        <v>1366.188433646014</v>
       </c>
     </row>
     <row r="6">
@@ -4635,10 +4635,10 @@
         <v>359.3385232961342</v>
       </c>
       <c r="G6" t="n">
-        <v>221.4284102424008</v>
+        <v>221.4284102424003</v>
       </c>
       <c r="H6" t="n">
-        <v>115.9856282673427</v>
+        <v>115.9856282673424</v>
       </c>
       <c r="I6" t="n">
         <v>53.94298182036445</v>
@@ -4647,19 +4647,19 @@
         <v>129.2001442204943</v>
       </c>
       <c r="K6" t="n">
-        <v>384.4474646615928</v>
+        <v>266.206002764199</v>
       </c>
       <c r="L6" t="n">
-        <v>789.0633827572647</v>
+        <v>670.8219208598708</v>
       </c>
       <c r="M6" t="n">
-        <v>1313.210296315296</v>
+        <v>1194.968834417902</v>
       </c>
       <c r="N6" t="n">
-        <v>1866.936832414847</v>
+        <v>1748.695370517453</v>
       </c>
       <c r="O6" t="n">
-        <v>2307.072755435191</v>
+        <v>2188.831293537797</v>
       </c>
       <c r="P6" t="n">
         <v>2525.076107152626</v>
@@ -4699,13 +4699,13 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>351.9727148150933</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="C7" t="n">
-        <v>351.9727148150933</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="D7" t="n">
-        <v>201.8560754027576</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="E7" t="n">
         <v>53.94298182036445</v>
@@ -4744,31 +4744,31 @@
         <v>728.1289842064342</v>
       </c>
       <c r="Q7" t="n">
-        <v>728.1289842064342</v>
+        <v>698.7120650600561</v>
       </c>
       <c r="R7" t="n">
-        <v>728.1289842064342</v>
+        <v>550.5654064942401</v>
       </c>
       <c r="S7" t="n">
-        <v>728.1289842064342</v>
+        <v>550.5654064942401</v>
       </c>
       <c r="T7" t="n">
-        <v>728.1289842064342</v>
+        <v>550.5654064942401</v>
       </c>
       <c r="U7" t="n">
-        <v>728.1289842064342</v>
+        <v>550.5654064942401</v>
       </c>
       <c r="V7" t="n">
-        <v>728.1289842064342</v>
+        <v>463.5809975486215</v>
       </c>
       <c r="W7" t="n">
-        <v>728.1289842064342</v>
+        <v>463.5809975486215</v>
       </c>
       <c r="X7" t="n">
-        <v>728.1289842064342</v>
+        <v>235.5914466506042</v>
       </c>
       <c r="Y7" t="n">
-        <v>533.621179645333</v>
+        <v>235.5914466506042</v>
       </c>
     </row>
     <row r="8">
@@ -4778,76 +4778,76 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>1591.868758816787</v>
+        <v>1525.74665604171</v>
       </c>
       <c r="C8" t="n">
-        <v>1222.906241876376</v>
+        <v>1156.784139101298</v>
       </c>
       <c r="D8" t="n">
-        <v>864.6405432696254</v>
+        <v>1156.784139101298</v>
       </c>
       <c r="E8" t="n">
-        <v>478.8522906713811</v>
+        <v>770.9958865030542</v>
       </c>
       <c r="F8" t="n">
-        <v>67.86638588177354</v>
+        <v>764.0503857538507</v>
       </c>
       <c r="G8" t="n">
-        <v>53.94298182036444</v>
+        <v>346.0865776520376</v>
       </c>
       <c r="H8" t="n">
-        <v>53.94298182036444</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="I8" t="n">
-        <v>53.94298182036444</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="J8" t="n">
-        <v>169.7108380533141</v>
+        <v>169.7108380533142</v>
       </c>
       <c r="K8" t="n">
-        <v>463.9616490733126</v>
+        <v>463.9616490733127</v>
       </c>
       <c r="L8" t="n">
-        <v>881.2824271224074</v>
+        <v>881.2824271224079</v>
       </c>
       <c r="M8" t="n">
         <v>1362.238747280443</v>
       </c>
       <c r="N8" t="n">
-        <v>1836.345445977174</v>
+        <v>1836.345445977175</v>
       </c>
       <c r="O8" t="n">
         <v>2238.843319642689</v>
       </c>
       <c r="P8" t="n">
-        <v>2544.691559791252</v>
+        <v>2544.691559791253</v>
       </c>
       <c r="Q8" t="n">
-        <v>2697.149091018222</v>
+        <v>2697.149091018223</v>
       </c>
       <c r="R8" t="n">
-        <v>2697.149091018222</v>
+        <v>2642.120401548716</v>
       </c>
       <c r="S8" t="n">
-        <v>2697.149091018222</v>
+        <v>2642.120401548716</v>
       </c>
       <c r="T8" t="n">
-        <v>2697.149091018222</v>
+        <v>2642.120401548716</v>
       </c>
       <c r="U8" t="n">
-        <v>2697.149091018222</v>
+        <v>2642.120401548716</v>
       </c>
       <c r="V8" t="n">
-        <v>2697.149091018222</v>
+        <v>2642.120401548716</v>
       </c>
       <c r="W8" t="n">
-        <v>2697.149091018222</v>
+        <v>2289.351746278602</v>
       </c>
       <c r="X8" t="n">
-        <v>2368.607930856721</v>
+        <v>1915.885988017522</v>
       </c>
       <c r="Y8" t="n">
-        <v>1978.468598880909</v>
+        <v>1525.74665604171</v>
       </c>
     </row>
     <row r="9">
@@ -4878,16 +4878,16 @@
         <v>115.9856282673424</v>
       </c>
       <c r="I9" t="n">
-        <v>53.94298182036444</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="J9" t="n">
         <v>129.2001442204943</v>
       </c>
       <c r="K9" t="n">
-        <v>266.2060027641994</v>
+        <v>384.4474646615928</v>
       </c>
       <c r="L9" t="n">
-        <v>670.8219208598713</v>
+        <v>789.0633827572647</v>
       </c>
       <c r="M9" t="n">
         <v>1194.968834417902</v>
@@ -4936,31 +4936,31 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>325.6879402326643</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="C10" t="n">
-        <v>156.7517573047574</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="D10" t="n">
-        <v>53.94298182036444</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="E10" t="n">
-        <v>53.94298182036444</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="F10" t="n">
-        <v>53.94298182036444</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="G10" t="n">
-        <v>53.94298182036444</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="H10" t="n">
-        <v>53.94298182036444</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="I10" t="n">
-        <v>53.94298182036444</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="J10" t="n">
-        <v>53.94298182036444</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="K10" t="n">
         <v>110.2451748866326</v>
@@ -4969,43 +4969,43 @@
         <v>237.819032447791</v>
       </c>
       <c r="M10" t="n">
-        <v>382.7169011658209</v>
+        <v>382.716901165821</v>
       </c>
       <c r="N10" t="n">
-        <v>529.6040388502499</v>
+        <v>529.60403885025</v>
       </c>
       <c r="O10" t="n">
-        <v>649.2617893594901</v>
+        <v>649.2617893594902</v>
       </c>
       <c r="P10" t="n">
-        <v>728.1289842064342</v>
+        <v>728.1289842064343</v>
       </c>
       <c r="Q10" t="n">
-        <v>728.1289842064342</v>
+        <v>728.1289842064343</v>
       </c>
       <c r="R10" t="n">
-        <v>728.1289842064342</v>
+        <v>579.9823256406182</v>
       </c>
       <c r="S10" t="n">
-        <v>728.1289842064342</v>
+        <v>570.4247794971948</v>
       </c>
       <c r="T10" t="n">
-        <v>728.1289842064342</v>
+        <v>343.1165921657965</v>
       </c>
       <c r="U10" t="n">
-        <v>728.1289842064342</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="V10" t="n">
-        <v>728.1289842064342</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="W10" t="n">
-        <v>728.1289842064342</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="X10" t="n">
-        <v>728.1289842064342</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="Y10" t="n">
-        <v>507.3364050629041</v>
+        <v>53.94298182036446</v>
       </c>
     </row>
     <row r="11">
@@ -5024,46 +5024,46 @@
         <v>1701.093169003441</v>
       </c>
       <c r="E11" t="n">
-        <v>1315.304916405196</v>
+        <v>1315.304916405197</v>
       </c>
       <c r="F11" t="n">
-        <v>904.3190116155888</v>
+        <v>904.319011615589</v>
       </c>
       <c r="G11" t="n">
-        <v>488.193237080547</v>
+        <v>488.1932370805464</v>
       </c>
       <c r="H11" t="n">
-        <v>179.8222783822462</v>
+        <v>179.8222783822457</v>
       </c>
       <c r="I11" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J11" t="n">
         <v>365.8813331823785</v>
       </c>
       <c r="K11" t="n">
-        <v>889.2841917514088</v>
+        <v>889.2841917514083</v>
       </c>
       <c r="L11" t="n">
-        <v>1590.888347795207</v>
+        <v>1590.888347795206</v>
       </c>
       <c r="M11" t="n">
         <v>2388.164701515097</v>
       </c>
       <c r="N11" t="n">
-        <v>3183.709822619128</v>
+        <v>3183.709822619127</v>
       </c>
       <c r="O11" t="n">
-        <v>3889.732883643324</v>
+        <v>3889.732883643323</v>
       </c>
       <c r="P11" t="n">
-        <v>4454.632848899128</v>
+        <v>4454.632848899127</v>
       </c>
       <c r="Q11" t="n">
-        <v>4801.627437207831</v>
+        <v>4801.62743720783</v>
       </c>
       <c r="R11" t="n">
-        <v>4860.854573014293</v>
+        <v>4860.854573014292</v>
       </c>
       <c r="S11" t="n">
         <v>4726.561275231264</v>
@@ -5115,31 +5115,31 @@
         <v>125.4002551675025</v>
       </c>
       <c r="I12" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J12" t="n">
-        <v>138.7081686256435</v>
+        <v>263.5382936126482</v>
       </c>
       <c r="K12" t="n">
-        <v>287.7778528277034</v>
+        <v>412.6079778147081</v>
       </c>
       <c r="L12" t="n">
-        <v>534.5429807341676</v>
+        <v>1026.505047571597</v>
       </c>
       <c r="M12" t="n">
-        <v>1247.466478653857</v>
+        <v>1396.107276203138</v>
       </c>
       <c r="N12" t="n">
-        <v>2051.878056918008</v>
+        <v>1725.969903867171</v>
       </c>
       <c r="O12" t="n">
-        <v>2331.418122136705</v>
+        <v>2005.509969085868</v>
       </c>
       <c r="P12" t="n">
-        <v>2536.440602918915</v>
+        <v>2525.810590821615</v>
       </c>
       <c r="Q12" t="n">
-        <v>2623.573505376138</v>
+        <v>2612.943493278838</v>
       </c>
       <c r="R12" t="n">
         <v>2623.573505376138</v>
@@ -5173,28 +5173,28 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="C13" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="D13" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="E13" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="F13" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="G13" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="H13" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="I13" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J13" t="n">
         <v>109.5997839241957</v>
@@ -5203,10 +5203,10 @@
         <v>259.7851881688072</v>
       </c>
       <c r="L13" t="n">
-        <v>507.4972331799365</v>
+        <v>507.4972331799364</v>
       </c>
       <c r="M13" t="n">
-        <v>779.0639759471196</v>
+        <v>779.0639759471192</v>
       </c>
       <c r="N13" t="n">
         <v>1049.608084974667</v>
@@ -5215,34 +5215,34 @@
         <v>1283.483062980064</v>
       </c>
       <c r="P13" t="n">
-        <v>1460.082827585747</v>
+        <v>1460.082827585746</v>
       </c>
       <c r="Q13" t="n">
-        <v>1498.916270557903</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="R13" t="n">
-        <v>1498.916270557903</v>
+        <v>1387.841167119728</v>
       </c>
       <c r="S13" t="n">
-        <v>1298.996260473455</v>
+        <v>1387.841167119728</v>
       </c>
       <c r="T13" t="n">
-        <v>1158.436939387592</v>
+        <v>1379.229518531123</v>
       </c>
       <c r="U13" t="n">
-        <v>869.3083006011507</v>
+        <v>1090.100879744681</v>
       </c>
       <c r="V13" t="n">
-        <v>614.6238123952638</v>
+        <v>835.416391538794</v>
       </c>
       <c r="W13" t="n">
-        <v>325.2066423583032</v>
+        <v>545.9992215018333</v>
       </c>
       <c r="X13" t="n">
-        <v>97.21709146028587</v>
+        <v>318.0096706038159</v>
       </c>
       <c r="Y13" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
     </row>
     <row r="14">
@@ -5252,19 +5252,19 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>2428.321384550603</v>
+        <v>2428.321384550602</v>
       </c>
       <c r="C14" t="n">
         <v>2059.358867610191</v>
       </c>
       <c r="D14" t="n">
-        <v>1701.093169003441</v>
+        <v>1701.09316900344</v>
       </c>
       <c r="E14" t="n">
         <v>1315.304916405196</v>
       </c>
       <c r="F14" t="n">
-        <v>904.3190116155888</v>
+        <v>904.3190116155886</v>
       </c>
       <c r="G14" t="n">
         <v>488.193237080547</v>
@@ -5273,34 +5273,34 @@
         <v>179.8222783822462</v>
       </c>
       <c r="I14" t="n">
-        <v>97.21709146028589</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J14" t="n">
-        <v>365.8813331823794</v>
+        <v>365.881333182379</v>
       </c>
       <c r="K14" t="n">
-        <v>889.2841917514088</v>
+        <v>889.2841917514083</v>
       </c>
       <c r="L14" t="n">
-        <v>1590.888347795207</v>
+        <v>1590.888347795206</v>
       </c>
       <c r="M14" t="n">
-        <v>2388.164701515098</v>
+        <v>2388.164701515097</v>
       </c>
       <c r="N14" t="n">
-        <v>3183.709822619129</v>
+        <v>3183.709822619127</v>
       </c>
       <c r="O14" t="n">
-        <v>3889.732883643324</v>
+        <v>3889.732883643323</v>
       </c>
       <c r="P14" t="n">
-        <v>4454.632848899128</v>
+        <v>4454.632848899127</v>
       </c>
       <c r="Q14" t="n">
-        <v>4801.627437207831</v>
+        <v>4801.62743720783</v>
       </c>
       <c r="R14" t="n">
-        <v>4860.854573014294</v>
+        <v>4860.854573014292</v>
       </c>
       <c r="S14" t="n">
         <v>4726.561275231264</v>
@@ -5312,16 +5312,16 @@
         <v>4262.357857465301</v>
       </c>
       <c r="V14" t="n">
-        <v>3931.294970121731</v>
+        <v>3931.29497012173</v>
       </c>
       <c r="W14" t="n">
         <v>3578.526314851616</v>
       </c>
       <c r="X14" t="n">
-        <v>3205.060556590537</v>
+        <v>3205.060556590536</v>
       </c>
       <c r="Y14" t="n">
-        <v>2814.921224614725</v>
+        <v>2814.921224614724</v>
       </c>
     </row>
     <row r="15">
@@ -5352,25 +5352,25 @@
         <v>125.4002551675025</v>
       </c>
       <c r="I15" t="n">
-        <v>97.21709146028589</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J15" t="n">
-        <v>138.7081686256435</v>
+        <v>138.7081686256434</v>
       </c>
       <c r="K15" t="n">
-        <v>549.5984374701562</v>
+        <v>287.7778528277033</v>
       </c>
       <c r="L15" t="n">
-        <v>1163.495507227045</v>
+        <v>550.2226492899338</v>
       </c>
       <c r="M15" t="n">
-        <v>1470.815640507007</v>
+        <v>857.5427825698953</v>
       </c>
       <c r="N15" t="n">
-        <v>1800.678268171039</v>
+        <v>1661.954360834046</v>
       </c>
       <c r="O15" t="n">
-        <v>2080.218333389736</v>
+        <v>2331.418122136705</v>
       </c>
       <c r="P15" t="n">
         <v>2536.440602918915</v>
@@ -5410,28 +5410,28 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>97.21709146028589</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="C16" t="n">
-        <v>97.21709146028589</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="D16" t="n">
-        <v>97.21709146028589</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="E16" t="n">
-        <v>97.21709146028589</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="F16" t="n">
-        <v>97.21709146028589</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="G16" t="n">
-        <v>97.21709146028589</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="H16" t="n">
-        <v>97.21709146028589</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="I16" t="n">
-        <v>97.21709146028589</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J16" t="n">
         <v>109.5997839241957</v>
@@ -5440,7 +5440,7 @@
         <v>259.7851881688072</v>
       </c>
       <c r="L16" t="n">
-        <v>507.4972331799365</v>
+        <v>507.4972331799364</v>
       </c>
       <c r="M16" t="n">
         <v>779.0639759471192</v>
@@ -5458,28 +5458,28 @@
         <v>1498.916270557902</v>
       </c>
       <c r="R16" t="n">
-        <v>1498.916270557902</v>
+        <v>1387.841167119728</v>
       </c>
       <c r="S16" t="n">
-        <v>1298.996260473455</v>
+        <v>1187.92115703528</v>
       </c>
       <c r="T16" t="n">
-        <v>1075.21084526296</v>
+        <v>964.1357418247857</v>
       </c>
       <c r="U16" t="n">
-        <v>786.0822064765188</v>
+        <v>964.1357418247857</v>
       </c>
       <c r="V16" t="n">
-        <v>531.3977182706319</v>
+        <v>709.4512536188988</v>
       </c>
       <c r="W16" t="n">
-        <v>241.9805482336712</v>
+        <v>420.0340835819381</v>
       </c>
       <c r="X16" t="n">
-        <v>97.21709146028589</v>
+        <v>278.8655562905255</v>
       </c>
       <c r="Y16" t="n">
-        <v>97.21709146028589</v>
+        <v>278.8655562905255</v>
       </c>
     </row>
     <row r="17">
@@ -5489,76 +5489,76 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>2428.321384550604</v>
+        <v>2428.321384550602</v>
       </c>
       <c r="C17" t="n">
-        <v>2059.358867610193</v>
+        <v>2059.358867610191</v>
       </c>
       <c r="D17" t="n">
-        <v>1701.093169003442</v>
+        <v>1701.09316900344</v>
       </c>
       <c r="E17" t="n">
-        <v>1315.304916405198</v>
+        <v>1315.304916405196</v>
       </c>
       <c r="F17" t="n">
-        <v>904.3190116155904</v>
+        <v>904.3190116155886</v>
       </c>
       <c r="G17" t="n">
-        <v>488.1932370805485</v>
+        <v>488.193237080547</v>
       </c>
       <c r="H17" t="n">
-        <v>179.8222783822478</v>
+        <v>179.8222783822462</v>
       </c>
       <c r="I17" t="n">
-        <v>97.21709146028589</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J17" t="n">
-        <v>365.8813331823794</v>
+        <v>365.8813331823785</v>
       </c>
       <c r="K17" t="n">
-        <v>889.2841917514088</v>
+        <v>889.2841917514082</v>
       </c>
       <c r="L17" t="n">
-        <v>1590.888347795207</v>
+        <v>1590.888347795206</v>
       </c>
       <c r="M17" t="n">
-        <v>2388.164701515098</v>
+        <v>2388.164701515097</v>
       </c>
       <c r="N17" t="n">
-        <v>3183.709822619129</v>
+        <v>3183.709822619127</v>
       </c>
       <c r="O17" t="n">
-        <v>3889.732883643324</v>
+        <v>3889.732883643323</v>
       </c>
       <c r="P17" t="n">
-        <v>4454.632848899128</v>
+        <v>4454.632848899127</v>
       </c>
       <c r="Q17" t="n">
-        <v>4801.627437207831</v>
+        <v>4801.62743720783</v>
       </c>
       <c r="R17" t="n">
-        <v>4860.854573014294</v>
+        <v>4860.854573014292</v>
       </c>
       <c r="S17" t="n">
-        <v>4726.561275231265</v>
+        <v>4726.561275231264</v>
       </c>
       <c r="T17" t="n">
-        <v>4515.972600141869</v>
+        <v>4515.972600141868</v>
       </c>
       <c r="U17" t="n">
-        <v>4262.357857465303</v>
+        <v>4262.357857465301</v>
       </c>
       <c r="V17" t="n">
-        <v>3931.294970121732</v>
+        <v>3931.29497012173</v>
       </c>
       <c r="W17" t="n">
-        <v>3578.526314851618</v>
+        <v>3578.526314851616</v>
       </c>
       <c r="X17" t="n">
-        <v>3205.060556590538</v>
+        <v>3205.060556590536</v>
       </c>
       <c r="Y17" t="n">
-        <v>2814.921224614726</v>
+        <v>2814.921224614724</v>
       </c>
     </row>
     <row r="18">
@@ -5589,22 +5589,22 @@
         <v>125.4002551675025</v>
       </c>
       <c r="I18" t="n">
-        <v>97.21709146028589</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J18" t="n">
-        <v>138.7081686256435</v>
+        <v>138.7081686256434</v>
       </c>
       <c r="K18" t="n">
-        <v>287.7778528277034</v>
+        <v>326.2492756170072</v>
       </c>
       <c r="L18" t="n">
-        <v>901.6749225845922</v>
+        <v>940.1463453738959</v>
       </c>
       <c r="M18" t="n">
-        <v>1670.043068977054</v>
+        <v>1247.466478653857</v>
       </c>
       <c r="N18" t="n">
-        <v>1999.905696641086</v>
+        <v>2051.878056918008</v>
       </c>
       <c r="O18" t="n">
         <v>2331.418122136705</v>
@@ -5647,76 +5647,76 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>97.21709146028589</v>
+        <v>272.5660590645741</v>
       </c>
       <c r="C19" t="n">
-        <v>97.21709146028589</v>
+        <v>247.6350999123425</v>
       </c>
       <c r="D19" t="n">
-        <v>97.21709146028589</v>
+        <v>247.6350999123425</v>
       </c>
       <c r="E19" t="n">
-        <v>97.21709146028589</v>
+        <v>247.6350999123425</v>
       </c>
       <c r="F19" t="n">
-        <v>97.21709146028589</v>
+        <v>247.6350999123425</v>
       </c>
       <c r="G19" t="n">
-        <v>97.21709146028589</v>
+        <v>247.6350999123425</v>
       </c>
       <c r="H19" t="n">
-        <v>97.21709146028589</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="I19" t="n">
-        <v>97.21709146028589</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J19" t="n">
-        <v>109.5997839241957</v>
+        <v>109.5997839241956</v>
       </c>
       <c r="K19" t="n">
-        <v>259.7851881688072</v>
+        <v>259.7851881688071</v>
       </c>
       <c r="L19" t="n">
-        <v>507.4972331799365</v>
+        <v>507.4972331799363</v>
       </c>
       <c r="M19" t="n">
-        <v>779.0639759471194</v>
+        <v>779.063975947119</v>
       </c>
       <c r="N19" t="n">
         <v>1049.608084974667</v>
       </c>
       <c r="O19" t="n">
-        <v>1283.483062980064</v>
+        <v>1283.483062980063</v>
       </c>
       <c r="P19" t="n">
-        <v>1460.082827585747</v>
+        <v>1460.082827585746</v>
       </c>
       <c r="Q19" t="n">
-        <v>1498.916270557903</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="R19" t="n">
-        <v>1498.916270557903</v>
+        <v>1387.841167119728</v>
       </c>
       <c r="S19" t="n">
-        <v>1298.996260473455</v>
+        <v>1187.92115703528</v>
       </c>
       <c r="T19" t="n">
-        <v>1158.436939387593</v>
+        <v>964.1357418247856</v>
       </c>
       <c r="U19" t="n">
-        <v>869.3083006011508</v>
+        <v>675.007103038344</v>
       </c>
       <c r="V19" t="n">
-        <v>614.6238123952639</v>
+        <v>675.007103038344</v>
       </c>
       <c r="W19" t="n">
-        <v>325.2066423583032</v>
+        <v>675.007103038344</v>
       </c>
       <c r="X19" t="n">
-        <v>97.21709146028589</v>
+        <v>675.007103038344</v>
       </c>
       <c r="Y19" t="n">
-        <v>97.21709146028589</v>
+        <v>454.2145238948139</v>
       </c>
     </row>
     <row r="20">
@@ -5732,28 +5732,28 @@
         <v>2059.358867610191</v>
       </c>
       <c r="D20" t="n">
-        <v>1701.09316900344</v>
+        <v>1701.093169003441</v>
       </c>
       <c r="E20" t="n">
-        <v>1315.304916405196</v>
+        <v>1315.304916405197</v>
       </c>
       <c r="F20" t="n">
-        <v>904.3190116155886</v>
+        <v>904.319011615589</v>
       </c>
       <c r="G20" t="n">
-        <v>488.1932370805467</v>
+        <v>488.1932370805466</v>
       </c>
       <c r="H20" t="n">
-        <v>179.8222783822459</v>
+        <v>179.822278382246</v>
       </c>
       <c r="I20" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028562</v>
       </c>
       <c r="J20" t="n">
-        <v>365.8813331823787</v>
+        <v>365.8813331823786</v>
       </c>
       <c r="K20" t="n">
-        <v>889.2841917514085</v>
+        <v>889.2841917514083</v>
       </c>
       <c r="L20" t="n">
         <v>1590.888347795207</v>
@@ -5762,16 +5762,16 @@
         <v>2388.164701515097</v>
       </c>
       <c r="N20" t="n">
-        <v>3183.709822619128</v>
+        <v>3183.709822619127</v>
       </c>
       <c r="O20" t="n">
-        <v>3889.732883643324</v>
+        <v>3889.732883643323</v>
       </c>
       <c r="P20" t="n">
-        <v>4454.632848899128</v>
+        <v>4454.632848899127</v>
       </c>
       <c r="Q20" t="n">
-        <v>4801.627437207831</v>
+        <v>4801.62743720783</v>
       </c>
       <c r="R20" t="n">
         <v>4860.854573014292</v>
@@ -5817,31 +5817,31 @@
         <v>504.8063651047445</v>
       </c>
       <c r="F21" t="n">
-        <v>358.2718071316294</v>
+        <v>358.2718071316295</v>
       </c>
       <c r="G21" t="n">
-        <v>221.3451287358147</v>
+        <v>221.3451287358148</v>
       </c>
       <c r="H21" t="n">
-        <v>125.4002551675024</v>
+        <v>125.4002551675025</v>
       </c>
       <c r="I21" t="n">
         <v>97.21709146028584</v>
       </c>
       <c r="J21" t="n">
-        <v>138.7081686256435</v>
+        <v>263.5382936126482</v>
       </c>
       <c r="K21" t="n">
-        <v>287.7778528277034</v>
+        <v>412.6079778147081</v>
       </c>
       <c r="L21" t="n">
-        <v>901.6749225845922</v>
+        <v>659.3731057211721</v>
       </c>
       <c r="M21" t="n">
-        <v>1670.043068977054</v>
+        <v>1427.741252113634</v>
       </c>
       <c r="N21" t="n">
-        <v>1999.905696641086</v>
+        <v>1757.603879777666</v>
       </c>
       <c r="O21" t="n">
         <v>2331.418122136705</v>
@@ -5884,40 +5884,40 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="C22" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="D22" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="E22" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="F22" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="G22" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="H22" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="I22" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J22" t="n">
-        <v>109.5997839241958</v>
+        <v>109.5997839241957</v>
       </c>
       <c r="K22" t="n">
-        <v>259.7851881688073</v>
+        <v>259.7851881688072</v>
       </c>
       <c r="L22" t="n">
-        <v>507.4972331799365</v>
+        <v>507.4972331799364</v>
       </c>
       <c r="M22" t="n">
-        <v>779.0639759471194</v>
+        <v>779.0639759471192</v>
       </c>
       <c r="N22" t="n">
         <v>1049.608084974667</v>
@@ -5926,34 +5926,34 @@
         <v>1283.483062980064</v>
       </c>
       <c r="P22" t="n">
-        <v>1460.082827585747</v>
+        <v>1460.082827585746</v>
       </c>
       <c r="Q22" t="n">
-        <v>1498.916270557903</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="R22" t="n">
-        <v>1471.669354659368</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="S22" t="n">
-        <v>1271.749344574921</v>
+        <v>1298.996260473455</v>
       </c>
       <c r="T22" t="n">
-        <v>1271.749344574921</v>
+        <v>1075.21084526296</v>
       </c>
       <c r="U22" t="n">
-        <v>1271.749344574921</v>
+        <v>786.0822064765186</v>
       </c>
       <c r="V22" t="n">
-        <v>1017.064856369034</v>
+        <v>531.3977182706318</v>
       </c>
       <c r="W22" t="n">
-        <v>727.647686332073</v>
+        <v>325.2066423583032</v>
       </c>
       <c r="X22" t="n">
-        <v>499.6581354340557</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="Y22" t="n">
-        <v>278.8655562905255</v>
+        <v>97.21709146028584</v>
       </c>
     </row>
     <row r="23">
@@ -5966,49 +5966,49 @@
         <v>2428.321384550602</v>
       </c>
       <c r="C23" t="n">
-        <v>2059.35886761019</v>
+        <v>2059.358867610191</v>
       </c>
       <c r="D23" t="n">
-        <v>1701.09316900344</v>
+        <v>1701.093169003441</v>
       </c>
       <c r="E23" t="n">
-        <v>1315.304916405196</v>
+        <v>1315.304916405197</v>
       </c>
       <c r="F23" t="n">
-        <v>904.3190116155888</v>
+        <v>904.319011615589</v>
       </c>
       <c r="G23" t="n">
-        <v>488.1932370805469</v>
+        <v>488.1932370805462</v>
       </c>
       <c r="H23" t="n">
-        <v>179.8222783822462</v>
+        <v>179.8222783822459</v>
       </c>
       <c r="I23" t="n">
         <v>97.21709146028584</v>
       </c>
       <c r="J23" t="n">
-        <v>365.8813331823787</v>
+        <v>365.8813331823783</v>
       </c>
       <c r="K23" t="n">
-        <v>889.2841917514085</v>
+        <v>889.2841917514079</v>
       </c>
       <c r="L23" t="n">
-        <v>1590.888347795207</v>
+        <v>1590.888347795206</v>
       </c>
       <c r="M23" t="n">
         <v>2388.164701515097</v>
       </c>
       <c r="N23" t="n">
-        <v>3183.709822619128</v>
+        <v>3183.709822619127</v>
       </c>
       <c r="O23" t="n">
-        <v>3889.732883643324</v>
+        <v>3889.732883643323</v>
       </c>
       <c r="P23" t="n">
-        <v>4454.632848899128</v>
+        <v>4454.632848899127</v>
       </c>
       <c r="Q23" t="n">
-        <v>4801.627437207831</v>
+        <v>4801.62743720783</v>
       </c>
       <c r="R23" t="n">
         <v>4860.854573014292</v>
@@ -6020,16 +6020,16 @@
         <v>4515.972600141868</v>
       </c>
       <c r="U23" t="n">
-        <v>4262.3578574653</v>
+        <v>4262.357857465301</v>
       </c>
       <c r="V23" t="n">
-        <v>3931.294970121729</v>
+        <v>3931.29497012173</v>
       </c>
       <c r="W23" t="n">
-        <v>3578.526314851615</v>
+        <v>3578.526314851616</v>
       </c>
       <c r="X23" t="n">
-        <v>3205.060556590535</v>
+        <v>3205.060556590536</v>
       </c>
       <c r="Y23" t="n">
         <v>2814.921224614724</v>
@@ -6054,13 +6054,13 @@
         <v>504.8063651047445</v>
       </c>
       <c r="F24" t="n">
-        <v>358.2718071316294</v>
+        <v>358.2718071316295</v>
       </c>
       <c r="G24" t="n">
-        <v>221.3451287358147</v>
+        <v>221.3451287358148</v>
       </c>
       <c r="H24" t="n">
-        <v>125.4002551675024</v>
+        <v>125.4002551675025</v>
       </c>
       <c r="I24" t="n">
         <v>97.21709146028584</v>
@@ -6069,19 +6069,19 @@
         <v>138.7081686256435</v>
       </c>
       <c r="K24" t="n">
-        <v>287.7778528277034</v>
+        <v>287.7778528277033</v>
       </c>
       <c r="L24" t="n">
-        <v>901.6749225845922</v>
+        <v>534.5429807341674</v>
       </c>
       <c r="M24" t="n">
-        <v>1670.043068977054</v>
+        <v>841.863114014129</v>
       </c>
       <c r="N24" t="n">
-        <v>1999.905696641086</v>
+        <v>1646.27469227828</v>
       </c>
       <c r="O24" t="n">
-        <v>2331.418122136705</v>
+        <v>2016.139981183168</v>
       </c>
       <c r="P24" t="n">
         <v>2536.440602918915</v>
@@ -6121,7 +6121,7 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>97.21709146028584</v>
+        <v>266.1532743881928</v>
       </c>
       <c r="C25" t="n">
         <v>97.21709146028584</v>
@@ -6151,10 +6151,10 @@
         <v>259.7851881688072</v>
       </c>
       <c r="L25" t="n">
-        <v>507.4972331799364</v>
+        <v>507.4972331799363</v>
       </c>
       <c r="M25" t="n">
-        <v>779.0639759471193</v>
+        <v>779.0639759471192</v>
       </c>
       <c r="N25" t="n">
         <v>1049.608084974667</v>
@@ -6163,34 +6163,34 @@
         <v>1283.483062980064</v>
       </c>
       <c r="P25" t="n">
-        <v>1460.082827585747</v>
+        <v>1460.082827585746</v>
       </c>
       <c r="Q25" t="n">
-        <v>1498.916270557903</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="R25" t="n">
-        <v>1498.916270557903</v>
+        <v>1387.841167119728</v>
       </c>
       <c r="S25" t="n">
-        <v>1382.222354598087</v>
+        <v>1187.92115703528</v>
       </c>
       <c r="T25" t="n">
-        <v>1158.436939387592</v>
+        <v>1099.383571417482</v>
       </c>
       <c r="U25" t="n">
-        <v>869.3083006011507</v>
+        <v>810.2549326310402</v>
       </c>
       <c r="V25" t="n">
-        <v>614.6238123952638</v>
+        <v>555.5704444251534</v>
       </c>
       <c r="W25" t="n">
-        <v>325.2066423583032</v>
+        <v>266.1532743881928</v>
       </c>
       <c r="X25" t="n">
-        <v>97.21709146028584</v>
+        <v>266.1532743881928</v>
       </c>
       <c r="Y25" t="n">
-        <v>97.21709146028584</v>
+        <v>266.1532743881928</v>
       </c>
     </row>
     <row r="26">
@@ -6206,52 +6206,52 @@
         <v>2059.358867610191</v>
       </c>
       <c r="D26" t="n">
-        <v>1701.093169003441</v>
+        <v>1701.09316900344</v>
       </c>
       <c r="E26" t="n">
-        <v>1315.304916405197</v>
+        <v>1315.304916405196</v>
       </c>
       <c r="F26" t="n">
-        <v>904.319011615589</v>
+        <v>904.3190116155886</v>
       </c>
       <c r="G26" t="n">
-        <v>488.1932370805469</v>
+        <v>488.193237080547</v>
       </c>
       <c r="H26" t="n">
         <v>179.8222783822462</v>
       </c>
       <c r="I26" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J26" t="n">
         <v>365.8813331823787</v>
       </c>
       <c r="K26" t="n">
-        <v>889.2841917514088</v>
+        <v>889.2841917514083</v>
       </c>
       <c r="L26" t="n">
-        <v>1590.888347795207</v>
+        <v>1590.888347795206</v>
       </c>
       <c r="M26" t="n">
         <v>2388.164701515097</v>
       </c>
       <c r="N26" t="n">
-        <v>3183.709822619128</v>
+        <v>3183.709822619127</v>
       </c>
       <c r="O26" t="n">
-        <v>3889.732883643324</v>
+        <v>3889.732883643323</v>
       </c>
       <c r="P26" t="n">
-        <v>4454.632848899128</v>
+        <v>4454.632848899127</v>
       </c>
       <c r="Q26" t="n">
-        <v>4801.627437207831</v>
+        <v>4801.62743720783</v>
       </c>
       <c r="R26" t="n">
-        <v>4860.854573014293</v>
+        <v>4860.854573014292</v>
       </c>
       <c r="S26" t="n">
-        <v>4726.561275231265</v>
+        <v>4726.561275231264</v>
       </c>
       <c r="T26" t="n">
         <v>4515.972600141868</v>
@@ -6300,31 +6300,31 @@
         <v>125.4002551675025</v>
       </c>
       <c r="I27" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J27" t="n">
         <v>138.7081686256435</v>
       </c>
       <c r="K27" t="n">
-        <v>287.7778528277034</v>
+        <v>287.7778528277033</v>
       </c>
       <c r="L27" t="n">
-        <v>901.6749225845922</v>
+        <v>534.5429807341674</v>
       </c>
       <c r="M27" t="n">
-        <v>1670.043068977054</v>
+        <v>841.863114014129</v>
       </c>
       <c r="N27" t="n">
-        <v>1999.905696641086</v>
+        <v>1443.347833878255</v>
       </c>
       <c r="O27" t="n">
-        <v>2331.418122136705</v>
+        <v>2112.811595180915</v>
       </c>
       <c r="P27" t="n">
-        <v>2536.440602918915</v>
+        <v>2317.834075963124</v>
       </c>
       <c r="Q27" t="n">
-        <v>2623.573505376138</v>
+        <v>2612.943493278838</v>
       </c>
       <c r="R27" t="n">
         <v>2623.573505376138</v>
@@ -6358,31 +6358,31 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>97.21709146028587</v>
+        <v>266.1532743881928</v>
       </c>
       <c r="C28" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028586</v>
       </c>
       <c r="D28" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028586</v>
       </c>
       <c r="E28" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028586</v>
       </c>
       <c r="F28" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028586</v>
       </c>
       <c r="G28" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028586</v>
       </c>
       <c r="H28" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028586</v>
       </c>
       <c r="I28" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028586</v>
       </c>
       <c r="J28" t="n">
-        <v>109.5997839241958</v>
+        <v>109.5997839241957</v>
       </c>
       <c r="K28" t="n">
         <v>259.7851881688072</v>
@@ -6391,7 +6391,7 @@
         <v>507.4972331799365</v>
       </c>
       <c r="M28" t="n">
-        <v>779.0639759471194</v>
+        <v>779.0639759471192</v>
       </c>
       <c r="N28" t="n">
         <v>1049.608084974667</v>
@@ -6400,34 +6400,34 @@
         <v>1283.483062980064</v>
       </c>
       <c r="P28" t="n">
-        <v>1460.082827585747</v>
+        <v>1460.082827585746</v>
       </c>
       <c r="Q28" t="n">
-        <v>1498.916270557903</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="R28" t="n">
-        <v>1498.916270557903</v>
+        <v>1387.841167119728</v>
       </c>
       <c r="S28" t="n">
-        <v>1298.996260473455</v>
+        <v>1387.841167119728</v>
       </c>
       <c r="T28" t="n">
-        <v>1075.210845262961</v>
+        <v>1387.841167119728</v>
       </c>
       <c r="U28" t="n">
-        <v>786.0822064765191</v>
+        <v>1098.712528333286</v>
       </c>
       <c r="V28" t="n">
-        <v>531.3977182706323</v>
+        <v>844.0280401273993</v>
       </c>
       <c r="W28" t="n">
-        <v>241.9805482336716</v>
+        <v>844.0280401273993</v>
       </c>
       <c r="X28" t="n">
-        <v>97.21709146028587</v>
+        <v>616.038489229382</v>
       </c>
       <c r="Y28" t="n">
-        <v>97.21709146028587</v>
+        <v>395.2459100858518</v>
       </c>
     </row>
     <row r="29">
@@ -6437,37 +6437,37 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>2428.321384550603</v>
+        <v>2428.321384550602</v>
       </c>
       <c r="C29" t="n">
-        <v>2059.358867610191</v>
+        <v>2059.35886761019</v>
       </c>
       <c r="D29" t="n">
-        <v>1701.093169003441</v>
+        <v>1701.09316900344</v>
       </c>
       <c r="E29" t="n">
         <v>1315.304916405196</v>
       </c>
       <c r="F29" t="n">
-        <v>904.3190116155888</v>
+        <v>904.3190116155879</v>
       </c>
       <c r="G29" t="n">
-        <v>488.193237080547</v>
+        <v>488.1932370805462</v>
       </c>
       <c r="H29" t="n">
         <v>179.8222783822462</v>
       </c>
       <c r="I29" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J29" t="n">
-        <v>365.8813331823789</v>
+        <v>365.8813331823787</v>
       </c>
       <c r="K29" t="n">
-        <v>889.2841917514086</v>
+        <v>889.2841917514085</v>
       </c>
       <c r="L29" t="n">
-        <v>1590.888347795207</v>
+        <v>1590.888347795206</v>
       </c>
       <c r="M29" t="n">
         <v>2388.164701515097</v>
@@ -6476,37 +6476,37 @@
         <v>3183.709822619128</v>
       </c>
       <c r="O29" t="n">
-        <v>3889.732883643324</v>
+        <v>3889.732883643323</v>
       </c>
       <c r="P29" t="n">
-        <v>4454.632848899128</v>
+        <v>4454.632848899127</v>
       </c>
       <c r="Q29" t="n">
         <v>4801.62743720783</v>
       </c>
       <c r="R29" t="n">
-        <v>4860.854573014293</v>
+        <v>4860.854573014292</v>
       </c>
       <c r="S29" t="n">
-        <v>4726.561275231265</v>
+        <v>4726.561275231263</v>
       </c>
       <c r="T29" t="n">
-        <v>4515.972600141868</v>
+        <v>4515.972600141867</v>
       </c>
       <c r="U29" t="n">
-        <v>4262.357857465301</v>
+        <v>4262.3578574653</v>
       </c>
       <c r="V29" t="n">
-        <v>3931.294970121731</v>
+        <v>3931.294970121729</v>
       </c>
       <c r="W29" t="n">
-        <v>3578.526314851616</v>
+        <v>3578.526314851615</v>
       </c>
       <c r="X29" t="n">
-        <v>3205.060556590537</v>
+        <v>3205.060556590535</v>
       </c>
       <c r="Y29" t="n">
-        <v>2814.921224614725</v>
+        <v>2814.921224614724</v>
       </c>
     </row>
     <row r="30">
@@ -6537,25 +6537,25 @@
         <v>125.4002551675025</v>
       </c>
       <c r="I30" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J30" t="n">
-        <v>263.5382936126483</v>
+        <v>138.7081686256435</v>
       </c>
       <c r="K30" t="n">
-        <v>674.428562457161</v>
+        <v>287.7778528277033</v>
       </c>
       <c r="L30" t="n">
-        <v>921.1936903636251</v>
+        <v>901.674922584592</v>
       </c>
       <c r="M30" t="n">
-        <v>1228.513823643587</v>
+        <v>1208.995055864554</v>
       </c>
       <c r="N30" t="n">
-        <v>1558.37645130762</v>
+        <v>1538.857683528586</v>
       </c>
       <c r="O30" t="n">
-        <v>1837.916516526317</v>
+        <v>1818.397748747283</v>
       </c>
       <c r="P30" t="n">
         <v>2328.464088060424</v>
@@ -6595,22 +6595,22 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>604.5641438163773</v>
+        <v>451.9132763877633</v>
       </c>
       <c r="C31" t="n">
-        <v>491.3888261698411</v>
+        <v>451.9132763877633</v>
       </c>
       <c r="D31" t="n">
-        <v>397.0330520388761</v>
+        <v>357.5575022567984</v>
       </c>
       <c r="E31" t="n">
-        <v>304.8808237378537</v>
+        <v>265.4052739557761</v>
       </c>
       <c r="F31" t="n">
-        <v>213.7517415213141</v>
+        <v>265.4052739557761</v>
       </c>
       <c r="G31" t="n">
-        <v>213.7517415213141</v>
+        <v>152.9908175569676</v>
       </c>
       <c r="H31" t="n">
         <v>152.9908175569676</v>
@@ -6619,13 +6619,13 @@
         <v>97.21709146028587</v>
       </c>
       <c r="J31" t="n">
-        <v>164.2510079864671</v>
+        <v>164.2510079864673</v>
       </c>
       <c r="K31" t="n">
-        <v>369.08763629335</v>
+        <v>369.0876362933504</v>
       </c>
       <c r="L31" t="n">
-        <v>671.4509053667509</v>
+        <v>671.4509053667512</v>
       </c>
       <c r="M31" t="n">
         <v>997.6688721962055</v>
@@ -6640,31 +6640,31 @@
         <v>1842.641396021647</v>
       </c>
       <c r="Q31" t="n">
-        <v>1936.126063056074</v>
+        <v>1936.126063056075</v>
       </c>
       <c r="R31" t="n">
         <v>1880.811824899271</v>
       </c>
       <c r="S31" t="n">
-        <v>1736.652680096193</v>
+        <v>1736.652680096194</v>
       </c>
       <c r="T31" t="n">
-        <v>1568.62813016707</v>
+        <v>1568.628130167071</v>
       </c>
       <c r="U31" t="n">
-        <v>1335.260356661999</v>
+        <v>1335.260356662</v>
       </c>
       <c r="V31" t="n">
-        <v>1136.336733737483</v>
+        <v>1136.336733737484</v>
       </c>
       <c r="W31" t="n">
-        <v>902.6804289818929</v>
+        <v>902.680428981894</v>
       </c>
       <c r="X31" t="n">
-        <v>730.4517433652462</v>
+        <v>730.4517433652475</v>
       </c>
       <c r="Y31" t="n">
-        <v>730.4517433652462</v>
+        <v>577.8008759366322</v>
       </c>
     </row>
     <row r="32">
@@ -6680,16 +6680,16 @@
         <v>2059.358867610192</v>
       </c>
       <c r="D32" t="n">
-        <v>1701.093169003442</v>
+        <v>1701.093169003441</v>
       </c>
       <c r="E32" t="n">
-        <v>1315.304916405198</v>
+        <v>1315.304916405197</v>
       </c>
       <c r="F32" t="n">
-        <v>904.3190116155897</v>
+        <v>904.3190116155895</v>
       </c>
       <c r="G32" t="n">
-        <v>488.1932370805469</v>
+        <v>488.193237080547</v>
       </c>
       <c r="H32" t="n">
         <v>179.8222783822462</v>
@@ -6698,22 +6698,22 @@
         <v>97.21709146028587</v>
       </c>
       <c r="J32" t="n">
-        <v>365.8813331823787</v>
+        <v>365.8813331823794</v>
       </c>
       <c r="K32" t="n">
-        <v>889.2841917514085</v>
+        <v>889.2841917514093</v>
       </c>
       <c r="L32" t="n">
-        <v>1590.888347795207</v>
+        <v>1590.888347795208</v>
       </c>
       <c r="M32" t="n">
-        <v>2388.164701515097</v>
+        <v>2388.164701515098</v>
       </c>
       <c r="N32" t="n">
-        <v>3183.709822619128</v>
+        <v>3183.709822619129</v>
       </c>
       <c r="O32" t="n">
-        <v>3889.732883643324</v>
+        <v>3889.732883643325</v>
       </c>
       <c r="P32" t="n">
         <v>4454.632848899128</v>
@@ -6777,22 +6777,22 @@
         <v>97.21709146028587</v>
       </c>
       <c r="J33" t="n">
-        <v>263.5382936126483</v>
+        <v>263.5382936126482</v>
       </c>
       <c r="K33" t="n">
-        <v>674.428562457161</v>
+        <v>570.0299571250968</v>
       </c>
       <c r="L33" t="n">
-        <v>921.1936903636251</v>
+        <v>816.7950850315608</v>
       </c>
       <c r="M33" t="n">
-        <v>1228.513823643587</v>
+        <v>1124.115218311523</v>
       </c>
       <c r="N33" t="n">
-        <v>1558.37645130762</v>
+        <v>1453.977845975555</v>
       </c>
       <c r="O33" t="n">
-        <v>1837.916516526317</v>
+        <v>2123.441607278215</v>
       </c>
       <c r="P33" t="n">
         <v>2328.464088060424</v>
@@ -6832,22 +6832,22 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>659.4602391108328</v>
+        <v>659.4602391108332</v>
       </c>
       <c r="C34" t="n">
-        <v>559.344147222967</v>
+        <v>559.3441472229673</v>
       </c>
       <c r="D34" t="n">
-        <v>478.0475988506723</v>
+        <v>478.0475988506727</v>
       </c>
       <c r="E34" t="n">
-        <v>398.9545963083203</v>
+        <v>398.9545963083207</v>
       </c>
       <c r="F34" t="n">
-        <v>320.884739850451</v>
+        <v>320.8847398504514</v>
       </c>
       <c r="G34" t="n">
-        <v>221.529509210313</v>
+        <v>221.5295092103129</v>
       </c>
       <c r="H34" t="n">
         <v>139.9315917982973</v>
@@ -6859,7 +6859,7 @@
         <v>177.05035515254</v>
       </c>
       <c r="K34" t="n">
-        <v>394.6863306254957</v>
+        <v>394.6863306254958</v>
       </c>
       <c r="L34" t="n">
         <v>709.8489468649692</v>
@@ -6877,10 +6877,10 @@
         <v>1932.236826184156</v>
       </c>
       <c r="Q34" t="n">
-        <v>2038.520840384657</v>
+        <v>2038.520840384656</v>
       </c>
       <c r="R34" t="n">
-        <v>1996.265827986523</v>
+        <v>1996.265827986522</v>
       </c>
       <c r="S34" t="n">
         <v>1865.165908942116</v>
@@ -6898,10 +6898,10 @@
         <v>1083.430560862497</v>
       </c>
       <c r="X34" t="n">
-        <v>924.2611010045205</v>
+        <v>924.2611010045209</v>
       </c>
       <c r="Y34" t="n">
-        <v>772.2886129010315</v>
+        <v>772.2886129010318</v>
       </c>
     </row>
     <row r="35">
@@ -6911,76 +6911,76 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>2428.321384550602</v>
+        <v>2428.321384550603</v>
       </c>
       <c r="C35" t="n">
-        <v>2059.35886761019</v>
+        <v>2059.358867610192</v>
       </c>
       <c r="D35" t="n">
-        <v>1701.09316900344</v>
+        <v>1701.093169003441</v>
       </c>
       <c r="E35" t="n">
-        <v>1315.304916405196</v>
+        <v>1315.304916405197</v>
       </c>
       <c r="F35" t="n">
-        <v>904.3190116155888</v>
+        <v>904.3190116155895</v>
       </c>
       <c r="G35" t="n">
-        <v>488.1932370805471</v>
+        <v>488.193237080547</v>
       </c>
       <c r="H35" t="n">
         <v>179.8222783822462</v>
       </c>
       <c r="I35" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J35" t="n">
-        <v>365.8813331823787</v>
+        <v>365.8813331823785</v>
       </c>
       <c r="K35" t="n">
-        <v>889.2841917514085</v>
+        <v>889.2841917514079</v>
       </c>
       <c r="L35" t="n">
-        <v>1590.888347795207</v>
+        <v>1590.888347795206</v>
       </c>
       <c r="M35" t="n">
         <v>2388.164701515097</v>
       </c>
       <c r="N35" t="n">
-        <v>3183.709822619128</v>
+        <v>3183.709822619127</v>
       </c>
       <c r="O35" t="n">
-        <v>3889.732883643324</v>
+        <v>3889.732883643323</v>
       </c>
       <c r="P35" t="n">
-        <v>4454.632848899128</v>
+        <v>4454.632848899127</v>
       </c>
       <c r="Q35" t="n">
         <v>4801.627437207831</v>
       </c>
       <c r="R35" t="n">
-        <v>4860.854573014292</v>
+        <v>4860.854573014293</v>
       </c>
       <c r="S35" t="n">
-        <v>4726.561275231264</v>
+        <v>4726.561275231265</v>
       </c>
       <c r="T35" t="n">
         <v>4515.972600141868</v>
       </c>
       <c r="U35" t="n">
-        <v>4262.3578574653</v>
+        <v>4262.357857465302</v>
       </c>
       <c r="V35" t="n">
-        <v>3931.294970121729</v>
+        <v>3931.294970121731</v>
       </c>
       <c r="W35" t="n">
-        <v>3578.526314851615</v>
+        <v>3578.526314851617</v>
       </c>
       <c r="X35" t="n">
-        <v>3205.060556590535</v>
+        <v>3205.060556590537</v>
       </c>
       <c r="Y35" t="n">
-        <v>2814.921224614724</v>
+        <v>2814.921224614725</v>
       </c>
     </row>
     <row r="36">
@@ -7002,34 +7002,34 @@
         <v>504.8063651047445</v>
       </c>
       <c r="F36" t="n">
-        <v>358.2718071316294</v>
+        <v>358.2718071316295</v>
       </c>
       <c r="G36" t="n">
-        <v>221.3451287358147</v>
+        <v>221.3451287358148</v>
       </c>
       <c r="H36" t="n">
-        <v>125.4002551675024</v>
+        <v>125.4002551675025</v>
       </c>
       <c r="I36" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J36" t="n">
         <v>263.5382936126482</v>
       </c>
       <c r="K36" t="n">
-        <v>674.428562457161</v>
+        <v>412.6079778147081</v>
       </c>
       <c r="L36" t="n">
-        <v>921.1936903636251</v>
+        <v>659.3731057211721</v>
       </c>
       <c r="M36" t="n">
-        <v>1228.513823643587</v>
+        <v>966.6932390011339</v>
       </c>
       <c r="N36" t="n">
-        <v>1558.37645130762</v>
+        <v>1771.104817265285</v>
       </c>
       <c r="O36" t="n">
-        <v>1837.916516526317</v>
+        <v>2050.644882483982</v>
       </c>
       <c r="P36" t="n">
         <v>2328.464088060424</v>
@@ -7069,37 +7069,37 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>659.4602391108319</v>
+        <v>659.4602391108331</v>
       </c>
       <c r="C37" t="n">
-        <v>559.3441472229661</v>
+        <v>559.3441472229672</v>
       </c>
       <c r="D37" t="n">
-        <v>478.0475988506714</v>
+        <v>478.0475988506726</v>
       </c>
       <c r="E37" t="n">
-        <v>398.9545963083197</v>
+        <v>398.9545963083204</v>
       </c>
       <c r="F37" t="n">
-        <v>320.8847398504507</v>
+        <v>320.8847398504512</v>
       </c>
       <c r="G37" t="n">
-        <v>221.5295092103124</v>
+        <v>221.529509210313</v>
       </c>
       <c r="H37" t="n">
-        <v>139.9315917982967</v>
+        <v>139.9315917982973</v>
       </c>
       <c r="I37" t="n">
         <v>97.21709146028587</v>
       </c>
       <c r="J37" t="n">
-        <v>177.0503551525399</v>
+        <v>177.05035515254</v>
       </c>
       <c r="K37" t="n">
-        <v>394.6863306254954</v>
+        <v>394.6863306254958</v>
       </c>
       <c r="L37" t="n">
-        <v>709.848946864969</v>
+        <v>709.8489468649693</v>
       </c>
       <c r="M37" t="n">
         <v>1048.866260860496</v>
@@ -7117,10 +7117,10 @@
         <v>2038.520840384656</v>
       </c>
       <c r="R37" t="n">
-        <v>1996.265827986522</v>
+        <v>1996.265827986523</v>
       </c>
       <c r="S37" t="n">
-        <v>1865.165908942115</v>
+        <v>1865.165908942116</v>
       </c>
       <c r="T37" t="n">
         <v>1710.200584771663</v>
@@ -7132,13 +7132,13 @@
         <v>1304.027639859416</v>
       </c>
       <c r="W37" t="n">
-        <v>1083.430560862496</v>
+        <v>1083.430560862497</v>
       </c>
       <c r="X37" t="n">
-        <v>924.2611010045197</v>
+        <v>924.2611010045207</v>
       </c>
       <c r="Y37" t="n">
-        <v>772.2886129010305</v>
+        <v>772.2886129010317</v>
       </c>
     </row>
     <row r="38">
@@ -7151,16 +7151,16 @@
         <v>2428.321384550602</v>
       </c>
       <c r="C38" t="n">
-        <v>2059.35886761019</v>
+        <v>2059.358867610191</v>
       </c>
       <c r="D38" t="n">
-        <v>1701.093169003439</v>
+        <v>1701.093169003441</v>
       </c>
       <c r="E38" t="n">
-        <v>1315.304916405195</v>
+        <v>1315.304916405197</v>
       </c>
       <c r="F38" t="n">
-        <v>904.3190116155888</v>
+        <v>904.3190116155893</v>
       </c>
       <c r="G38" t="n">
         <v>488.1932370805469</v>
@@ -7169,22 +7169,22 @@
         <v>179.8222783822462</v>
       </c>
       <c r="I38" t="n">
-        <v>97.21709146028583</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J38" t="n">
-        <v>365.8813331823787</v>
+        <v>365.8813331823794</v>
       </c>
       <c r="K38" t="n">
-        <v>889.2841917514083</v>
+        <v>889.2841917514091</v>
       </c>
       <c r="L38" t="n">
         <v>1590.888347795207</v>
       </c>
       <c r="M38" t="n">
-        <v>2388.164701515097</v>
+        <v>2388.164701515098</v>
       </c>
       <c r="N38" t="n">
-        <v>3183.709822619128</v>
+        <v>3183.709822619129</v>
       </c>
       <c r="O38" t="n">
         <v>3889.732883643324</v>
@@ -7196,25 +7196,25 @@
         <v>4801.627437207831</v>
       </c>
       <c r="R38" t="n">
-        <v>4860.854573014291</v>
+        <v>4860.854573014293</v>
       </c>
       <c r="S38" t="n">
-        <v>4726.561275231263</v>
+        <v>4726.561275231265</v>
       </c>
       <c r="T38" t="n">
-        <v>4515.972600141867</v>
+        <v>4515.972600141868</v>
       </c>
       <c r="U38" t="n">
-        <v>4262.3578574653</v>
+        <v>4262.357857465301</v>
       </c>
       <c r="V38" t="n">
-        <v>3931.294970121729</v>
+        <v>3931.29497012173</v>
       </c>
       <c r="W38" t="n">
-        <v>3578.526314851615</v>
+        <v>3578.526314851616</v>
       </c>
       <c r="X38" t="n">
-        <v>3205.060556590535</v>
+        <v>3205.060556590536</v>
       </c>
       <c r="Y38" t="n">
         <v>2814.921224614724</v>
@@ -7239,37 +7239,37 @@
         <v>504.8063651047445</v>
       </c>
       <c r="F39" t="n">
-        <v>358.2718071316294</v>
+        <v>358.2718071316295</v>
       </c>
       <c r="G39" t="n">
-        <v>221.3451287358147</v>
+        <v>221.3451287358148</v>
       </c>
       <c r="H39" t="n">
-        <v>125.4002551675024</v>
+        <v>125.4002551675025</v>
       </c>
       <c r="I39" t="n">
-        <v>97.21709146028583</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J39" t="n">
-        <v>263.5382936126482</v>
+        <v>138.7081686256435</v>
       </c>
       <c r="K39" t="n">
-        <v>674.428562457161</v>
+        <v>549.5984374701561</v>
       </c>
       <c r="L39" t="n">
-        <v>921.1936903636251</v>
+        <v>940.1463453738957</v>
       </c>
       <c r="M39" t="n">
-        <v>1228.513823643587</v>
+        <v>1247.466478653857</v>
       </c>
       <c r="N39" t="n">
-        <v>1558.37645130762</v>
+        <v>2051.878056918008</v>
       </c>
       <c r="O39" t="n">
-        <v>1837.916516526317</v>
+        <v>2331.418122136705</v>
       </c>
       <c r="P39" t="n">
-        <v>2328.464088060424</v>
+        <v>2536.440602918915</v>
       </c>
       <c r="Q39" t="n">
         <v>2623.573505376138</v>
@@ -7306,7 +7306,7 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>659.4602391108333</v>
+        <v>659.4602391108328</v>
       </c>
       <c r="C40" t="n">
         <v>559.344147222967</v>
@@ -7315,19 +7315,19 @@
         <v>478.0475988506723</v>
       </c>
       <c r="E40" t="n">
-        <v>398.9545963083202</v>
+        <v>398.9545963083203</v>
       </c>
       <c r="F40" t="n">
-        <v>320.884739850451</v>
+        <v>320.8847398504513</v>
       </c>
       <c r="G40" t="n">
-        <v>221.5295092103127</v>
+        <v>221.5295092103129</v>
       </c>
       <c r="H40" t="n">
         <v>139.9315917982973</v>
       </c>
       <c r="I40" t="n">
-        <v>97.21709146028583</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J40" t="n">
         <v>177.05035515254</v>
@@ -7336,7 +7336,7 @@
         <v>394.6863306254957</v>
       </c>
       <c r="L40" t="n">
-        <v>709.8489468649691</v>
+        <v>709.8489468649692</v>
       </c>
       <c r="M40" t="n">
         <v>1048.866260860496</v>
@@ -7366,16 +7366,16 @@
         <v>1489.892037025262</v>
       </c>
       <c r="V40" t="n">
-        <v>1304.027639859417</v>
+        <v>1304.027639859416</v>
       </c>
       <c r="W40" t="n">
         <v>1083.430560862497</v>
       </c>
       <c r="X40" t="n">
-        <v>924.2611010045209</v>
+        <v>924.2611010045205</v>
       </c>
       <c r="Y40" t="n">
-        <v>772.2886129010319</v>
+        <v>772.2886129010315</v>
       </c>
     </row>
     <row r="41">
@@ -7388,34 +7388,34 @@
         <v>2428.321384550602</v>
       </c>
       <c r="C41" t="n">
-        <v>2059.358867610191</v>
+        <v>2059.35886761019</v>
       </c>
       <c r="D41" t="n">
-        <v>1701.093169003441</v>
+        <v>1701.09316900344</v>
       </c>
       <c r="E41" t="n">
-        <v>1315.304916405197</v>
+        <v>1315.304916405196</v>
       </c>
       <c r="F41" t="n">
-        <v>904.319011615589</v>
+        <v>904.3190116155888</v>
       </c>
       <c r="G41" t="n">
-        <v>488.1932370805466</v>
+        <v>488.1932370805471</v>
       </c>
       <c r="H41" t="n">
-        <v>179.822278382246</v>
+        <v>179.8222783822462</v>
       </c>
       <c r="I41" t="n">
-        <v>97.21709146028562</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J41" t="n">
-        <v>365.8813331823789</v>
+        <v>365.8813331823787</v>
       </c>
       <c r="K41" t="n">
-        <v>889.2841917514085</v>
+        <v>889.2841917514082</v>
       </c>
       <c r="L41" t="n">
-        <v>1590.888347795207</v>
+        <v>1590.888347795206</v>
       </c>
       <c r="M41" t="n">
         <v>2388.164701515097</v>
@@ -7442,16 +7442,16 @@
         <v>4515.972600141868</v>
       </c>
       <c r="U41" t="n">
-        <v>4262.357857465301</v>
+        <v>4262.3578574653</v>
       </c>
       <c r="V41" t="n">
-        <v>3931.29497012173</v>
+        <v>3931.294970121729</v>
       </c>
       <c r="W41" t="n">
-        <v>3578.526314851616</v>
+        <v>3578.526314851615</v>
       </c>
       <c r="X41" t="n">
-        <v>3205.060556590536</v>
+        <v>3205.060556590535</v>
       </c>
       <c r="Y41" t="n">
         <v>2814.921224614724</v>
@@ -7488,28 +7488,28 @@
         <v>97.21709146028584</v>
       </c>
       <c r="J42" t="n">
-        <v>263.5382936126482</v>
+        <v>138.7081686256435</v>
       </c>
       <c r="K42" t="n">
-        <v>674.4285624571609</v>
+        <v>306.3284467737875</v>
       </c>
       <c r="L42" t="n">
-        <v>921.1936903636249</v>
+        <v>553.0935746802515</v>
       </c>
       <c r="M42" t="n">
-        <v>1228.513823643586</v>
+        <v>1321.461721072713</v>
       </c>
       <c r="N42" t="n">
-        <v>1558.376451307619</v>
+        <v>1651.324348736746</v>
       </c>
       <c r="O42" t="n">
-        <v>1837.916516526316</v>
+        <v>2320.788110039405</v>
       </c>
       <c r="P42" t="n">
-        <v>2328.464088060424</v>
+        <v>2525.810590821615</v>
       </c>
       <c r="Q42" t="n">
-        <v>2623.573505376138</v>
+        <v>2612.943493278838</v>
       </c>
       <c r="R42" t="n">
         <v>2623.573505376138</v>
@@ -7543,37 +7543,37 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>659.4602391108331</v>
+        <v>659.4602391108335</v>
       </c>
       <c r="C43" t="n">
-        <v>559.3441472229673</v>
+        <v>559.3441472229676</v>
       </c>
       <c r="D43" t="n">
-        <v>478.0475988506727</v>
+        <v>478.047598850673</v>
       </c>
       <c r="E43" t="n">
-        <v>398.9545963083206</v>
+        <v>398.9545963083209</v>
       </c>
       <c r="F43" t="n">
-        <v>320.8847398504514</v>
+        <v>320.8847398504516</v>
       </c>
       <c r="G43" t="n">
-        <v>221.5295092103128</v>
+        <v>221.529509210313</v>
       </c>
       <c r="H43" t="n">
         <v>139.9315917982973</v>
       </c>
       <c r="I43" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J43" t="n">
-        <v>177.0503551525398</v>
+        <v>177.05035515254</v>
       </c>
       <c r="K43" t="n">
-        <v>394.6863306254956</v>
+        <v>394.6863306254958</v>
       </c>
       <c r="L43" t="n">
-        <v>709.8489468649691</v>
+        <v>709.8489468649693</v>
       </c>
       <c r="M43" t="n">
         <v>1048.866260860496</v>
@@ -7582,13 +7582,13 @@
         <v>1386.860941116388</v>
       </c>
       <c r="O43" t="n">
-        <v>1688.186490350129</v>
+        <v>1688.18649035013</v>
       </c>
       <c r="P43" t="n">
-        <v>1932.236826184156</v>
+        <v>1932.236826184157</v>
       </c>
       <c r="Q43" t="n">
-        <v>2038.520840384656</v>
+        <v>2038.520840384657</v>
       </c>
       <c r="R43" t="n">
         <v>1996.265827986523</v>
@@ -7600,19 +7600,19 @@
         <v>1710.200584771663</v>
       </c>
       <c r="U43" t="n">
-        <v>1489.892037025262</v>
+        <v>1489.892037025263</v>
       </c>
       <c r="V43" t="n">
-        <v>1304.027639859416</v>
+        <v>1304.027639859417</v>
       </c>
       <c r="W43" t="n">
         <v>1083.430560862497</v>
       </c>
       <c r="X43" t="n">
-        <v>924.2611010045207</v>
+        <v>924.2611010045212</v>
       </c>
       <c r="Y43" t="n">
-        <v>772.2886129010317</v>
+        <v>772.2886129010321</v>
       </c>
     </row>
     <row r="44">
@@ -7625,70 +7625,70 @@
         <v>2428.321384550602</v>
       </c>
       <c r="C44" t="n">
-        <v>2059.358867610191</v>
+        <v>2059.35886761019</v>
       </c>
       <c r="D44" t="n">
-        <v>1701.093169003441</v>
+        <v>1701.09316900344</v>
       </c>
       <c r="E44" t="n">
-        <v>1315.304916405197</v>
+        <v>1315.304916405196</v>
       </c>
       <c r="F44" t="n">
-        <v>904.3190116155893</v>
+        <v>904.3190116155888</v>
       </c>
       <c r="G44" t="n">
-        <v>488.1932370805469</v>
+        <v>488.1932370805471</v>
       </c>
       <c r="H44" t="n">
-        <v>179.8222783822463</v>
+        <v>179.8222783822462</v>
       </c>
       <c r="I44" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J44" t="n">
         <v>365.8813331823787</v>
       </c>
       <c r="K44" t="n">
-        <v>889.2841917514083</v>
+        <v>889.2841917514085</v>
       </c>
       <c r="L44" t="n">
-        <v>1590.888347795206</v>
+        <v>1590.888347795207</v>
       </c>
       <c r="M44" t="n">
         <v>2388.164701515097</v>
       </c>
       <c r="N44" t="n">
-        <v>3183.709822619127</v>
+        <v>3183.709822619128</v>
       </c>
       <c r="O44" t="n">
         <v>3889.732883643323</v>
       </c>
       <c r="P44" t="n">
-        <v>4454.632848899126</v>
+        <v>4454.632848899127</v>
       </c>
       <c r="Q44" t="n">
-        <v>4801.627437207829</v>
+        <v>4801.62743720783</v>
       </c>
       <c r="R44" t="n">
-        <v>4860.854573014293</v>
+        <v>4860.854573014292</v>
       </c>
       <c r="S44" t="n">
-        <v>4726.561275231265</v>
+        <v>4726.561275231264</v>
       </c>
       <c r="T44" t="n">
         <v>4515.972600141868</v>
       </c>
       <c r="U44" t="n">
-        <v>4262.357857465301</v>
+        <v>4262.3578574653</v>
       </c>
       <c r="V44" t="n">
-        <v>3931.29497012173</v>
+        <v>3931.294970121729</v>
       </c>
       <c r="W44" t="n">
-        <v>3578.526314851616</v>
+        <v>3578.526314851615</v>
       </c>
       <c r="X44" t="n">
-        <v>3205.060556590536</v>
+        <v>3205.060556590535</v>
       </c>
       <c r="Y44" t="n">
         <v>2814.921224614724</v>
@@ -7722,25 +7722,25 @@
         <v>125.4002551675025</v>
       </c>
       <c r="I45" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J45" t="n">
-        <v>263.5382936126482</v>
+        <v>159.1396882805841</v>
       </c>
       <c r="K45" t="n">
-        <v>674.4285624571609</v>
+        <v>570.0299571250968</v>
       </c>
       <c r="L45" t="n">
-        <v>921.1936903636249</v>
+        <v>816.7950850315608</v>
       </c>
       <c r="M45" t="n">
-        <v>1228.513823643586</v>
+        <v>1124.115218311523</v>
       </c>
       <c r="N45" t="n">
-        <v>1558.376451307619</v>
+        <v>1453.977845975555</v>
       </c>
       <c r="O45" t="n">
-        <v>1837.916516526316</v>
+        <v>2123.441607278215</v>
       </c>
       <c r="P45" t="n">
         <v>2328.464088060424</v>
@@ -7780,16 +7780,16 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>659.4602391108331</v>
+        <v>659.4602391108328</v>
       </c>
       <c r="C46" t="n">
-        <v>559.3441472229672</v>
+        <v>559.344147222967</v>
       </c>
       <c r="D46" t="n">
         <v>478.0475988506726</v>
       </c>
       <c r="E46" t="n">
-        <v>398.9545963083206</v>
+        <v>398.9545963083205</v>
       </c>
       <c r="F46" t="n">
         <v>320.8847398504512</v>
@@ -7801,16 +7801,16 @@
         <v>139.9315917982973</v>
       </c>
       <c r="I46" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028586</v>
       </c>
       <c r="J46" t="n">
-        <v>177.0503551525401</v>
+        <v>177.05035515254</v>
       </c>
       <c r="K46" t="n">
-        <v>394.6863306254958</v>
+        <v>394.6863306254957</v>
       </c>
       <c r="L46" t="n">
-        <v>709.8489468649693</v>
+        <v>709.8489468649692</v>
       </c>
       <c r="M46" t="n">
         <v>1048.866260860496</v>
@@ -7825,7 +7825,7 @@
         <v>1932.236826184156</v>
       </c>
       <c r="Q46" t="n">
-        <v>2038.520840384656</v>
+        <v>2038.520840384657</v>
       </c>
       <c r="R46" t="n">
         <v>1996.265827986523</v>
@@ -7846,10 +7846,10 @@
         <v>1083.430560862497</v>
       </c>
       <c r="X46" t="n">
-        <v>924.2611010045207</v>
+        <v>924.2611010045205</v>
       </c>
       <c r="Y46" t="n">
-        <v>772.2886129010317</v>
+        <v>772.2886129010315</v>
       </c>
     </row>
   </sheetData>
@@ -8055,7 +8055,7 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J3" t="n">
-        <v>50.07369958270193</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K3" t="n">
         <v>264.4652370125786</v>
@@ -8067,7 +8067,7 @@
         <v>465.7050637499999</v>
       </c>
       <c r="N3" t="n">
-        <v>479.3423743435536</v>
+        <v>359.9065542451756</v>
       </c>
       <c r="O3" t="n">
         <v>393.8623192767295</v>
@@ -8076,7 +8076,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q3" t="n">
-        <v>166.6588033951786</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R3" t="n">
         <v>45.52166981132082</v>
@@ -8295,7 +8295,7 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K6" t="n">
-        <v>264.4652370125786</v>
+        <v>145.029416914201</v>
       </c>
       <c r="L6" t="n">
         <v>370.8403453034592</v>
@@ -8310,7 +8310,7 @@
         <v>393.8623192767295</v>
       </c>
       <c r="P6" t="n">
-        <v>199.0269485415596</v>
+        <v>318.4627686399372</v>
       </c>
       <c r="Q6" t="n">
         <v>210.0772877358491</v>
@@ -8532,13 +8532,13 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K9" t="n">
-        <v>145.0294169142015</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L9" t="n">
         <v>370.8403453034592</v>
       </c>
       <c r="M9" t="n">
-        <v>465.7050637499999</v>
+        <v>346.2692436516228</v>
       </c>
       <c r="N9" t="n">
         <v>479.3423743435536</v>
@@ -8766,31 +8766,31 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J12" t="n">
-        <v>0</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K12" t="n">
         <v>0</v>
       </c>
       <c r="L12" t="n">
-        <v>0</v>
+        <v>370.8403453034592</v>
       </c>
       <c r="M12" t="n">
-        <v>409.7003683229574</v>
+        <v>62.91120742583809</v>
       </c>
       <c r="N12" t="n">
-        <v>479.3423743435536</v>
+        <v>0</v>
       </c>
       <c r="O12" t="n">
         <v>0</v>
       </c>
       <c r="P12" t="n">
-        <v>0</v>
+        <v>318.4627686399372</v>
       </c>
       <c r="Q12" t="n">
         <v>0</v>
       </c>
       <c r="R12" t="n">
-        <v>34.78428385445216</v>
+        <v>45.52166981132082</v>
       </c>
       <c r="S12" t="n">
         <v>0</v>
@@ -9006,28 +9006,28 @@
         <v>0</v>
       </c>
       <c r="K15" t="n">
-        <v>264.4652370125786</v>
+        <v>0</v>
       </c>
       <c r="L15" t="n">
-        <v>370.8403453034592</v>
+        <v>15.83804904622878</v>
       </c>
       <c r="M15" t="n">
         <v>0</v>
       </c>
       <c r="N15" t="n">
-        <v>0</v>
+        <v>479.3423743435536</v>
       </c>
       <c r="O15" t="n">
-        <v>0</v>
+        <v>393.8623192767295</v>
       </c>
       <c r="P15" t="n">
-        <v>253.7371603504737</v>
+        <v>0</v>
       </c>
       <c r="Q15" t="n">
         <v>0</v>
       </c>
       <c r="R15" t="n">
-        <v>34.78428385445216</v>
+        <v>34.78428385445218</v>
       </c>
       <c r="S15" t="n">
         <v>0</v>
@@ -9243,19 +9243,19 @@
         <v>0</v>
       </c>
       <c r="K18" t="n">
-        <v>0</v>
+        <v>38.86002301949898</v>
       </c>
       <c r="L18" t="n">
         <v>370.8403453034592</v>
       </c>
       <c r="M18" t="n">
-        <v>465.7050637499999</v>
+        <v>0</v>
       </c>
       <c r="N18" t="n">
-        <v>0</v>
+        <v>479.3423743435536</v>
       </c>
       <c r="O18" t="n">
-        <v>52.49733361305221</v>
+        <v>0</v>
       </c>
       <c r="P18" t="n">
         <v>0</v>
@@ -9264,7 +9264,7 @@
         <v>0</v>
       </c>
       <c r="R18" t="n">
-        <v>34.78428385445216</v>
+        <v>34.78428385445218</v>
       </c>
       <c r="S18" t="n">
         <v>0</v>
@@ -9422,7 +9422,7 @@
         <v>212.3149906599047</v>
       </c>
       <c r="R20" t="n">
-        <v>65.71641987298105</v>
+        <v>65.71641987298243</v>
       </c>
       <c r="S20" t="n">
         <v>0</v>
@@ -9477,13 +9477,13 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J21" t="n">
-        <v>0</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K21" t="n">
         <v>0</v>
       </c>
       <c r="L21" t="n">
-        <v>370.8403453034592</v>
+        <v>0</v>
       </c>
       <c r="M21" t="n">
         <v>465.7050637499999</v>
@@ -9492,7 +9492,7 @@
         <v>0</v>
       </c>
       <c r="O21" t="n">
-        <v>52.49733361305221</v>
+        <v>297.2466435761028</v>
       </c>
       <c r="P21" t="n">
         <v>0</v>
@@ -9501,7 +9501,7 @@
         <v>0</v>
       </c>
       <c r="R21" t="n">
-        <v>34.78428385445216</v>
+        <v>34.78428385445217</v>
       </c>
       <c r="S21" t="n">
         <v>0</v>
@@ -9659,7 +9659,7 @@
         <v>212.3149906599047</v>
       </c>
       <c r="R23" t="n">
-        <v>65.71641987298105</v>
+        <v>65.71641987298243</v>
       </c>
       <c r="S23" t="n">
         <v>0</v>
@@ -9720,25 +9720,25 @@
         <v>0</v>
       </c>
       <c r="L24" t="n">
-        <v>370.8403453034592</v>
+        <v>0</v>
       </c>
       <c r="M24" t="n">
-        <v>465.7050637499999</v>
+        <v>0</v>
       </c>
       <c r="N24" t="n">
-        <v>0</v>
+        <v>479.3423743435536</v>
       </c>
       <c r="O24" t="n">
-        <v>52.49733361305221</v>
+        <v>91.23759968302096</v>
       </c>
       <c r="P24" t="n">
-        <v>0</v>
+        <v>318.4627686399372</v>
       </c>
       <c r="Q24" t="n">
         <v>0</v>
       </c>
       <c r="R24" t="n">
-        <v>34.78428385445216</v>
+        <v>34.78428385445217</v>
       </c>
       <c r="S24" t="n">
         <v>0</v>
@@ -9957,25 +9957,25 @@
         <v>0</v>
       </c>
       <c r="L27" t="n">
-        <v>370.8403453034592</v>
+        <v>0</v>
       </c>
       <c r="M27" t="n">
-        <v>465.7050637499999</v>
+        <v>0</v>
       </c>
       <c r="N27" t="n">
-        <v>0</v>
+        <v>274.365749697064</v>
       </c>
       <c r="O27" t="n">
-        <v>52.49733361305221</v>
+        <v>393.8623192767295</v>
       </c>
       <c r="P27" t="n">
         <v>0</v>
       </c>
       <c r="Q27" t="n">
-        <v>0</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R27" t="n">
-        <v>34.78428385445216</v>
+        <v>45.52166981132082</v>
       </c>
       <c r="S27" t="n">
         <v>0</v>
@@ -10115,7 +10115,7 @@
         <v>324.1454125711647</v>
       </c>
       <c r="L29" t="n">
-        <v>417.6612145504504</v>
+        <v>417.6612145504502</v>
       </c>
       <c r="M29" t="n">
         <v>449.5135334928325</v>
@@ -10188,13 +10188,13 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J30" t="n">
-        <v>126.0910353404088</v>
+        <v>0</v>
       </c>
       <c r="K30" t="n">
-        <v>264.4652370125786</v>
+        <v>0</v>
       </c>
       <c r="L30" t="n">
-        <v>0</v>
+        <v>370.8403453034592</v>
       </c>
       <c r="M30" t="n">
         <v>0</v>
@@ -10206,13 +10206,13 @@
         <v>0</v>
       </c>
       <c r="P30" t="n">
-        <v>288.4091825776749</v>
+        <v>308.1251096272034</v>
       </c>
       <c r="Q30" t="n">
         <v>210.0772877358491</v>
       </c>
       <c r="R30" t="n">
-        <v>34.78428385445216</v>
+        <v>34.78428385445217</v>
       </c>
       <c r="S30" t="n">
         <v>0</v>
@@ -10370,7 +10370,7 @@
         <v>212.3149906599047</v>
       </c>
       <c r="R32" t="n">
-        <v>65.71641987298197</v>
+        <v>65.71641987298243</v>
       </c>
       <c r="S32" t="n">
         <v>0</v>
@@ -10428,7 +10428,7 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K33" t="n">
-        <v>264.4652370125786</v>
+        <v>159.0121003135239</v>
       </c>
       <c r="L33" t="n">
         <v>0</v>
@@ -10440,16 +10440,16 @@
         <v>0</v>
       </c>
       <c r="O33" t="n">
-        <v>0</v>
+        <v>393.8623192767295</v>
       </c>
       <c r="P33" t="n">
-        <v>288.4091825776749</v>
+        <v>0</v>
       </c>
       <c r="Q33" t="n">
         <v>210.0772877358491</v>
       </c>
       <c r="R33" t="n">
-        <v>34.78428385445216</v>
+        <v>34.78428385445217</v>
       </c>
       <c r="S33" t="n">
         <v>0</v>
@@ -10607,7 +10607,7 @@
         <v>212.3149906599047</v>
       </c>
       <c r="R35" t="n">
-        <v>65.71641987298105</v>
+        <v>65.71641987298243</v>
       </c>
       <c r="S35" t="n">
         <v>0</v>
@@ -10665,7 +10665,7 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K36" t="n">
-        <v>264.4652370125786</v>
+        <v>0</v>
       </c>
       <c r="L36" t="n">
         <v>0</v>
@@ -10674,19 +10674,19 @@
         <v>0</v>
       </c>
       <c r="N36" t="n">
-        <v>0</v>
+        <v>479.3423743435536</v>
       </c>
       <c r="O36" t="n">
         <v>0</v>
       </c>
       <c r="P36" t="n">
-        <v>288.4091825776749</v>
+        <v>73.53204524670008</v>
       </c>
       <c r="Q36" t="n">
         <v>210.0772877358491</v>
       </c>
       <c r="R36" t="n">
-        <v>34.78428385445216</v>
+        <v>34.78428385445217</v>
       </c>
       <c r="S36" t="n">
         <v>0</v>
@@ -10820,7 +10820,7 @@
         <v>0</v>
       </c>
       <c r="J38" t="n">
-        <v>169.0966151720738</v>
+        <v>169.0966151720745</v>
       </c>
       <c r="K38" t="n">
         <v>324.1454125711647</v>
@@ -10844,7 +10844,7 @@
         <v>212.3149906599047</v>
       </c>
       <c r="R38" t="n">
-        <v>65.71641987298014</v>
+        <v>65.71641987298243</v>
       </c>
       <c r="S38" t="n">
         <v>0</v>
@@ -10899,31 +10899,31 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J39" t="n">
-        <v>126.0910353404088</v>
+        <v>0</v>
       </c>
       <c r="K39" t="n">
         <v>264.4652370125786</v>
       </c>
       <c r="L39" t="n">
-        <v>0</v>
+        <v>145.2351313103792</v>
       </c>
       <c r="M39" t="n">
         <v>0</v>
       </c>
       <c r="N39" t="n">
-        <v>0</v>
+        <v>479.3423743435536</v>
       </c>
       <c r="O39" t="n">
         <v>0</v>
       </c>
       <c r="P39" t="n">
-        <v>288.4091825776749</v>
+        <v>0</v>
       </c>
       <c r="Q39" t="n">
-        <v>210.0772877358491</v>
+        <v>0</v>
       </c>
       <c r="R39" t="n">
-        <v>34.78428385445216</v>
+        <v>34.78428385445217</v>
       </c>
       <c r="S39" t="n">
         <v>0</v>
@@ -11060,7 +11060,7 @@
         <v>169.0966151720738</v>
       </c>
       <c r="K41" t="n">
-        <v>324.1454125711647</v>
+        <v>324.1454125711646</v>
       </c>
       <c r="L41" t="n">
         <v>417.6612145504504</v>
@@ -11136,31 +11136,31 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J42" t="n">
-        <v>126.0910353404088</v>
+        <v>0</v>
       </c>
       <c r="K42" t="n">
-        <v>264.4652370125786</v>
+        <v>18.73797368291335</v>
       </c>
       <c r="L42" t="n">
         <v>0</v>
       </c>
       <c r="M42" t="n">
-        <v>0</v>
+        <v>465.7050637499999</v>
       </c>
       <c r="N42" t="n">
         <v>0</v>
       </c>
       <c r="O42" t="n">
-        <v>0</v>
+        <v>393.8623192767295</v>
       </c>
       <c r="P42" t="n">
-        <v>288.4091825776754</v>
+        <v>0</v>
       </c>
       <c r="Q42" t="n">
-        <v>210.0772877358491</v>
+        <v>0</v>
       </c>
       <c r="R42" t="n">
-        <v>34.78428385445218</v>
+        <v>45.52166981132082</v>
       </c>
       <c r="S42" t="n">
         <v>0</v>
@@ -11303,7 +11303,7 @@
         <v>417.6612145504504</v>
       </c>
       <c r="M44" t="n">
-        <v>449.5135334928325</v>
+        <v>449.5135334928324</v>
       </c>
       <c r="N44" t="n">
         <v>437.3469244119842</v>
@@ -11318,7 +11318,7 @@
         <v>212.3149906599047</v>
       </c>
       <c r="R44" t="n">
-        <v>65.71641987298386</v>
+        <v>65.71641987298243</v>
       </c>
       <c r="S44" t="n">
         <v>0</v>
@@ -11373,7 +11373,7 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J45" t="n">
-        <v>126.0910353404088</v>
+        <v>20.63789864135418</v>
       </c>
       <c r="K45" t="n">
         <v>264.4652370125786</v>
@@ -11388,16 +11388,16 @@
         <v>0</v>
       </c>
       <c r="O45" t="n">
-        <v>0</v>
+        <v>393.8623192767295</v>
       </c>
       <c r="P45" t="n">
-        <v>288.4091825776754</v>
+        <v>0</v>
       </c>
       <c r="Q45" t="n">
         <v>210.0772877358491</v>
       </c>
       <c r="R45" t="n">
-        <v>34.78428385445218</v>
+        <v>34.78428385445217</v>
       </c>
       <c r="S45" t="n">
         <v>0</v>
@@ -23461,13 +23461,13 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>109.9643524037928</v>
+        <v>0</v>
       </c>
       <c r="S13" t="n">
-        <v>0</v>
+        <v>197.9208099836032</v>
       </c>
       <c r="T13" t="n">
-        <v>82.39383318338525</v>
+        <v>213.0220289556702</v>
       </c>
       <c r="U13" t="n">
         <v>0</v>
@@ -23482,7 +23482,7 @@
         <v>0</v>
       </c>
       <c r="Y13" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="14">
@@ -23650,7 +23650,7 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C16" t="n">
         <v>167.2468210986278</v>
@@ -23698,7 +23698,7 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>109.9643524037928</v>
+        <v>0</v>
       </c>
       <c r="S16" t="n">
         <v>0</v>
@@ -23707,7 +23707,7 @@
         <v>0</v>
       </c>
       <c r="U16" t="n">
-        <v>0</v>
+        <v>286.2373523985773</v>
       </c>
       <c r="V16" t="n">
         <v>0</v>
@@ -23716,7 +23716,7 @@
         <v>0</v>
       </c>
       <c r="X16" t="n">
-        <v>82.39383318338571</v>
+        <v>85.95281337053868</v>
       </c>
       <c r="Y16" t="n">
         <v>218.5846533520948</v>
@@ -23887,10 +23887,10 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C19" t="n">
-        <v>167.2468210986278</v>
+        <v>142.5651715379186</v>
       </c>
       <c r="D19" t="n">
         <v>148.6154730182124</v>
@@ -23905,7 +23905,7 @@
         <v>166.4935684633776</v>
       </c>
       <c r="H19" t="n">
-        <v>148.9138283675361</v>
+        <v>0</v>
       </c>
       <c r="I19" t="n">
         <v>110.419245464272</v>
@@ -23935,28 +23935,28 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>109.9643524037928</v>
+        <v>0</v>
       </c>
       <c r="S19" t="n">
         <v>0</v>
       </c>
       <c r="T19" t="n">
-        <v>82.39383318338548</v>
+        <v>0</v>
       </c>
       <c r="U19" t="n">
         <v>0</v>
       </c>
       <c r="V19" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W19" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X19" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y19" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="20">
@@ -24124,7 +24124,7 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C22" t="n">
         <v>167.2468210986278</v>
@@ -24172,28 +24172,28 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>82.98990566424371</v>
+        <v>109.9643524037928</v>
       </c>
       <c r="S22" t="n">
         <v>0</v>
       </c>
       <c r="T22" t="n">
-        <v>221.5475610583892</v>
+        <v>0</v>
       </c>
       <c r="U22" t="n">
-        <v>286.2373523985773</v>
+        <v>0</v>
       </c>
       <c r="V22" t="n">
         <v>0</v>
       </c>
       <c r="W22" t="n">
-        <v>0</v>
+        <v>82.39383318338565</v>
       </c>
       <c r="X22" t="n">
         <v>0</v>
       </c>
       <c r="Y22" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="23">
@@ -24364,7 +24364,7 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C25" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D25" t="n">
         <v>148.6154730182124</v>
@@ -24409,13 +24409,13 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>109.9643524037928</v>
+        <v>0</v>
       </c>
       <c r="S25" t="n">
-        <v>82.39383318338548</v>
+        <v>0</v>
       </c>
       <c r="T25" t="n">
-        <v>0</v>
+        <v>133.8953512967691</v>
       </c>
       <c r="U25" t="n">
         <v>0</v>
@@ -24427,7 +24427,7 @@
         <v>0</v>
       </c>
       <c r="X25" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y25" t="n">
         <v>218.5846533520948</v>
@@ -24598,10 +24598,10 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>179.8319801819373</v>
+        <v>52.03027084125478</v>
       </c>
       <c r="C28" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D28" t="n">
         <v>148.6154730182124</v>
@@ -24646,13 +24646,13 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>109.9643524037928</v>
+        <v>0</v>
       </c>
       <c r="S28" t="n">
-        <v>0</v>
+        <v>197.9208099836032</v>
       </c>
       <c r="T28" t="n">
-        <v>0</v>
+        <v>221.5475610583892</v>
       </c>
       <c r="U28" t="n">
         <v>0</v>
@@ -24661,13 +24661,13 @@
         <v>0</v>
       </c>
       <c r="W28" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X28" t="n">
-        <v>82.39383318338525</v>
+        <v>0</v>
       </c>
       <c r="Y28" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="29">
@@ -24838,7 +24838,7 @@
         <v>0</v>
       </c>
       <c r="C31" t="n">
-        <v>0</v>
+        <v>112.0435644700707</v>
       </c>
       <c r="D31" t="n">
         <v>0</v>
@@ -24847,13 +24847,13 @@
         <v>0</v>
       </c>
       <c r="F31" t="n">
-        <v>0</v>
+        <v>90.21779139437415</v>
       </c>
       <c r="G31" t="n">
-        <v>111.2903118348206</v>
+        <v>0</v>
       </c>
       <c r="H31" t="n">
-        <v>33.5572570142764</v>
+        <v>93.71057173897903</v>
       </c>
       <c r="I31" t="n">
         <v>0</v>
@@ -24904,7 +24904,7 @@
         <v>0</v>
       </c>
       <c r="Y31" t="n">
-        <v>163.3813967235378</v>
+        <v>12.25703796920895</v>
       </c>
     </row>
     <row r="32">
@@ -26311,49 +26311,49 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>718411.5486312478</v>
+        <v>718411.5486312484</v>
       </c>
       <c r="C2" t="n">
         <v>718411.5486312481</v>
       </c>
       <c r="D2" t="n">
-        <v>718411.5486312482</v>
+        <v>718411.5486312479</v>
       </c>
       <c r="E2" t="n">
-        <v>684300.8545409905</v>
+        <v>684300.8545409904</v>
       </c>
       <c r="F2" t="n">
-        <v>684300.8545409904</v>
+        <v>684300.8545409902</v>
       </c>
       <c r="G2" t="n">
-        <v>684300.8545409903</v>
+        <v>684300.85454099</v>
       </c>
       <c r="H2" t="n">
         <v>684300.8545409903</v>
       </c>
       <c r="I2" t="n">
-        <v>684300.8545409903</v>
+        <v>684300.8545409902</v>
       </c>
       <c r="J2" t="n">
-        <v>684300.8545409903</v>
+        <v>684300.8545409901</v>
       </c>
       <c r="K2" t="n">
-        <v>711938.7403542226</v>
+        <v>711938.7403542234</v>
       </c>
       <c r="L2" t="n">
         <v>718411.5486312479</v>
       </c>
       <c r="M2" t="n">
-        <v>718411.5486312479</v>
+        <v>718411.5486312483</v>
       </c>
       <c r="N2" t="n">
-        <v>718411.5486312482</v>
+        <v>718411.5486312483</v>
       </c>
       <c r="O2" t="n">
         <v>718411.5486312484</v>
       </c>
       <c r="P2" t="n">
-        <v>718411.5486312483</v>
+        <v>718411.5486312484</v>
       </c>
     </row>
     <row r="3">
@@ -26363,7 +26363,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>589967.8792145445</v>
+        <v>589967.8792145444</v>
       </c>
       <c r="C3" t="n">
         <v>0</v>
@@ -26372,7 +26372,7 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>525160.0364768964</v>
+        <v>525160.036476896</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -26390,13 +26390,13 @@
         <v>176423.219192593</v>
       </c>
       <c r="K3" t="n">
-        <v>44162.60530284562</v>
+        <v>44162.60530284568</v>
       </c>
       <c r="L3" t="n">
-        <v>10342.90680086689</v>
+        <v>10342.90680086685</v>
       </c>
       <c r="M3" t="n">
-        <v>134801.0152338372</v>
+        <v>134801.0152338371</v>
       </c>
       <c r="N3" t="n">
         <v>0</v>
@@ -26405,7 +26405,7 @@
         <v>0</v>
       </c>
       <c r="P3" t="n">
-        <v>44162.60530284562</v>
+        <v>44162.60530284568</v>
       </c>
     </row>
     <row r="4">
@@ -26421,37 +26421,37 @@
         <v>147917.0487159208</v>
       </c>
       <c r="D4" t="n">
-        <v>147917.0487159209</v>
+        <v>147917.0487159208</v>
       </c>
       <c r="E4" t="n">
+        <v>7916.731656007509</v>
+      </c>
+      <c r="F4" t="n">
+        <v>7916.731656007496</v>
+      </c>
+      <c r="G4" t="n">
+        <v>7916.731656007497</v>
+      </c>
+      <c r="H4" t="n">
         <v>7916.731656007483</v>
       </c>
-      <c r="F4" t="n">
-        <v>7916.73165600742</v>
-      </c>
-      <c r="G4" t="n">
-        <v>7916.731656007415</v>
-      </c>
-      <c r="H4" t="n">
-        <v>7916.731656007492</v>
-      </c>
       <c r="I4" t="n">
-        <v>7916.731656007481</v>
+        <v>7916.731656007483</v>
       </c>
       <c r="J4" t="n">
-        <v>7916.731656007443</v>
+        <v>7916.731656007496</v>
       </c>
       <c r="K4" t="n">
-        <v>26081.35417020396</v>
+        <v>26081.35417020403</v>
       </c>
       <c r="L4" t="n">
-        <v>30335.51889732795</v>
+        <v>30335.51889732794</v>
       </c>
       <c r="M4" t="n">
-        <v>30335.51889732795</v>
+        <v>30335.51889732794</v>
       </c>
       <c r="N4" t="n">
-        <v>30335.51889732801</v>
+        <v>30335.51889732796</v>
       </c>
       <c r="O4" t="n">
         <v>30335.51889732797</v>
@@ -26467,22 +26467,22 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>82859.07806340947</v>
+        <v>82859.07806340946</v>
       </c>
       <c r="C5" t="n">
         <v>82859.07806340946</v>
       </c>
       <c r="D5" t="n">
-        <v>82859.07806340946</v>
+        <v>82859.07806340947</v>
       </c>
       <c r="E5" t="n">
-        <v>91987.32594871665</v>
+        <v>91987.32594871662</v>
       </c>
       <c r="F5" t="n">
-        <v>91987.32594871667</v>
+        <v>91987.32594871662</v>
       </c>
       <c r="G5" t="n">
-        <v>91987.32594871667</v>
+        <v>91987.32594871662</v>
       </c>
       <c r="H5" t="n">
         <v>91987.32594871664</v>
@@ -26491,25 +26491,25 @@
         <v>91987.32594871664</v>
       </c>
       <c r="J5" t="n">
-        <v>91987.32594871665</v>
+        <v>91987.32594871664</v>
       </c>
       <c r="K5" t="n">
-        <v>96628.20853022281</v>
+        <v>96628.20853022279</v>
       </c>
       <c r="L5" t="n">
         <v>97715.1058200254</v>
       </c>
       <c r="M5" t="n">
-        <v>97715.10582002539</v>
+        <v>97715.1058200254</v>
       </c>
       <c r="N5" t="n">
-        <v>97715.10582002538</v>
+        <v>97715.1058200254</v>
       </c>
       <c r="O5" t="n">
         <v>97715.10582002539</v>
       </c>
       <c r="P5" t="n">
-        <v>97715.1058200254</v>
+        <v>97715.10582002539</v>
       </c>
     </row>
     <row r="6">
@@ -26519,46 +26519,46 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-102332.457362627</v>
+        <v>-102332.4573626263</v>
       </c>
       <c r="C6" t="n">
         <v>487635.4218519178</v>
       </c>
       <c r="D6" t="n">
-        <v>487635.4218519179</v>
+        <v>487635.4218519177</v>
       </c>
       <c r="E6" t="n">
-        <v>59236.76045937005</v>
+        <v>59139.30133339812</v>
       </c>
       <c r="F6" t="n">
-        <v>584396.7969362664</v>
+        <v>584299.337810294</v>
       </c>
       <c r="G6" t="n">
-        <v>584396.7969362661</v>
+        <v>584299.3378102938</v>
       </c>
       <c r="H6" t="n">
-        <v>584396.7969362664</v>
+        <v>584299.3378102941</v>
       </c>
       <c r="I6" t="n">
-        <v>584396.7969362662</v>
+        <v>584299.337810294</v>
       </c>
       <c r="J6" t="n">
-        <v>407973.5777436732</v>
+        <v>407876.1186177008</v>
       </c>
       <c r="K6" t="n">
-        <v>545066.5723509503</v>
+        <v>545048.0786130165</v>
       </c>
       <c r="L6" t="n">
-        <v>580018.0171130276</v>
+        <v>580018.0171130277</v>
       </c>
       <c r="M6" t="n">
-        <v>455559.9086800574</v>
+        <v>455559.9086800579</v>
       </c>
       <c r="N6" t="n">
-        <v>590360.9239138947</v>
+        <v>590360.9239138949</v>
       </c>
       <c r="O6" t="n">
-        <v>590360.9239138952</v>
+        <v>590360.923913895</v>
       </c>
       <c r="P6" t="n">
         <v>546198.3186110493</v>
@@ -26710,22 +26710,22 @@
         <v>0</v>
       </c>
       <c r="K2" t="n">
-        <v>55.20325662855702</v>
+        <v>55.2032566285571</v>
       </c>
       <c r="L2" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="M2" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="N2" t="n">
         <v>68.13189012964065</v>
       </c>
       <c r="O2" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="P2" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964067</v>
       </c>
     </row>
     <row r="3">
@@ -26744,40 +26744,40 @@
         <v>377.7436642170866</v>
       </c>
       <c r="E3" t="n">
-        <v>830.3824054541004</v>
+        <v>830.3824054541002</v>
       </c>
       <c r="F3" t="n">
-        <v>830.3824054541004</v>
+        <v>830.3824054541002</v>
       </c>
       <c r="G3" t="n">
-        <v>830.3824054541004</v>
+        <v>830.3824054541002</v>
       </c>
       <c r="H3" t="n">
-        <v>830.3824054541004</v>
+        <v>830.3824054541003</v>
       </c>
       <c r="I3" t="n">
-        <v>830.3824054541004</v>
+        <v>830.3824054541003</v>
       </c>
       <c r="J3" t="n">
-        <v>830.3824054541004</v>
+        <v>830.3824054541003</v>
       </c>
       <c r="K3" t="n">
-        <v>830.3824054541004</v>
+        <v>830.3824054541003</v>
       </c>
       <c r="L3" t="n">
-        <v>830.3824054541004</v>
+        <v>830.3824054541003</v>
       </c>
       <c r="M3" t="n">
-        <v>830.3824054541004</v>
+        <v>830.3824054541003</v>
       </c>
       <c r="N3" t="n">
-        <v>830.3824054541004</v>
+        <v>830.3824054541003</v>
       </c>
       <c r="O3" t="n">
-        <v>830.3824054541002</v>
+        <v>830.3824054541003</v>
       </c>
       <c r="P3" t="n">
-        <v>830.3824054541002</v>
+        <v>830.3824054541003</v>
       </c>
     </row>
     <row r="4">
@@ -26787,22 +26787,22 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>674.2872727545557</v>
+        <v>674.2872727545556</v>
       </c>
       <c r="C4" t="n">
         <v>674.2872727545556</v>
       </c>
       <c r="D4" t="n">
-        <v>674.2872727545555</v>
+        <v>674.2872727545557</v>
       </c>
       <c r="E4" t="n">
         <v>1215.213643253573</v>
       </c>
       <c r="F4" t="n">
-        <v>1215.213643253574</v>
+        <v>1215.213643253573</v>
       </c>
       <c r="G4" t="n">
-        <v>1215.213643253574</v>
+        <v>1215.213643253573</v>
       </c>
       <c r="H4" t="n">
         <v>1215.213643253573</v>
@@ -26932,10 +26932,10 @@
         <v>0</v>
       </c>
       <c r="K2" t="n">
-        <v>55.20325662855702</v>
+        <v>55.2032566285571</v>
       </c>
       <c r="L2" t="n">
-        <v>12.92863350108362</v>
+        <v>12.92863350108357</v>
       </c>
       <c r="M2" t="n">
         <v>0</v>
@@ -26947,7 +26947,7 @@
         <v>0</v>
       </c>
       <c r="P2" t="n">
-        <v>55.20325662855702</v>
+        <v>55.2032566285571</v>
       </c>
     </row>
     <row r="3">
@@ -26966,7 +26966,7 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>452.6387412370138</v>
+        <v>452.6387412370136</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -27009,7 +27009,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>674.2872727545557</v>
+        <v>674.2872727545556</v>
       </c>
       <c r="C4" t="n">
         <v>0</v>
@@ -27018,7 +27018,7 @@
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>540.9263704990178</v>
+        <v>540.9263704990174</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
@@ -27033,7 +27033,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>674.2872727545559</v>
+        <v>674.2872727545556</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27042,7 +27042,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>540.9263704990176</v>
+        <v>540.9263704990174</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27169,7 +27169,7 @@
         <v>0</v>
       </c>
       <c r="P2" t="n">
-        <v>55.20325662855702</v>
+        <v>55.2032566285571</v>
       </c>
     </row>
     <row r="3">
@@ -27255,7 +27255,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>674.2872727545557</v>
+        <v>674.2872727545556</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27264,7 +27264,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>540.9263704990178</v>
+        <v>540.9263704990174</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27376,7 +27376,7 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C2" t="n">
         <v>365.2728917710076</v>
@@ -27388,13 +27388,13 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="G2" t="n">
         <v>0</v>
       </c>
       <c r="H2" t="n">
-        <v>27.68846296380366</v>
+        <v>0</v>
       </c>
       <c r="I2" t="n">
         <v>0</v>
@@ -27424,13 +27424,13 @@
         <v>0</v>
       </c>
       <c r="R2" t="n">
-        <v>54.47840257481171</v>
+        <v>0</v>
       </c>
       <c r="S2" t="n">
-        <v>174.4157128089715</v>
+        <v>0</v>
       </c>
       <c r="T2" t="n">
-        <v>216.4483203576578</v>
+        <v>0</v>
       </c>
       <c r="U2" t="n">
         <v>0</v>
@@ -27439,13 +27439,13 @@
         <v>0</v>
       </c>
       <c r="W2" t="n">
-        <v>349.240968717413</v>
+        <v>23.03118778159279</v>
       </c>
       <c r="X2" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y2" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="3">
@@ -27534,31 +27534,31 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C4" t="n">
         <v>167.2468210986278</v>
       </c>
       <c r="D4" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E4" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F4" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G4" t="n">
-        <v>0</v>
+        <v>167.3098022590509</v>
       </c>
       <c r="H4" t="n">
         <v>156.1708888417951</v>
       </c>
       <c r="I4" t="n">
-        <v>75.30176537689283</v>
+        <v>134.9656217923383</v>
       </c>
       <c r="J4" t="n">
-        <v>45.199959188537</v>
+        <v>45.19995918853701</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27579,16 +27579,16 @@
         <v>0</v>
       </c>
       <c r="Q4" t="n">
-        <v>29.1227499549143</v>
+        <v>29.12274995491431</v>
       </c>
       <c r="R4" t="n">
         <v>146.6651919801579</v>
       </c>
       <c r="S4" t="n">
-        <v>212.1455389500189</v>
+        <v>168.1531355799262</v>
       </c>
       <c r="T4" t="n">
-        <v>225.0351054580843</v>
+        <v>0</v>
       </c>
       <c r="U4" t="n">
         <v>286.2818742419777</v>
@@ -27603,7 +27603,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y4" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="5">
@@ -27616,25 +27616,25 @@
         <v>0</v>
       </c>
       <c r="C5" t="n">
-        <v>0</v>
+        <v>327.328410971082</v>
       </c>
       <c r="D5" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E5" t="n">
         <v>0</v>
       </c>
       <c r="F5" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="G5" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="H5" t="n">
-        <v>12.42908554841733</v>
+        <v>0</v>
       </c>
       <c r="I5" t="n">
-        <v>151.9313162448613</v>
+        <v>0</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -27661,25 +27661,25 @@
         <v>0</v>
       </c>
       <c r="R5" t="n">
-        <v>54.47840257481171</v>
+        <v>0</v>
       </c>
       <c r="S5" t="n">
         <v>174.4157128089715</v>
       </c>
       <c r="T5" t="n">
-        <v>216.4483203576578</v>
+        <v>0</v>
       </c>
       <c r="U5" t="n">
         <v>251.2241675082893</v>
       </c>
       <c r="V5" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W5" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X5" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y5" t="n">
         <v>386.2379386560536</v>
@@ -27777,10 +27777,10 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D7" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E7" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F7" t="n">
         <v>145.4210480229312</v>
@@ -27816,10 +27816,10 @@
         <v>0</v>
       </c>
       <c r="Q7" t="n">
-        <v>29.1227499549143</v>
+        <v>0</v>
       </c>
       <c r="R7" t="n">
-        <v>146.6651919801579</v>
+        <v>0</v>
       </c>
       <c r="S7" t="n">
         <v>212.1455389500189</v>
@@ -27831,16 +27831,16 @@
         <v>286.2818742419777</v>
       </c>
       <c r="V7" t="n">
-        <v>252.137643323828</v>
+        <v>166.0230784676656</v>
       </c>
       <c r="W7" t="n">
         <v>286.522998336591</v>
       </c>
       <c r="X7" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y7" t="n">
-        <v>26.02192683660456</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="8">
@@ -27850,25 +27850,25 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C8" t="n">
         <v>0</v>
       </c>
       <c r="D8" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E8" t="n">
         <v>0</v>
       </c>
       <c r="F8" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="G8" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="H8" t="n">
-        <v>323.9227727643571</v>
+        <v>34.70061289100079</v>
       </c>
       <c r="I8" t="n">
         <v>151.9313162448613</v>
@@ -27898,7 +27898,7 @@
         <v>0</v>
       </c>
       <c r="R8" t="n">
-        <v>54.47840257481172</v>
+        <v>0</v>
       </c>
       <c r="S8" t="n">
         <v>174.4157128089715</v>
@@ -27913,10 +27913,10 @@
         <v>327.7522584701349</v>
       </c>
       <c r="W8" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X8" t="n">
-        <v>44.47535211858303</v>
+        <v>0</v>
       </c>
       <c r="Y8" t="n">
         <v>0</v>
@@ -28008,13 +28008,13 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C10" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D10" t="n">
-        <v>46.8347852886633</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E10" t="n">
         <v>146.4339626465692</v>
@@ -28029,10 +28029,10 @@
         <v>156.1708888417951</v>
       </c>
       <c r="I10" t="n">
-        <v>134.9656217923383</v>
+        <v>134.9656217923382</v>
       </c>
       <c r="J10" t="n">
-        <v>45.19995918853701</v>
+        <v>45.199959188537</v>
       </c>
       <c r="K10" t="n">
         <v>0</v>
@@ -28053,19 +28053,19 @@
         <v>0</v>
       </c>
       <c r="Q10" t="n">
-        <v>29.12274995491431</v>
+        <v>29.1227499549143</v>
       </c>
       <c r="R10" t="n">
-        <v>146.6651919801579</v>
+        <v>0</v>
       </c>
       <c r="S10" t="n">
-        <v>212.1455389500189</v>
+        <v>202.6835682680297</v>
       </c>
       <c r="T10" t="n">
-        <v>225.0351054580843</v>
+        <v>0</v>
       </c>
       <c r="U10" t="n">
-        <v>286.2818742419777</v>
+        <v>0</v>
       </c>
       <c r="V10" t="n">
         <v>252.137643323828</v>
@@ -28077,7 +28077,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y10" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="11">
@@ -28108,7 +28108,7 @@
         <v>0</v>
       </c>
       <c r="I11" t="n">
-        <v>0</v>
+        <v>5.400124791776761e-13</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -28339,7 +28339,7 @@
         <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>0</v>
+        <v>2.842170943040401e-13</v>
       </c>
       <c r="H14" t="n">
         <v>0</v>
@@ -28375,7 +28375,7 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>-1.392663762089796e-12</v>
+        <v>0</v>
       </c>
       <c r="T14" t="n">
         <v>0</v>
@@ -28576,13 +28576,13 @@
         <v>0</v>
       </c>
       <c r="G17" t="n">
-        <v>0</v>
+        <v>2.842170943040401e-13</v>
       </c>
       <c r="H17" t="n">
         <v>0</v>
       </c>
       <c r="I17" t="n">
-        <v>-1.506350599811412e-12</v>
+        <v>0</v>
       </c>
       <c r="J17" t="n">
         <v>0</v>
@@ -28819,7 +28819,7 @@
         <v>0</v>
       </c>
       <c r="I20" t="n">
-        <v>2.557953848736361e-13</v>
+        <v>0</v>
       </c>
       <c r="J20" t="n">
         <v>0</v>
@@ -29287,7 +29287,7 @@
         <v>0</v>
       </c>
       <c r="G26" t="n">
-        <v>0</v>
+        <v>2.842170943040401e-13</v>
       </c>
       <c r="H26" t="n">
         <v>0</v>
@@ -29326,7 +29326,7 @@
         <v>0</v>
       </c>
       <c r="T26" t="n">
-        <v>-9.003997547551989e-13</v>
+        <v>0</v>
       </c>
       <c r="U26" t="n">
         <v>0</v>
@@ -29563,7 +29563,7 @@
         <v>0</v>
       </c>
       <c r="T29" t="n">
-        <v>-7.200212213340078e-13</v>
+        <v>0</v>
       </c>
       <c r="U29" t="n">
         <v>0</v>
@@ -29667,76 +29667,76 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>55.20325662855702</v>
+        <v>55.2032566285571</v>
       </c>
       <c r="C31" t="n">
-        <v>55.20325662855702</v>
+        <v>55.2032566285571</v>
       </c>
       <c r="D31" t="n">
-        <v>55.20325662855702</v>
+        <v>55.2032566285571</v>
       </c>
       <c r="E31" t="n">
-        <v>55.20325662855702</v>
+        <v>55.2032566285571</v>
       </c>
       <c r="F31" t="n">
-        <v>55.20325662855702</v>
+        <v>55.2032566285571</v>
       </c>
       <c r="G31" t="n">
-        <v>55.20325662855702</v>
+        <v>55.2032566285571</v>
       </c>
       <c r="H31" t="n">
-        <v>55.20325662855702</v>
+        <v>55.2032566285571</v>
       </c>
       <c r="I31" t="n">
-        <v>55.20325662855702</v>
+        <v>55.2032566285571</v>
       </c>
       <c r="J31" t="n">
-        <v>55.20325662855702</v>
+        <v>55.2032566285571</v>
       </c>
       <c r="K31" t="n">
-        <v>55.20325662855702</v>
+        <v>55.2032566285571</v>
       </c>
       <c r="L31" t="n">
-        <v>55.20325662855702</v>
+        <v>55.2032566285571</v>
       </c>
       <c r="M31" t="n">
-        <v>55.20325662855702</v>
+        <v>55.2032566285571</v>
       </c>
       <c r="N31" t="n">
-        <v>55.20325662855702</v>
+        <v>55.2032566285571</v>
       </c>
       <c r="O31" t="n">
-        <v>55.20325662855702</v>
+        <v>55.2032566285571</v>
       </c>
       <c r="P31" t="n">
-        <v>55.20325662855702</v>
+        <v>55.2032566285571</v>
       </c>
       <c r="Q31" t="n">
-        <v>55.20325662855702</v>
+        <v>55.2032566285571</v>
       </c>
       <c r="R31" t="n">
-        <v>55.20325662855702</v>
+        <v>55.2032566285571</v>
       </c>
       <c r="S31" t="n">
-        <v>55.20325662855702</v>
+        <v>55.2032566285571</v>
       </c>
       <c r="T31" t="n">
-        <v>55.20325662855702</v>
+        <v>55.2032566285571</v>
       </c>
       <c r="U31" t="n">
-        <v>55.20325662855702</v>
+        <v>55.2032566285571</v>
       </c>
       <c r="V31" t="n">
-        <v>55.20325662855702</v>
+        <v>55.2032566285571</v>
       </c>
       <c r="W31" t="n">
-        <v>55.20325662855702</v>
+        <v>55.2032566285571</v>
       </c>
       <c r="X31" t="n">
-        <v>55.20325662855702</v>
+        <v>55.2032566285571</v>
       </c>
       <c r="Y31" t="n">
-        <v>55.20325662855702</v>
+        <v>55.2032566285571</v>
       </c>
     </row>
     <row r="32">
@@ -29904,76 +29904,76 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="C34" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="D34" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="E34" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="F34" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="G34" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="H34" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="I34" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="J34" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="K34" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="L34" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="M34" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="N34" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="O34" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="P34" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="Q34" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="R34" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="S34" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="T34" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="U34" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="V34" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="W34" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="X34" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="Y34" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964067</v>
       </c>
     </row>
     <row r="35">
@@ -30141,76 +30141,76 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="C37" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="D37" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="E37" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="F37" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="G37" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="H37" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="I37" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="J37" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="K37" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="L37" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="M37" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="N37" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="O37" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="P37" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="Q37" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="R37" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="S37" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="T37" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="U37" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="V37" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="W37" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="X37" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="Y37" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964067</v>
       </c>
     </row>
     <row r="38">
@@ -30232,7 +30232,7 @@
         <v>0</v>
       </c>
       <c r="F38" t="n">
-        <v>1.13686837721616e-12</v>
+        <v>0</v>
       </c>
       <c r="G38" t="n">
         <v>0</v>
@@ -30615,76 +30615,76 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="C43" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="D43" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="E43" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="F43" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="G43" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="H43" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="I43" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="J43" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="K43" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="L43" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="M43" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="N43" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="O43" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="P43" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="Q43" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="R43" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="S43" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="T43" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="U43" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="V43" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="W43" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="X43" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="Y43" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964067</v>
       </c>
     </row>
     <row r="44">
@@ -30852,76 +30852,76 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="C46" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="D46" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="E46" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="F46" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="G46" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="H46" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="I46" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="J46" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="K46" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="L46" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="M46" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="N46" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="O46" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="P46" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="Q46" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="R46" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="S46" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="T46" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="U46" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="V46" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="W46" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="X46" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="Y46" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964067</v>
       </c>
     </row>
   </sheetData>
@@ -31039,13 +31039,13 @@
         <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>1.518567494340046</v>
+        <v>1.518567494340045</v>
       </c>
       <c r="H2" t="n">
-        <v>15.55202935141</v>
+        <v>15.55202935140999</v>
       </c>
       <c r="I2" t="n">
-        <v>58.54457332554467</v>
+        <v>58.54457332554465</v>
       </c>
       <c r="J2" t="n">
         <v>128.8865178727436</v>
@@ -31063,22 +31063,22 @@
         <v>270.9617944338304</v>
       </c>
       <c r="O2" t="n">
-        <v>255.8615389119866</v>
+        <v>255.8615389119865</v>
       </c>
       <c r="P2" t="n">
-        <v>218.3719038954667</v>
+        <v>218.3719038954666</v>
       </c>
       <c r="Q2" t="n">
         <v>163.9882055044137</v>
       </c>
       <c r="R2" t="n">
-        <v>95.39071536633797</v>
+        <v>95.39071536633796</v>
       </c>
       <c r="S2" t="n">
         <v>34.60435677727382</v>
       </c>
       <c r="T2" t="n">
-        <v>6.647529206473553</v>
+        <v>6.647529206473552</v>
       </c>
       <c r="U2" t="n">
         <v>0.1214853995472036</v>
@@ -31118,16 +31118,16 @@
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>0.812505240014111</v>
+        <v>0.8125052400141107</v>
       </c>
       <c r="H3" t="n">
-        <v>7.847090081188914</v>
+        <v>7.847090081188913</v>
       </c>
       <c r="I3" t="n">
         <v>27.97441286890689</v>
       </c>
       <c r="J3" t="n">
-        <v>76.76392708396476</v>
+        <v>76.76392708396475</v>
       </c>
       <c r="K3" t="n">
         <v>131.2017781649102</v>
@@ -31151,16 +31151,16 @@
         <v>103.7155811639065</v>
       </c>
       <c r="R3" t="n">
-        <v>50.44659727034982</v>
+        <v>50.44659727034981</v>
       </c>
       <c r="S3" t="n">
-        <v>15.09192847131473</v>
+        <v>15.09192847131472</v>
       </c>
       <c r="T3" t="n">
         <v>3.274966296372665</v>
       </c>
       <c r="U3" t="n">
-        <v>0.05345429210619153</v>
+        <v>0.05345429210619152</v>
       </c>
       <c r="V3" t="n">
         <v>0</v>
@@ -31197,19 +31197,19 @@
         <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>0.6811770994078611</v>
+        <v>0.681177099407861</v>
       </c>
       <c r="H4" t="n">
-        <v>6.056283665644442</v>
+        <v>6.056283665644441</v>
       </c>
       <c r="I4" t="n">
-        <v>20.48485313492005</v>
+        <v>20.48485313492004</v>
       </c>
       <c r="J4" t="n">
         <v>48.15922092813577</v>
       </c>
       <c r="K4" t="n">
-        <v>79.14039391302239</v>
+        <v>79.14039391302238</v>
       </c>
       <c r="L4" t="n">
         <v>101.2724571246924</v>
@@ -31221,13 +31221,13 @@
         <v>104.2386737666594</v>
       </c>
       <c r="O4" t="n">
-        <v>96.28128674175844</v>
+        <v>96.28128674175842</v>
       </c>
       <c r="P4" t="n">
-        <v>82.38527391383801</v>
+        <v>82.38527391383799</v>
       </c>
       <c r="Q4" t="n">
-        <v>57.03929329678008</v>
+        <v>57.03929329678007</v>
       </c>
       <c r="R4" t="n">
         <v>30.62819939701163</v>
@@ -31236,7 +31236,7 @@
         <v>11.87105908695336</v>
       </c>
       <c r="T4" t="n">
-        <v>2.910483970197224</v>
+        <v>2.910483970197223</v>
       </c>
       <c r="U4" t="n">
         <v>0.0371551145131561</v>
@@ -31513,13 +31513,13 @@
         <v>0</v>
       </c>
       <c r="G8" t="n">
-        <v>1.518567494340045</v>
+        <v>1.518567494340046</v>
       </c>
       <c r="H8" t="n">
-        <v>15.55202935140999</v>
+        <v>15.55202935141</v>
       </c>
       <c r="I8" t="n">
-        <v>58.54457332554465</v>
+        <v>58.54457332554467</v>
       </c>
       <c r="J8" t="n">
         <v>128.8865178727436</v>
@@ -31537,22 +31537,22 @@
         <v>270.9617944338304</v>
       </c>
       <c r="O8" t="n">
-        <v>255.8615389119865</v>
+        <v>255.8615389119866</v>
       </c>
       <c r="P8" t="n">
-        <v>218.3719038954666</v>
+        <v>218.3719038954667</v>
       </c>
       <c r="Q8" t="n">
         <v>163.9882055044137</v>
       </c>
       <c r="R8" t="n">
-        <v>95.39071536633796</v>
+        <v>95.39071536633797</v>
       </c>
       <c r="S8" t="n">
         <v>34.60435677727382</v>
       </c>
       <c r="T8" t="n">
-        <v>6.647529206473552</v>
+        <v>6.647529206473553</v>
       </c>
       <c r="U8" t="n">
         <v>0.1214853995472036</v>
@@ -31592,16 +31592,16 @@
         <v>0</v>
       </c>
       <c r="G9" t="n">
-        <v>0.8125052400141107</v>
+        <v>0.812505240014111</v>
       </c>
       <c r="H9" t="n">
-        <v>7.847090081188913</v>
+        <v>7.847090081188914</v>
       </c>
       <c r="I9" t="n">
         <v>27.97441286890689</v>
       </c>
       <c r="J9" t="n">
-        <v>76.76392708396475</v>
+        <v>76.76392708396476</v>
       </c>
       <c r="K9" t="n">
         <v>131.2017781649102</v>
@@ -31625,16 +31625,16 @@
         <v>103.7155811639065</v>
       </c>
       <c r="R9" t="n">
-        <v>50.44659727034981</v>
+        <v>50.44659727034982</v>
       </c>
       <c r="S9" t="n">
-        <v>15.09192847131472</v>
+        <v>15.09192847131473</v>
       </c>
       <c r="T9" t="n">
         <v>3.274966296372665</v>
       </c>
       <c r="U9" t="n">
-        <v>0.05345429210619152</v>
+        <v>0.05345429210619153</v>
       </c>
       <c r="V9" t="n">
         <v>0</v>
@@ -31671,19 +31671,19 @@
         <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>0.681177099407861</v>
+        <v>0.6811770994078611</v>
       </c>
       <c r="H10" t="n">
-        <v>6.056283665644441</v>
+        <v>6.056283665644442</v>
       </c>
       <c r="I10" t="n">
-        <v>20.48485313492004</v>
+        <v>20.48485313492005</v>
       </c>
       <c r="J10" t="n">
         <v>48.15922092813577</v>
       </c>
       <c r="K10" t="n">
-        <v>79.14039391302238</v>
+        <v>79.14039391302239</v>
       </c>
       <c r="L10" t="n">
         <v>101.2724571246924</v>
@@ -31695,13 +31695,13 @@
         <v>104.2386737666594</v>
       </c>
       <c r="O10" t="n">
-        <v>96.28128674175842</v>
+        <v>96.28128674175844</v>
       </c>
       <c r="P10" t="n">
-        <v>82.38527391383799</v>
+        <v>82.38527391383801</v>
       </c>
       <c r="Q10" t="n">
-        <v>57.03929329678007</v>
+        <v>57.03929329678008</v>
       </c>
       <c r="R10" t="n">
         <v>30.62819939701163</v>
@@ -31710,7 +31710,7 @@
         <v>11.87105908695336</v>
       </c>
       <c r="T10" t="n">
-        <v>2.910483970197223</v>
+        <v>2.910483970197224</v>
       </c>
       <c r="U10" t="n">
         <v>0.0371551145131561</v>
@@ -31750,43 +31750,43 @@
         <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>3.338220725443617</v>
+        <v>3.338220725443616</v>
       </c>
       <c r="H11" t="n">
-        <v>34.18755300444946</v>
+        <v>34.18755300444944</v>
       </c>
       <c r="I11" t="n">
-        <v>128.6967545176652</v>
+        <v>128.6967545176651</v>
       </c>
       <c r="J11" t="n">
-        <v>283.3273112961205</v>
+        <v>283.3273112961204</v>
       </c>
       <c r="K11" t="n">
-        <v>424.6341946041489</v>
+        <v>424.6341946041488</v>
       </c>
       <c r="L11" t="n">
-        <v>526.7962671304441</v>
+        <v>526.796267130444</v>
       </c>
       <c r="M11" t="n">
-        <v>586.162349956552</v>
+        <v>586.1623499565518</v>
       </c>
       <c r="N11" t="n">
-        <v>595.6470695927187</v>
+        <v>595.6470695927186</v>
       </c>
       <c r="O11" t="n">
-        <v>562.4526372540887</v>
+        <v>562.4526372540886</v>
       </c>
       <c r="P11" t="n">
-        <v>480.0403130946993</v>
+        <v>480.0403130946992</v>
       </c>
       <c r="Q11" t="n">
-        <v>360.4902833647497</v>
+        <v>360.4902833647496</v>
       </c>
       <c r="R11" t="n">
         <v>209.6945076446478</v>
       </c>
       <c r="S11" t="n">
-        <v>76.06970478104651</v>
+        <v>76.06970478104648</v>
       </c>
       <c r="T11" t="n">
         <v>14.61306122562944</v>
@@ -31829,46 +31829,46 @@
         <v>0</v>
       </c>
       <c r="G12" t="n">
-        <v>1.786105551354103</v>
+        <v>1.786105551354102</v>
       </c>
       <c r="H12" t="n">
         <v>17.25001940386726</v>
       </c>
       <c r="I12" t="n">
-        <v>61.49530078127066</v>
+        <v>61.49530078127064</v>
       </c>
       <c r="J12" t="n">
-        <v>168.7478056215734</v>
+        <v>168.7478056215733</v>
       </c>
       <c r="K12" t="n">
-        <v>288.4168775622983</v>
+        <v>288.4168775622982</v>
       </c>
       <c r="L12" t="n">
-        <v>387.8120847358986</v>
+        <v>387.8120847358985</v>
       </c>
       <c r="M12" t="n">
-        <v>452.5584109724847</v>
+        <v>452.5584109724845</v>
       </c>
       <c r="N12" t="n">
-        <v>464.5362854813463</v>
+        <v>464.5362854813461</v>
       </c>
       <c r="O12" t="n">
-        <v>424.9599466855527</v>
+        <v>424.9599466855526</v>
       </c>
       <c r="P12" t="n">
-        <v>341.067822345855</v>
+        <v>341.0678223458549</v>
       </c>
       <c r="Q12" t="n">
-        <v>227.9948068710957</v>
+        <v>227.9948068710956</v>
       </c>
       <c r="R12" t="n">
         <v>110.8952201095118</v>
       </c>
       <c r="S12" t="n">
-        <v>33.17612723677465</v>
+        <v>33.17612723677464</v>
       </c>
       <c r="T12" t="n">
-        <v>7.19925877936149</v>
+        <v>7.199258779361489</v>
       </c>
       <c r="U12" t="n">
         <v>0.1175069441680331</v>
@@ -31914,7 +31914,7 @@
         <v>13.31334413990345</v>
       </c>
       <c r="I13" t="n">
-        <v>45.03122946298631</v>
+        <v>45.0312294629863</v>
       </c>
       <c r="J13" t="n">
         <v>105.8669502822383</v>
@@ -31926,10 +31926,10 @@
         <v>222.6241616196124</v>
       </c>
       <c r="M13" t="n">
-        <v>234.725964217132</v>
+        <v>234.7259642171319</v>
       </c>
       <c r="N13" t="n">
-        <v>229.1447054263751</v>
+        <v>229.144705426375</v>
       </c>
       <c r="O13" t="n">
         <v>211.6522236065632</v>
@@ -31938,19 +31938,19 @@
         <v>181.1050413469073</v>
       </c>
       <c r="Q13" t="n">
-        <v>125.3877432235692</v>
+        <v>125.3877432235691</v>
       </c>
       <c r="R13" t="n">
-        <v>67.32903897337671</v>
+        <v>67.32903897337668</v>
       </c>
       <c r="S13" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T13" t="n">
-        <v>6.398028369892247</v>
+        <v>6.398028369892245</v>
       </c>
       <c r="U13" t="n">
-        <v>0.08167695791351816</v>
+        <v>0.08167695791351813</v>
       </c>
       <c r="V13" t="n">
         <v>0</v>
@@ -31987,43 +31987,43 @@
         <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>3.338220725443617</v>
+        <v>3.338220725443616</v>
       </c>
       <c r="H14" t="n">
-        <v>34.18755300444946</v>
+        <v>34.18755300444944</v>
       </c>
       <c r="I14" t="n">
-        <v>128.6967545176652</v>
+        <v>128.6967545176651</v>
       </c>
       <c r="J14" t="n">
-        <v>283.3273112961205</v>
+        <v>283.3273112961204</v>
       </c>
       <c r="K14" t="n">
-        <v>424.6341946041489</v>
+        <v>424.6341946041488</v>
       </c>
       <c r="L14" t="n">
-        <v>526.7962671304441</v>
+        <v>526.796267130444</v>
       </c>
       <c r="M14" t="n">
-        <v>586.162349956552</v>
+        <v>586.1623499565518</v>
       </c>
       <c r="N14" t="n">
-        <v>595.6470695927187</v>
+        <v>595.6470695927186</v>
       </c>
       <c r="O14" t="n">
-        <v>562.4526372540887</v>
+        <v>562.4526372540886</v>
       </c>
       <c r="P14" t="n">
-        <v>480.0403130946993</v>
+        <v>480.0403130946992</v>
       </c>
       <c r="Q14" t="n">
-        <v>360.4902833647497</v>
+        <v>360.4902833647496</v>
       </c>
       <c r="R14" t="n">
         <v>209.6945076446478</v>
       </c>
       <c r="S14" t="n">
-        <v>76.06970478104651</v>
+        <v>76.06970478104648</v>
       </c>
       <c r="T14" t="n">
         <v>14.61306122562944</v>
@@ -32066,46 +32066,46 @@
         <v>0</v>
       </c>
       <c r="G15" t="n">
-        <v>1.786105551354103</v>
+        <v>1.786105551354102</v>
       </c>
       <c r="H15" t="n">
         <v>17.25001940386726</v>
       </c>
       <c r="I15" t="n">
-        <v>61.49530078127066</v>
+        <v>61.49530078127064</v>
       </c>
       <c r="J15" t="n">
-        <v>168.7478056215734</v>
+        <v>168.7478056215733</v>
       </c>
       <c r="K15" t="n">
-        <v>288.4168775622983</v>
+        <v>288.4168775622982</v>
       </c>
       <c r="L15" t="n">
-        <v>387.8120847358986</v>
+        <v>387.8120847358985</v>
       </c>
       <c r="M15" t="n">
-        <v>452.5584109724847</v>
+        <v>452.5584109724845</v>
       </c>
       <c r="N15" t="n">
-        <v>464.5362854813463</v>
+        <v>464.5362854813461</v>
       </c>
       <c r="O15" t="n">
-        <v>424.9599466855527</v>
+        <v>424.9599466855526</v>
       </c>
       <c r="P15" t="n">
-        <v>341.067822345855</v>
+        <v>341.0678223458549</v>
       </c>
       <c r="Q15" t="n">
-        <v>227.9948068710957</v>
+        <v>227.9948068710956</v>
       </c>
       <c r="R15" t="n">
         <v>110.8952201095118</v>
       </c>
       <c r="S15" t="n">
-        <v>33.17612723677465</v>
+        <v>33.17612723677464</v>
       </c>
       <c r="T15" t="n">
-        <v>7.19925877936149</v>
+        <v>7.199258779361489</v>
       </c>
       <c r="U15" t="n">
         <v>0.1175069441680331</v>
@@ -32151,7 +32151,7 @@
         <v>13.31334413990345</v>
       </c>
       <c r="I16" t="n">
-        <v>45.03122946298631</v>
+        <v>45.0312294629863</v>
       </c>
       <c r="J16" t="n">
         <v>105.8669502822383</v>
@@ -32163,10 +32163,10 @@
         <v>222.6241616196124</v>
       </c>
       <c r="M16" t="n">
-        <v>234.725964217132</v>
+        <v>234.7259642171319</v>
       </c>
       <c r="N16" t="n">
-        <v>229.1447054263751</v>
+        <v>229.144705426375</v>
       </c>
       <c r="O16" t="n">
         <v>211.6522236065632</v>
@@ -32175,19 +32175,19 @@
         <v>181.1050413469073</v>
       </c>
       <c r="Q16" t="n">
-        <v>125.3877432235692</v>
+        <v>125.3877432235691</v>
       </c>
       <c r="R16" t="n">
-        <v>67.32903897337671</v>
+        <v>67.32903897337668</v>
       </c>
       <c r="S16" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T16" t="n">
-        <v>6.398028369892247</v>
+        <v>6.398028369892245</v>
       </c>
       <c r="U16" t="n">
-        <v>0.08167695791351816</v>
+        <v>0.08167695791351813</v>
       </c>
       <c r="V16" t="n">
         <v>0</v>
@@ -32224,43 +32224,43 @@
         <v>0</v>
       </c>
       <c r="G17" t="n">
-        <v>3.338220725443617</v>
+        <v>3.338220725443616</v>
       </c>
       <c r="H17" t="n">
-        <v>34.18755300444946</v>
+        <v>34.18755300444944</v>
       </c>
       <c r="I17" t="n">
-        <v>128.6967545176652</v>
+        <v>128.6967545176651</v>
       </c>
       <c r="J17" t="n">
-        <v>283.3273112961205</v>
+        <v>283.3273112961204</v>
       </c>
       <c r="K17" t="n">
-        <v>424.6341946041489</v>
+        <v>424.6341946041488</v>
       </c>
       <c r="L17" t="n">
-        <v>526.7962671304441</v>
+        <v>526.796267130444</v>
       </c>
       <c r="M17" t="n">
-        <v>586.162349956552</v>
+        <v>586.1623499565518</v>
       </c>
       <c r="N17" t="n">
-        <v>595.6470695927187</v>
+        <v>595.6470695927186</v>
       </c>
       <c r="O17" t="n">
-        <v>562.4526372540887</v>
+        <v>562.4526372540886</v>
       </c>
       <c r="P17" t="n">
-        <v>480.0403130946993</v>
+        <v>480.0403130946992</v>
       </c>
       <c r="Q17" t="n">
-        <v>360.4902833647497</v>
+        <v>360.4902833647496</v>
       </c>
       <c r="R17" t="n">
         <v>209.6945076446478</v>
       </c>
       <c r="S17" t="n">
-        <v>76.06970478104651</v>
+        <v>76.06970478104648</v>
       </c>
       <c r="T17" t="n">
         <v>14.61306122562944</v>
@@ -32303,46 +32303,46 @@
         <v>0</v>
       </c>
       <c r="G18" t="n">
-        <v>1.786105551354103</v>
+        <v>1.786105551354102</v>
       </c>
       <c r="H18" t="n">
         <v>17.25001940386726</v>
       </c>
       <c r="I18" t="n">
-        <v>61.49530078127066</v>
+        <v>61.49530078127064</v>
       </c>
       <c r="J18" t="n">
-        <v>168.7478056215734</v>
+        <v>168.7478056215733</v>
       </c>
       <c r="K18" t="n">
-        <v>288.4168775622983</v>
+        <v>288.4168775622982</v>
       </c>
       <c r="L18" t="n">
-        <v>387.8120847358986</v>
+        <v>387.8120847358985</v>
       </c>
       <c r="M18" t="n">
-        <v>452.5584109724847</v>
+        <v>452.5584109724845</v>
       </c>
       <c r="N18" t="n">
-        <v>464.5362854813463</v>
+        <v>464.5362854813461</v>
       </c>
       <c r="O18" t="n">
-        <v>424.9599466855527</v>
+        <v>424.9599466855526</v>
       </c>
       <c r="P18" t="n">
-        <v>341.067822345855</v>
+        <v>341.0678223458549</v>
       </c>
       <c r="Q18" t="n">
-        <v>227.9948068710957</v>
+        <v>227.9948068710956</v>
       </c>
       <c r="R18" t="n">
         <v>110.8952201095118</v>
       </c>
       <c r="S18" t="n">
-        <v>33.17612723677465</v>
+        <v>33.17612723677464</v>
       </c>
       <c r="T18" t="n">
-        <v>7.19925877936149</v>
+        <v>7.199258779361489</v>
       </c>
       <c r="U18" t="n">
         <v>0.1175069441680331</v>
@@ -32388,7 +32388,7 @@
         <v>13.31334413990345</v>
       </c>
       <c r="I19" t="n">
-        <v>45.03122946298631</v>
+        <v>45.0312294629863</v>
       </c>
       <c r="J19" t="n">
         <v>105.8669502822383</v>
@@ -32400,10 +32400,10 @@
         <v>222.6241616196124</v>
       </c>
       <c r="M19" t="n">
-        <v>234.725964217132</v>
+        <v>234.7259642171319</v>
       </c>
       <c r="N19" t="n">
-        <v>229.1447054263751</v>
+        <v>229.144705426375</v>
       </c>
       <c r="O19" t="n">
         <v>211.6522236065632</v>
@@ -32412,19 +32412,19 @@
         <v>181.1050413469073</v>
       </c>
       <c r="Q19" t="n">
-        <v>125.3877432235692</v>
+        <v>125.3877432235691</v>
       </c>
       <c r="R19" t="n">
-        <v>67.32903897337671</v>
+        <v>67.32903897337668</v>
       </c>
       <c r="S19" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T19" t="n">
-        <v>6.398028369892247</v>
+        <v>6.398028369892245</v>
       </c>
       <c r="U19" t="n">
-        <v>0.08167695791351816</v>
+        <v>0.08167695791351813</v>
       </c>
       <c r="V19" t="n">
         <v>0</v>
@@ -32464,7 +32464,7 @@
         <v>3.338220725443617</v>
       </c>
       <c r="H20" t="n">
-        <v>34.18755300444946</v>
+        <v>34.18755300444945</v>
       </c>
       <c r="I20" t="n">
         <v>128.6967545176652</v>
@@ -32473,31 +32473,31 @@
         <v>283.3273112961205</v>
       </c>
       <c r="K20" t="n">
-        <v>424.6341946041489</v>
+        <v>424.6341946041488</v>
       </c>
       <c r="L20" t="n">
-        <v>526.7962671304441</v>
+        <v>526.796267130444</v>
       </c>
       <c r="M20" t="n">
-        <v>586.162349956552</v>
+        <v>586.1623499565519</v>
       </c>
       <c r="N20" t="n">
-        <v>595.6470695927187</v>
+        <v>595.6470695927186</v>
       </c>
       <c r="O20" t="n">
-        <v>562.4526372540887</v>
+        <v>562.4526372540886</v>
       </c>
       <c r="P20" t="n">
         <v>480.0403130946993</v>
       </c>
       <c r="Q20" t="n">
-        <v>360.4902833647497</v>
+        <v>360.4902833647496</v>
       </c>
       <c r="R20" t="n">
         <v>209.6945076446478</v>
       </c>
       <c r="S20" t="n">
-        <v>76.06970478104651</v>
+        <v>76.0697047810465</v>
       </c>
       <c r="T20" t="n">
         <v>14.61306122562944</v>
@@ -32546,31 +32546,31 @@
         <v>17.25001940386726</v>
       </c>
       <c r="I21" t="n">
-        <v>61.49530078127066</v>
+        <v>61.49530078127064</v>
       </c>
       <c r="J21" t="n">
         <v>168.7478056215734</v>
       </c>
       <c r="K21" t="n">
-        <v>288.4168775622983</v>
+        <v>288.4168775622982</v>
       </c>
       <c r="L21" t="n">
-        <v>387.8120847358986</v>
+        <v>387.8120847358985</v>
       </c>
       <c r="M21" t="n">
-        <v>452.5584109724847</v>
+        <v>452.5584109724846</v>
       </c>
       <c r="N21" t="n">
-        <v>464.5362854813463</v>
+        <v>464.5362854813462</v>
       </c>
       <c r="O21" t="n">
-        <v>424.9599466855527</v>
+        <v>424.9599466855526</v>
       </c>
       <c r="P21" t="n">
-        <v>341.067822345855</v>
+        <v>341.0678223458549</v>
       </c>
       <c r="Q21" t="n">
-        <v>227.9948068710957</v>
+        <v>227.9948068710956</v>
       </c>
       <c r="R21" t="n">
         <v>110.8952201095118</v>
@@ -32625,7 +32625,7 @@
         <v>13.31334413990345</v>
       </c>
       <c r="I22" t="n">
-        <v>45.03122946298631</v>
+        <v>45.0312294629863</v>
       </c>
       <c r="J22" t="n">
         <v>105.8669502822383</v>
@@ -32637,7 +32637,7 @@
         <v>222.6241616196124</v>
       </c>
       <c r="M22" t="n">
-        <v>234.725964217132</v>
+        <v>234.7259642171319</v>
       </c>
       <c r="N22" t="n">
         <v>229.1447054263751</v>
@@ -32649,19 +32649,19 @@
         <v>181.1050413469073</v>
       </c>
       <c r="Q22" t="n">
-        <v>125.3877432235692</v>
+        <v>125.3877432235691</v>
       </c>
       <c r="R22" t="n">
-        <v>67.32903897337671</v>
+        <v>67.3290389733767</v>
       </c>
       <c r="S22" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T22" t="n">
-        <v>6.398028369892247</v>
+        <v>6.398028369892246</v>
       </c>
       <c r="U22" t="n">
-        <v>0.08167695791351816</v>
+        <v>0.08167695791351814</v>
       </c>
       <c r="V22" t="n">
         <v>0</v>
@@ -32701,7 +32701,7 @@
         <v>3.338220725443617</v>
       </c>
       <c r="H23" t="n">
-        <v>34.18755300444946</v>
+        <v>34.18755300444945</v>
       </c>
       <c r="I23" t="n">
         <v>128.6967545176652</v>
@@ -32710,31 +32710,31 @@
         <v>283.3273112961205</v>
       </c>
       <c r="K23" t="n">
-        <v>424.6341946041489</v>
+        <v>424.6341946041488</v>
       </c>
       <c r="L23" t="n">
-        <v>526.7962671304441</v>
+        <v>526.796267130444</v>
       </c>
       <c r="M23" t="n">
-        <v>586.162349956552</v>
+        <v>586.1623499565519</v>
       </c>
       <c r="N23" t="n">
-        <v>595.6470695927187</v>
+        <v>595.6470695927186</v>
       </c>
       <c r="O23" t="n">
-        <v>562.4526372540887</v>
+        <v>562.4526372540886</v>
       </c>
       <c r="P23" t="n">
         <v>480.0403130946993</v>
       </c>
       <c r="Q23" t="n">
-        <v>360.4902833647497</v>
+        <v>360.4902833647496</v>
       </c>
       <c r="R23" t="n">
         <v>209.6945076446478</v>
       </c>
       <c r="S23" t="n">
-        <v>76.06970478104651</v>
+        <v>76.0697047810465</v>
       </c>
       <c r="T23" t="n">
         <v>14.61306122562944</v>
@@ -32783,31 +32783,31 @@
         <v>17.25001940386726</v>
       </c>
       <c r="I24" t="n">
-        <v>61.49530078127066</v>
+        <v>61.49530078127064</v>
       </c>
       <c r="J24" t="n">
         <v>168.7478056215734</v>
       </c>
       <c r="K24" t="n">
-        <v>288.4168775622983</v>
+        <v>288.4168775622982</v>
       </c>
       <c r="L24" t="n">
-        <v>387.8120847358986</v>
+        <v>387.8120847358985</v>
       </c>
       <c r="M24" t="n">
-        <v>452.5584109724847</v>
+        <v>452.5584109724846</v>
       </c>
       <c r="N24" t="n">
-        <v>464.5362854813463</v>
+        <v>464.5362854813462</v>
       </c>
       <c r="O24" t="n">
-        <v>424.9599466855527</v>
+        <v>424.9599466855526</v>
       </c>
       <c r="P24" t="n">
-        <v>341.067822345855</v>
+        <v>341.0678223458549</v>
       </c>
       <c r="Q24" t="n">
-        <v>227.9948068710957</v>
+        <v>227.9948068710956</v>
       </c>
       <c r="R24" t="n">
         <v>110.8952201095118</v>
@@ -32862,7 +32862,7 @@
         <v>13.31334413990345</v>
       </c>
       <c r="I25" t="n">
-        <v>45.03122946298631</v>
+        <v>45.0312294629863</v>
       </c>
       <c r="J25" t="n">
         <v>105.8669502822383</v>
@@ -32874,7 +32874,7 @@
         <v>222.6241616196124</v>
       </c>
       <c r="M25" t="n">
-        <v>234.725964217132</v>
+        <v>234.7259642171319</v>
       </c>
       <c r="N25" t="n">
         <v>229.1447054263751</v>
@@ -32886,19 +32886,19 @@
         <v>181.1050413469073</v>
       </c>
       <c r="Q25" t="n">
-        <v>125.3877432235692</v>
+        <v>125.3877432235691</v>
       </c>
       <c r="R25" t="n">
-        <v>67.32903897337671</v>
+        <v>67.3290389733767</v>
       </c>
       <c r="S25" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T25" t="n">
-        <v>6.398028369892247</v>
+        <v>6.398028369892246</v>
       </c>
       <c r="U25" t="n">
-        <v>0.08167695791351816</v>
+        <v>0.08167695791351814</v>
       </c>
       <c r="V25" t="n">
         <v>0</v>
@@ -32938,7 +32938,7 @@
         <v>3.338220725443617</v>
       </c>
       <c r="H26" t="n">
-        <v>34.18755300444946</v>
+        <v>34.18755300444945</v>
       </c>
       <c r="I26" t="n">
         <v>128.6967545176652</v>
@@ -32947,31 +32947,31 @@
         <v>283.3273112961205</v>
       </c>
       <c r="K26" t="n">
-        <v>424.6341946041489</v>
+        <v>424.6341946041488</v>
       </c>
       <c r="L26" t="n">
-        <v>526.7962671304441</v>
+        <v>526.796267130444</v>
       </c>
       <c r="M26" t="n">
-        <v>586.162349956552</v>
+        <v>586.1623499565519</v>
       </c>
       <c r="N26" t="n">
-        <v>595.6470695927187</v>
+        <v>595.6470695927186</v>
       </c>
       <c r="O26" t="n">
-        <v>562.4526372540887</v>
+        <v>562.4526372540886</v>
       </c>
       <c r="P26" t="n">
         <v>480.0403130946993</v>
       </c>
       <c r="Q26" t="n">
-        <v>360.4902833647497</v>
+        <v>360.4902833647496</v>
       </c>
       <c r="R26" t="n">
         <v>209.6945076446478</v>
       </c>
       <c r="S26" t="n">
-        <v>76.06970478104651</v>
+        <v>76.0697047810465</v>
       </c>
       <c r="T26" t="n">
         <v>14.61306122562944</v>
@@ -33020,31 +33020,31 @@
         <v>17.25001940386726</v>
       </c>
       <c r="I27" t="n">
-        <v>61.49530078127066</v>
+        <v>61.49530078127064</v>
       </c>
       <c r="J27" t="n">
         <v>168.7478056215734</v>
       </c>
       <c r="K27" t="n">
-        <v>288.4168775622983</v>
+        <v>288.4168775622982</v>
       </c>
       <c r="L27" t="n">
-        <v>387.8120847358986</v>
+        <v>387.8120847358985</v>
       </c>
       <c r="M27" t="n">
-        <v>452.5584109724847</v>
+        <v>452.5584109724846</v>
       </c>
       <c r="N27" t="n">
-        <v>464.5362854813463</v>
+        <v>464.5362854813462</v>
       </c>
       <c r="O27" t="n">
-        <v>424.9599466855527</v>
+        <v>424.9599466855526</v>
       </c>
       <c r="P27" t="n">
-        <v>341.067822345855</v>
+        <v>341.0678223458549</v>
       </c>
       <c r="Q27" t="n">
-        <v>227.9948068710957</v>
+        <v>227.9948068710956</v>
       </c>
       <c r="R27" t="n">
         <v>110.8952201095118</v>
@@ -33099,7 +33099,7 @@
         <v>13.31334413990345</v>
       </c>
       <c r="I28" t="n">
-        <v>45.03122946298631</v>
+        <v>45.0312294629863</v>
       </c>
       <c r="J28" t="n">
         <v>105.8669502822383</v>
@@ -33111,7 +33111,7 @@
         <v>222.6241616196124</v>
       </c>
       <c r="M28" t="n">
-        <v>234.725964217132</v>
+        <v>234.7259642171319</v>
       </c>
       <c r="N28" t="n">
         <v>229.1447054263751</v>
@@ -33123,19 +33123,19 @@
         <v>181.1050413469073</v>
       </c>
       <c r="Q28" t="n">
-        <v>125.3877432235692</v>
+        <v>125.3877432235691</v>
       </c>
       <c r="R28" t="n">
-        <v>67.32903897337671</v>
+        <v>67.3290389733767</v>
       </c>
       <c r="S28" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T28" t="n">
-        <v>6.398028369892247</v>
+        <v>6.398028369892246</v>
       </c>
       <c r="U28" t="n">
-        <v>0.08167695791351816</v>
+        <v>0.08167695791351814</v>
       </c>
       <c r="V28" t="n">
         <v>0</v>
@@ -33175,7 +33175,7 @@
         <v>3.338220725443617</v>
       </c>
       <c r="H29" t="n">
-        <v>34.18755300444946</v>
+        <v>34.18755300444945</v>
       </c>
       <c r="I29" t="n">
         <v>128.6967545176652</v>
@@ -33184,31 +33184,31 @@
         <v>283.3273112961205</v>
       </c>
       <c r="K29" t="n">
-        <v>424.6341946041489</v>
+        <v>424.6341946041488</v>
       </c>
       <c r="L29" t="n">
-        <v>526.7962671304441</v>
+        <v>526.796267130444</v>
       </c>
       <c r="M29" t="n">
-        <v>586.162349956552</v>
+        <v>586.1623499565519</v>
       </c>
       <c r="N29" t="n">
-        <v>595.6470695927187</v>
+        <v>595.6470695927186</v>
       </c>
       <c r="O29" t="n">
-        <v>562.4526372540887</v>
+        <v>562.4526372540886</v>
       </c>
       <c r="P29" t="n">
         <v>480.0403130946993</v>
       </c>
       <c r="Q29" t="n">
-        <v>360.4902833647497</v>
+        <v>360.4902833647496</v>
       </c>
       <c r="R29" t="n">
         <v>209.6945076446478</v>
       </c>
       <c r="S29" t="n">
-        <v>76.06970478104651</v>
+        <v>76.0697047810465</v>
       </c>
       <c r="T29" t="n">
         <v>14.61306122562944</v>
@@ -33257,31 +33257,31 @@
         <v>17.25001940386726</v>
       </c>
       <c r="I30" t="n">
-        <v>61.49530078127066</v>
+        <v>61.49530078127064</v>
       </c>
       <c r="J30" t="n">
         <v>168.7478056215734</v>
       </c>
       <c r="K30" t="n">
-        <v>288.4168775622983</v>
+        <v>288.4168775622982</v>
       </c>
       <c r="L30" t="n">
-        <v>387.8120847358986</v>
+        <v>387.8120847358985</v>
       </c>
       <c r="M30" t="n">
-        <v>452.5584109724847</v>
+        <v>452.5584109724846</v>
       </c>
       <c r="N30" t="n">
-        <v>464.5362854813463</v>
+        <v>464.5362854813462</v>
       </c>
       <c r="O30" t="n">
-        <v>424.9599466855527</v>
+        <v>424.9599466855526</v>
       </c>
       <c r="P30" t="n">
-        <v>341.067822345855</v>
+        <v>341.0678223458549</v>
       </c>
       <c r="Q30" t="n">
-        <v>227.9948068710957</v>
+        <v>227.9948068710956</v>
       </c>
       <c r="R30" t="n">
         <v>110.8952201095118</v>
@@ -33336,7 +33336,7 @@
         <v>13.31334413990345</v>
       </c>
       <c r="I31" t="n">
-        <v>45.03122946298631</v>
+        <v>45.0312294629863</v>
       </c>
       <c r="J31" t="n">
         <v>105.8669502822383</v>
@@ -33348,7 +33348,7 @@
         <v>222.6241616196124</v>
       </c>
       <c r="M31" t="n">
-        <v>234.725964217132</v>
+        <v>234.7259642171319</v>
       </c>
       <c r="N31" t="n">
         <v>229.1447054263751</v>
@@ -33360,19 +33360,19 @@
         <v>181.1050413469073</v>
       </c>
       <c r="Q31" t="n">
-        <v>125.3877432235692</v>
+        <v>125.3877432235691</v>
       </c>
       <c r="R31" t="n">
-        <v>67.32903897337671</v>
+        <v>67.3290389733767</v>
       </c>
       <c r="S31" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T31" t="n">
-        <v>6.398028369892247</v>
+        <v>6.398028369892246</v>
       </c>
       <c r="U31" t="n">
-        <v>0.08167695791351816</v>
+        <v>0.08167695791351814</v>
       </c>
       <c r="V31" t="n">
         <v>0</v>
@@ -33412,7 +33412,7 @@
         <v>3.338220725443617</v>
       </c>
       <c r="H32" t="n">
-        <v>34.18755300444946</v>
+        <v>34.18755300444945</v>
       </c>
       <c r="I32" t="n">
         <v>128.6967545176652</v>
@@ -33421,31 +33421,31 @@
         <v>283.3273112961205</v>
       </c>
       <c r="K32" t="n">
-        <v>424.6341946041489</v>
+        <v>424.6341946041488</v>
       </c>
       <c r="L32" t="n">
-        <v>526.7962671304441</v>
+        <v>526.796267130444</v>
       </c>
       <c r="M32" t="n">
-        <v>586.162349956552</v>
+        <v>586.1623499565519</v>
       </c>
       <c r="N32" t="n">
-        <v>595.6470695927187</v>
+        <v>595.6470695927186</v>
       </c>
       <c r="O32" t="n">
-        <v>562.4526372540887</v>
+        <v>562.4526372540886</v>
       </c>
       <c r="P32" t="n">
         <v>480.0403130946993</v>
       </c>
       <c r="Q32" t="n">
-        <v>360.4902833647497</v>
+        <v>360.4902833647496</v>
       </c>
       <c r="R32" t="n">
         <v>209.6945076446478</v>
       </c>
       <c r="S32" t="n">
-        <v>76.06970478104651</v>
+        <v>76.0697047810465</v>
       </c>
       <c r="T32" t="n">
         <v>14.61306122562944</v>
@@ -33494,31 +33494,31 @@
         <v>17.25001940386726</v>
       </c>
       <c r="I33" t="n">
-        <v>61.49530078127066</v>
+        <v>61.49530078127064</v>
       </c>
       <c r="J33" t="n">
         <v>168.7478056215734</v>
       </c>
       <c r="K33" t="n">
-        <v>288.4168775622983</v>
+        <v>288.4168775622982</v>
       </c>
       <c r="L33" t="n">
-        <v>387.8120847358986</v>
+        <v>387.8120847358985</v>
       </c>
       <c r="M33" t="n">
-        <v>452.5584109724847</v>
+        <v>452.5584109724846</v>
       </c>
       <c r="N33" t="n">
-        <v>464.5362854813463</v>
+        <v>464.5362854813462</v>
       </c>
       <c r="O33" t="n">
-        <v>424.9599466855527</v>
+        <v>424.9599466855526</v>
       </c>
       <c r="P33" t="n">
-        <v>341.067822345855</v>
+        <v>341.0678223458549</v>
       </c>
       <c r="Q33" t="n">
-        <v>227.9948068710957</v>
+        <v>227.9948068710956</v>
       </c>
       <c r="R33" t="n">
         <v>110.8952201095118</v>
@@ -33573,7 +33573,7 @@
         <v>13.31334413990345</v>
       </c>
       <c r="I34" t="n">
-        <v>45.03122946298631</v>
+        <v>45.0312294629863</v>
       </c>
       <c r="J34" t="n">
         <v>105.8669502822383</v>
@@ -33585,7 +33585,7 @@
         <v>222.6241616196124</v>
       </c>
       <c r="M34" t="n">
-        <v>234.725964217132</v>
+        <v>234.7259642171319</v>
       </c>
       <c r="N34" t="n">
         <v>229.1447054263751</v>
@@ -33597,19 +33597,19 @@
         <v>181.1050413469073</v>
       </c>
       <c r="Q34" t="n">
-        <v>125.3877432235692</v>
+        <v>125.3877432235691</v>
       </c>
       <c r="R34" t="n">
-        <v>67.32903897337671</v>
+        <v>67.3290389733767</v>
       </c>
       <c r="S34" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T34" t="n">
-        <v>6.398028369892247</v>
+        <v>6.398028369892246</v>
       </c>
       <c r="U34" t="n">
-        <v>0.08167695791351816</v>
+        <v>0.08167695791351814</v>
       </c>
       <c r="V34" t="n">
         <v>0</v>
@@ -33649,7 +33649,7 @@
         <v>3.338220725443617</v>
       </c>
       <c r="H35" t="n">
-        <v>34.18755300444946</v>
+        <v>34.18755300444945</v>
       </c>
       <c r="I35" t="n">
         <v>128.6967545176652</v>
@@ -33658,31 +33658,31 @@
         <v>283.3273112961205</v>
       </c>
       <c r="K35" t="n">
-        <v>424.6341946041489</v>
+        <v>424.6341946041488</v>
       </c>
       <c r="L35" t="n">
-        <v>526.7962671304441</v>
+        <v>526.796267130444</v>
       </c>
       <c r="M35" t="n">
-        <v>586.162349956552</v>
+        <v>586.1623499565519</v>
       </c>
       <c r="N35" t="n">
-        <v>595.6470695927187</v>
+        <v>595.6470695927186</v>
       </c>
       <c r="O35" t="n">
-        <v>562.4526372540887</v>
+        <v>562.4526372540886</v>
       </c>
       <c r="P35" t="n">
         <v>480.0403130946993</v>
       </c>
       <c r="Q35" t="n">
-        <v>360.4902833647497</v>
+        <v>360.4902833647496</v>
       </c>
       <c r="R35" t="n">
         <v>209.6945076446478</v>
       </c>
       <c r="S35" t="n">
-        <v>76.06970478104651</v>
+        <v>76.0697047810465</v>
       </c>
       <c r="T35" t="n">
         <v>14.61306122562944</v>
@@ -33731,31 +33731,31 @@
         <v>17.25001940386726</v>
       </c>
       <c r="I36" t="n">
-        <v>61.49530078127066</v>
+        <v>61.49530078127064</v>
       </c>
       <c r="J36" t="n">
         <v>168.7478056215734</v>
       </c>
       <c r="K36" t="n">
-        <v>288.4168775622983</v>
+        <v>288.4168775622982</v>
       </c>
       <c r="L36" t="n">
-        <v>387.8120847358986</v>
+        <v>387.8120847358985</v>
       </c>
       <c r="M36" t="n">
-        <v>452.5584109724847</v>
+        <v>452.5584109724846</v>
       </c>
       <c r="N36" t="n">
-        <v>464.5362854813463</v>
+        <v>464.5362854813462</v>
       </c>
       <c r="O36" t="n">
-        <v>424.9599466855527</v>
+        <v>424.9599466855526</v>
       </c>
       <c r="P36" t="n">
-        <v>341.067822345855</v>
+        <v>341.0678223458549</v>
       </c>
       <c r="Q36" t="n">
-        <v>227.9948068710957</v>
+        <v>227.9948068710956</v>
       </c>
       <c r="R36" t="n">
         <v>110.8952201095118</v>
@@ -33810,7 +33810,7 @@
         <v>13.31334413990345</v>
       </c>
       <c r="I37" t="n">
-        <v>45.03122946298631</v>
+        <v>45.0312294629863</v>
       </c>
       <c r="J37" t="n">
         <v>105.8669502822383</v>
@@ -33822,7 +33822,7 @@
         <v>222.6241616196124</v>
       </c>
       <c r="M37" t="n">
-        <v>234.725964217132</v>
+        <v>234.7259642171319</v>
       </c>
       <c r="N37" t="n">
         <v>229.1447054263751</v>
@@ -33834,19 +33834,19 @@
         <v>181.1050413469073</v>
       </c>
       <c r="Q37" t="n">
-        <v>125.3877432235692</v>
+        <v>125.3877432235691</v>
       </c>
       <c r="R37" t="n">
-        <v>67.32903897337671</v>
+        <v>67.3290389733767</v>
       </c>
       <c r="S37" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T37" t="n">
-        <v>6.398028369892247</v>
+        <v>6.398028369892246</v>
       </c>
       <c r="U37" t="n">
-        <v>0.08167695791351816</v>
+        <v>0.08167695791351814</v>
       </c>
       <c r="V37" t="n">
         <v>0</v>
@@ -33886,7 +33886,7 @@
         <v>3.338220725443617</v>
       </c>
       <c r="H38" t="n">
-        <v>34.18755300444946</v>
+        <v>34.18755300444945</v>
       </c>
       <c r="I38" t="n">
         <v>128.6967545176652</v>
@@ -33895,31 +33895,31 @@
         <v>283.3273112961205</v>
       </c>
       <c r="K38" t="n">
-        <v>424.6341946041489</v>
+        <v>424.6341946041488</v>
       </c>
       <c r="L38" t="n">
-        <v>526.7962671304441</v>
+        <v>526.796267130444</v>
       </c>
       <c r="M38" t="n">
-        <v>586.162349956552</v>
+        <v>586.1623499565519</v>
       </c>
       <c r="N38" t="n">
-        <v>595.6470695927187</v>
+        <v>595.6470695927186</v>
       </c>
       <c r="O38" t="n">
-        <v>562.4526372540887</v>
+        <v>562.4526372540886</v>
       </c>
       <c r="P38" t="n">
         <v>480.0403130946993</v>
       </c>
       <c r="Q38" t="n">
-        <v>360.4902833647497</v>
+        <v>360.4902833647496</v>
       </c>
       <c r="R38" t="n">
         <v>209.6945076446478</v>
       </c>
       <c r="S38" t="n">
-        <v>76.06970478104651</v>
+        <v>76.0697047810465</v>
       </c>
       <c r="T38" t="n">
         <v>14.61306122562944</v>
@@ -33968,31 +33968,31 @@
         <v>17.25001940386726</v>
       </c>
       <c r="I39" t="n">
-        <v>61.49530078127066</v>
+        <v>61.49530078127064</v>
       </c>
       <c r="J39" t="n">
         <v>168.7478056215734</v>
       </c>
       <c r="K39" t="n">
-        <v>288.4168775622983</v>
+        <v>288.4168775622982</v>
       </c>
       <c r="L39" t="n">
-        <v>387.8120847358986</v>
+        <v>387.8120847358985</v>
       </c>
       <c r="M39" t="n">
-        <v>452.5584109724847</v>
+        <v>452.5584109724846</v>
       </c>
       <c r="N39" t="n">
-        <v>464.5362854813463</v>
+        <v>464.5362854813462</v>
       </c>
       <c r="O39" t="n">
-        <v>424.9599466855527</v>
+        <v>424.9599466855526</v>
       </c>
       <c r="P39" t="n">
-        <v>341.067822345855</v>
+        <v>341.0678223458549</v>
       </c>
       <c r="Q39" t="n">
-        <v>227.9948068710957</v>
+        <v>227.9948068710956</v>
       </c>
       <c r="R39" t="n">
         <v>110.8952201095118</v>
@@ -34047,7 +34047,7 @@
         <v>13.31334413990345</v>
       </c>
       <c r="I40" t="n">
-        <v>45.03122946298631</v>
+        <v>45.0312294629863</v>
       </c>
       <c r="J40" t="n">
         <v>105.8669502822383</v>
@@ -34059,7 +34059,7 @@
         <v>222.6241616196124</v>
       </c>
       <c r="M40" t="n">
-        <v>234.725964217132</v>
+        <v>234.7259642171319</v>
       </c>
       <c r="N40" t="n">
         <v>229.1447054263751</v>
@@ -34071,19 +34071,19 @@
         <v>181.1050413469073</v>
       </c>
       <c r="Q40" t="n">
-        <v>125.3877432235692</v>
+        <v>125.3877432235691</v>
       </c>
       <c r="R40" t="n">
-        <v>67.32903897337671</v>
+        <v>67.3290389733767</v>
       </c>
       <c r="S40" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T40" t="n">
-        <v>6.398028369892247</v>
+        <v>6.398028369892246</v>
       </c>
       <c r="U40" t="n">
-        <v>0.08167695791351816</v>
+        <v>0.08167695791351814</v>
       </c>
       <c r="V40" t="n">
         <v>0</v>
@@ -34120,16 +34120,16 @@
         <v>0</v>
       </c>
       <c r="G41" t="n">
-        <v>3.338220725443616</v>
+        <v>3.338220725443617</v>
       </c>
       <c r="H41" t="n">
-        <v>34.18755300444944</v>
+        <v>34.18755300444945</v>
       </c>
       <c r="I41" t="n">
-        <v>128.6967545176651</v>
+        <v>128.6967545176652</v>
       </c>
       <c r="J41" t="n">
-        <v>283.3273112961204</v>
+        <v>283.3273112961205</v>
       </c>
       <c r="K41" t="n">
         <v>424.6341946041488</v>
@@ -34138,7 +34138,7 @@
         <v>526.796267130444</v>
       </c>
       <c r="M41" t="n">
-        <v>586.1623499565518</v>
+        <v>586.1623499565519</v>
       </c>
       <c r="N41" t="n">
         <v>595.6470695927186</v>
@@ -34147,7 +34147,7 @@
         <v>562.4526372540886</v>
       </c>
       <c r="P41" t="n">
-        <v>480.0403130946992</v>
+        <v>480.0403130946993</v>
       </c>
       <c r="Q41" t="n">
         <v>360.4902833647496</v>
@@ -34156,7 +34156,7 @@
         <v>209.6945076446478</v>
       </c>
       <c r="S41" t="n">
-        <v>76.06970478104648</v>
+        <v>76.0697047810465</v>
       </c>
       <c r="T41" t="n">
         <v>14.61306122562944</v>
@@ -34199,7 +34199,7 @@
         <v>0</v>
       </c>
       <c r="G42" t="n">
-        <v>1.786105551354102</v>
+        <v>1.786105551354103</v>
       </c>
       <c r="H42" t="n">
         <v>17.25001940386726</v>
@@ -34208,7 +34208,7 @@
         <v>61.49530078127064</v>
       </c>
       <c r="J42" t="n">
-        <v>168.7478056215733</v>
+        <v>168.7478056215734</v>
       </c>
       <c r="K42" t="n">
         <v>288.4168775622982</v>
@@ -34217,10 +34217,10 @@
         <v>387.8120847358985</v>
       </c>
       <c r="M42" t="n">
-        <v>452.5584109724845</v>
+        <v>452.5584109724846</v>
       </c>
       <c r="N42" t="n">
-        <v>464.5362854813461</v>
+        <v>464.5362854813462</v>
       </c>
       <c r="O42" t="n">
         <v>424.9599466855526</v>
@@ -34235,10 +34235,10 @@
         <v>110.8952201095118</v>
       </c>
       <c r="S42" t="n">
-        <v>33.17612723677464</v>
+        <v>33.17612723677465</v>
       </c>
       <c r="T42" t="n">
-        <v>7.199258779361489</v>
+        <v>7.19925877936149</v>
       </c>
       <c r="U42" t="n">
         <v>0.1175069441680331</v>
@@ -34299,7 +34299,7 @@
         <v>234.7259642171319</v>
       </c>
       <c r="N43" t="n">
-        <v>229.144705426375</v>
+        <v>229.1447054263751</v>
       </c>
       <c r="O43" t="n">
         <v>211.6522236065632</v>
@@ -34311,16 +34311,16 @@
         <v>125.3877432235691</v>
       </c>
       <c r="R43" t="n">
-        <v>67.32903897337668</v>
+        <v>67.3290389733767</v>
       </c>
       <c r="S43" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T43" t="n">
-        <v>6.398028369892245</v>
+        <v>6.398028369892246</v>
       </c>
       <c r="U43" t="n">
-        <v>0.08167695791351813</v>
+        <v>0.08167695791351814</v>
       </c>
       <c r="V43" t="n">
         <v>0</v>
@@ -34357,16 +34357,16 @@
         <v>0</v>
       </c>
       <c r="G44" t="n">
-        <v>3.338220725443616</v>
+        <v>3.338220725443617</v>
       </c>
       <c r="H44" t="n">
-        <v>34.18755300444944</v>
+        <v>34.18755300444945</v>
       </c>
       <c r="I44" t="n">
-        <v>128.6967545176651</v>
+        <v>128.6967545176652</v>
       </c>
       <c r="J44" t="n">
-        <v>283.3273112961204</v>
+        <v>283.3273112961205</v>
       </c>
       <c r="K44" t="n">
         <v>424.6341946041488</v>
@@ -34375,7 +34375,7 @@
         <v>526.796267130444</v>
       </c>
       <c r="M44" t="n">
-        <v>586.1623499565518</v>
+        <v>586.1623499565519</v>
       </c>
       <c r="N44" t="n">
         <v>595.6470695927186</v>
@@ -34384,7 +34384,7 @@
         <v>562.4526372540886</v>
       </c>
       <c r="P44" t="n">
-        <v>480.0403130946992</v>
+        <v>480.0403130946993</v>
       </c>
       <c r="Q44" t="n">
         <v>360.4902833647496</v>
@@ -34393,7 +34393,7 @@
         <v>209.6945076446478</v>
       </c>
       <c r="S44" t="n">
-        <v>76.06970478104648</v>
+        <v>76.0697047810465</v>
       </c>
       <c r="T44" t="n">
         <v>14.61306122562944</v>
@@ -34436,7 +34436,7 @@
         <v>0</v>
       </c>
       <c r="G45" t="n">
-        <v>1.786105551354102</v>
+        <v>1.786105551354103</v>
       </c>
       <c r="H45" t="n">
         <v>17.25001940386726</v>
@@ -34445,7 +34445,7 @@
         <v>61.49530078127064</v>
       </c>
       <c r="J45" t="n">
-        <v>168.7478056215733</v>
+        <v>168.7478056215734</v>
       </c>
       <c r="K45" t="n">
         <v>288.4168775622982</v>
@@ -34454,10 +34454,10 @@
         <v>387.8120847358985</v>
       </c>
       <c r="M45" t="n">
-        <v>452.5584109724845</v>
+        <v>452.5584109724846</v>
       </c>
       <c r="N45" t="n">
-        <v>464.5362854813461</v>
+        <v>464.5362854813462</v>
       </c>
       <c r="O45" t="n">
         <v>424.9599466855526</v>
@@ -34472,10 +34472,10 @@
         <v>110.8952201095118</v>
       </c>
       <c r="S45" t="n">
-        <v>33.17612723677464</v>
+        <v>33.17612723677465</v>
       </c>
       <c r="T45" t="n">
-        <v>7.199258779361489</v>
+        <v>7.19925877936149</v>
       </c>
       <c r="U45" t="n">
         <v>0.1175069441680331</v>
@@ -34536,7 +34536,7 @@
         <v>234.7259642171319</v>
       </c>
       <c r="N46" t="n">
-        <v>229.144705426375</v>
+        <v>229.1447054263751</v>
       </c>
       <c r="O46" t="n">
         <v>211.6522236065632</v>
@@ -34548,16 +34548,16 @@
         <v>125.3877432235691</v>
       </c>
       <c r="R46" t="n">
-        <v>67.32903897337668</v>
+        <v>67.3290389733767</v>
       </c>
       <c r="S46" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T46" t="n">
-        <v>6.398028369892245</v>
+        <v>6.398028369892246</v>
       </c>
       <c r="U46" t="n">
-        <v>0.08167695791351813</v>
+        <v>0.08167695791351814</v>
       </c>
       <c r="V46" t="n">
         <v>0</v>
@@ -34711,10 +34711,10 @@
         <v>478.8956552492236</v>
       </c>
       <c r="O2" t="n">
-        <v>406.5635087530452</v>
+        <v>406.5635087530451</v>
       </c>
       <c r="P2" t="n">
-        <v>308.9376163116798</v>
+        <v>308.9376163116797</v>
       </c>
       <c r="Q2" t="n">
         <v>153.9975062898689</v>
@@ -34775,7 +34775,7 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>0</v>
+        <v>76.01733575770689</v>
       </c>
       <c r="K3" t="n">
         <v>257.8255762031298</v>
@@ -34787,16 +34787,16 @@
         <v>529.4413268262938</v>
       </c>
       <c r="N3" t="n">
-        <v>559.3197334338902</v>
+        <v>439.8839133355123</v>
       </c>
       <c r="O3" t="n">
-        <v>444.5817404245898</v>
+        <v>444.5817404245897</v>
       </c>
       <c r="P3" t="n">
         <v>339.6412258735646</v>
       </c>
       <c r="Q3" t="n">
-        <v>130.3926104730635</v>
+        <v>173.8110948137341</v>
       </c>
       <c r="R3" t="n">
         <v>0</v>
@@ -34857,7 +34857,7 @@
         <v>0</v>
       </c>
       <c r="K4" t="n">
-        <v>56.87090208713954</v>
+        <v>56.87090208713953</v>
       </c>
       <c r="L4" t="n">
         <v>128.8624823850085</v>
@@ -34872,7 +34872,7 @@
         <v>120.8664146557981</v>
       </c>
       <c r="P4" t="n">
-        <v>79.66383317873149</v>
+        <v>79.66383317873148</v>
       </c>
       <c r="Q4" t="n">
         <v>0</v>
@@ -35015,7 +35015,7 @@
         <v>76.0173357577069</v>
       </c>
       <c r="K6" t="n">
-        <v>257.8255762031298</v>
+        <v>138.3897561047522</v>
       </c>
       <c r="L6" t="n">
         <v>408.7029475713857</v>
@@ -35030,7 +35030,7 @@
         <v>444.5817404245898</v>
       </c>
       <c r="P6" t="n">
-        <v>220.205405775187</v>
+        <v>339.6412258735646</v>
       </c>
       <c r="Q6" t="n">
         <v>173.8110948137341</v>
@@ -35185,10 +35185,10 @@
         <v>478.8956552492236</v>
       </c>
       <c r="O8" t="n">
-        <v>406.5635087530451</v>
+        <v>406.5635087530452</v>
       </c>
       <c r="P8" t="n">
-        <v>308.9376163116797</v>
+        <v>308.9376163116798</v>
       </c>
       <c r="Q8" t="n">
         <v>153.9975062898689</v>
@@ -35249,22 +35249,22 @@
         <v>0</v>
       </c>
       <c r="J9" t="n">
-        <v>76.01733575770689</v>
+        <v>76.0173357577069</v>
       </c>
       <c r="K9" t="n">
-        <v>138.3897561047527</v>
+        <v>257.8255762031298</v>
       </c>
       <c r="L9" t="n">
         <v>408.7029475713857</v>
       </c>
       <c r="M9" t="n">
-        <v>529.4413268262938</v>
+        <v>410.0055067279167</v>
       </c>
       <c r="N9" t="n">
         <v>559.3197334338902</v>
       </c>
       <c r="O9" t="n">
-        <v>444.5817404245897</v>
+        <v>444.5817404245898</v>
       </c>
       <c r="P9" t="n">
         <v>339.6412258735646</v>
@@ -35331,7 +35331,7 @@
         <v>0</v>
       </c>
       <c r="K10" t="n">
-        <v>56.87090208713953</v>
+        <v>56.87090208713954</v>
       </c>
       <c r="L10" t="n">
         <v>128.8624823850085</v>
@@ -35346,7 +35346,7 @@
         <v>120.8664146557981</v>
       </c>
       <c r="P10" t="n">
-        <v>79.66383317873148</v>
+        <v>79.66383317873149</v>
       </c>
       <c r="Q10" t="n">
         <v>0</v>
@@ -35410,28 +35410,28 @@
         <v>271.3780219415079</v>
       </c>
       <c r="K11" t="n">
-        <v>528.6897561303331</v>
+        <v>528.689756130333</v>
       </c>
       <c r="L11" t="n">
-        <v>708.6910667109073</v>
+        <v>708.6910667109072</v>
       </c>
       <c r="M11" t="n">
-        <v>805.3296502221118</v>
+        <v>805.3296502221116</v>
       </c>
       <c r="N11" t="n">
-        <v>803.580930408112</v>
+        <v>803.5809304081118</v>
       </c>
       <c r="O11" t="n">
-        <v>713.1546070951473</v>
+        <v>713.1546070951472</v>
       </c>
       <c r="P11" t="n">
-        <v>570.6060255109124</v>
+        <v>570.6060255109123</v>
       </c>
       <c r="Q11" t="n">
-        <v>350.4995841502049</v>
+        <v>350.4995841502048</v>
       </c>
       <c r="R11" t="n">
-        <v>59.82538970349813</v>
+        <v>59.82538970349808</v>
       </c>
       <c r="S11" t="n">
         <v>0</v>
@@ -35486,31 +35486,31 @@
         <v>0</v>
       </c>
       <c r="J12" t="n">
-        <v>41.91017895490671</v>
+        <v>168.0012142953155</v>
       </c>
       <c r="K12" t="n">
-        <v>150.5754385879393</v>
+        <v>150.5754385879392</v>
       </c>
       <c r="L12" t="n">
-        <v>249.2577049560244</v>
+        <v>620.0980502594834</v>
       </c>
       <c r="M12" t="n">
-        <v>720.1247453734238</v>
+        <v>373.3355844763043</v>
       </c>
       <c r="N12" t="n">
-        <v>812.5369477415666</v>
+        <v>333.1945733980128</v>
       </c>
       <c r="O12" t="n">
-        <v>282.3637022411082</v>
+        <v>282.3637022411081</v>
       </c>
       <c r="P12" t="n">
-        <v>207.0934149315248</v>
+        <v>525.5561835714618</v>
       </c>
       <c r="Q12" t="n">
-        <v>88.01303278507416</v>
+        <v>88.0130327850741</v>
       </c>
       <c r="R12" t="n">
-        <v>0</v>
+        <v>10.73738595686864</v>
       </c>
       <c r="S12" t="n">
         <v>0</v>
@@ -35565,28 +35565,28 @@
         <v>0</v>
       </c>
       <c r="J13" t="n">
-        <v>12.50777016556555</v>
+        <v>12.50777016556552</v>
       </c>
       <c r="K13" t="n">
-        <v>151.7024285299106</v>
+        <v>151.7024285299105</v>
       </c>
       <c r="L13" t="n">
-        <v>250.2141868799286</v>
+        <v>250.2141868799285</v>
       </c>
       <c r="M13" t="n">
         <v>274.3098411789725</v>
       </c>
       <c r="N13" t="n">
-        <v>273.2768778056037</v>
+        <v>273.2768778056036</v>
       </c>
       <c r="O13" t="n">
-        <v>236.2373515206029</v>
+        <v>236.2373515206028</v>
       </c>
       <c r="P13" t="n">
-        <v>178.3836006118008</v>
+        <v>178.3836006118007</v>
       </c>
       <c r="Q13" t="n">
-        <v>39.22569997187477</v>
+        <v>39.22569997187475</v>
       </c>
       <c r="R13" t="n">
         <v>0</v>
@@ -35647,28 +35647,28 @@
         <v>271.3780219415079</v>
       </c>
       <c r="K14" t="n">
-        <v>528.6897561303331</v>
+        <v>528.689756130333</v>
       </c>
       <c r="L14" t="n">
-        <v>708.6910667109073</v>
+        <v>708.6910667109072</v>
       </c>
       <c r="M14" t="n">
-        <v>805.3296502221118</v>
+        <v>805.3296502221116</v>
       </c>
       <c r="N14" t="n">
-        <v>803.580930408112</v>
+        <v>803.5809304081118</v>
       </c>
       <c r="O14" t="n">
-        <v>713.1546070951473</v>
+        <v>713.1546070951472</v>
       </c>
       <c r="P14" t="n">
-        <v>570.6060255109124</v>
+        <v>570.6060255109123</v>
       </c>
       <c r="Q14" t="n">
-        <v>350.4995841502049</v>
+        <v>350.4995841502048</v>
       </c>
       <c r="R14" t="n">
-        <v>59.82538970349813</v>
+        <v>59.82538970349808</v>
       </c>
       <c r="S14" t="n">
         <v>0</v>
@@ -35723,28 +35723,28 @@
         <v>0</v>
       </c>
       <c r="J15" t="n">
-        <v>41.91017895490671</v>
+        <v>41.91017895490666</v>
       </c>
       <c r="K15" t="n">
-        <v>415.0406756005179</v>
+        <v>150.5754385879392</v>
       </c>
       <c r="L15" t="n">
-        <v>620.0980502594836</v>
+        <v>265.095754002253</v>
       </c>
       <c r="M15" t="n">
-        <v>310.4243770504664</v>
+        <v>310.4243770504662</v>
       </c>
       <c r="N15" t="n">
-        <v>333.1945733980129</v>
+        <v>812.5369477415663</v>
       </c>
       <c r="O15" t="n">
-        <v>282.3637022411082</v>
+        <v>676.2260215178376</v>
       </c>
       <c r="P15" t="n">
-        <v>460.8305752819984</v>
+        <v>207.0934149315246</v>
       </c>
       <c r="Q15" t="n">
-        <v>88.01303278507416</v>
+        <v>88.0130327850741</v>
       </c>
       <c r="R15" t="n">
         <v>0</v>
@@ -35802,28 +35802,28 @@
         <v>0</v>
       </c>
       <c r="J16" t="n">
-        <v>12.50777016556555</v>
+        <v>12.50777016556552</v>
       </c>
       <c r="K16" t="n">
-        <v>151.7024285299106</v>
+        <v>151.7024285299105</v>
       </c>
       <c r="L16" t="n">
-        <v>250.2141868799286</v>
+        <v>250.2141868799285</v>
       </c>
       <c r="M16" t="n">
         <v>274.3098411789725</v>
       </c>
       <c r="N16" t="n">
-        <v>273.2768778056037</v>
+        <v>273.2768778056036</v>
       </c>
       <c r="O16" t="n">
-        <v>236.2373515206029</v>
+        <v>236.2373515206028</v>
       </c>
       <c r="P16" t="n">
-        <v>178.3836006118008</v>
+        <v>178.3836006118007</v>
       </c>
       <c r="Q16" t="n">
-        <v>39.22569997187477</v>
+        <v>39.22569997187475</v>
       </c>
       <c r="R16" t="n">
         <v>0</v>
@@ -35884,28 +35884,28 @@
         <v>271.3780219415079</v>
       </c>
       <c r="K17" t="n">
-        <v>528.6897561303331</v>
+        <v>528.689756130333</v>
       </c>
       <c r="L17" t="n">
-        <v>708.6910667109073</v>
+        <v>708.6910667109072</v>
       </c>
       <c r="M17" t="n">
-        <v>805.3296502221118</v>
+        <v>805.3296502221116</v>
       </c>
       <c r="N17" t="n">
-        <v>803.580930408112</v>
+        <v>803.5809304081118</v>
       </c>
       <c r="O17" t="n">
-        <v>713.1546070951473</v>
+        <v>713.1546070951472</v>
       </c>
       <c r="P17" t="n">
-        <v>570.6060255109124</v>
+        <v>570.6060255109123</v>
       </c>
       <c r="Q17" t="n">
-        <v>350.4995841502049</v>
+        <v>350.4995841502048</v>
       </c>
       <c r="R17" t="n">
-        <v>59.82538970349813</v>
+        <v>59.82538970349808</v>
       </c>
       <c r="S17" t="n">
         <v>0</v>
@@ -35960,28 +35960,28 @@
         <v>0</v>
       </c>
       <c r="J18" t="n">
-        <v>41.91017895490671</v>
+        <v>41.91017895490666</v>
       </c>
       <c r="K18" t="n">
-        <v>150.5754385879393</v>
+        <v>189.4354616074382</v>
       </c>
       <c r="L18" t="n">
-        <v>620.0980502594836</v>
+        <v>620.0980502594834</v>
       </c>
       <c r="M18" t="n">
-        <v>776.1294408004662</v>
+        <v>310.4243770504662</v>
       </c>
       <c r="N18" t="n">
-        <v>333.1945733980129</v>
+        <v>812.5369477415663</v>
       </c>
       <c r="O18" t="n">
-        <v>334.8610358541604</v>
+        <v>282.3637022411081</v>
       </c>
       <c r="P18" t="n">
-        <v>207.0934149315248</v>
+        <v>207.0934149315246</v>
       </c>
       <c r="Q18" t="n">
-        <v>88.01303278507416</v>
+        <v>88.0130327850741</v>
       </c>
       <c r="R18" t="n">
         <v>0</v>
@@ -36039,28 +36039,28 @@
         <v>0</v>
       </c>
       <c r="J19" t="n">
-        <v>12.50777016556555</v>
+        <v>12.50777016556552</v>
       </c>
       <c r="K19" t="n">
-        <v>151.7024285299106</v>
+        <v>151.7024285299105</v>
       </c>
       <c r="L19" t="n">
-        <v>250.2141868799286</v>
+        <v>250.2141868799285</v>
       </c>
       <c r="M19" t="n">
         <v>274.3098411789725</v>
       </c>
       <c r="N19" t="n">
-        <v>273.2768778056037</v>
+        <v>273.2768778056036</v>
       </c>
       <c r="O19" t="n">
-        <v>236.2373515206029</v>
+        <v>236.2373515206028</v>
       </c>
       <c r="P19" t="n">
-        <v>178.3836006118008</v>
+        <v>178.3836006118007</v>
       </c>
       <c r="Q19" t="n">
-        <v>39.22569997187477</v>
+        <v>39.22569997187475</v>
       </c>
       <c r="R19" t="n">
         <v>0</v>
@@ -36124,25 +36124,25 @@
         <v>528.6897561303331</v>
       </c>
       <c r="L20" t="n">
-        <v>708.6910667109073</v>
+        <v>708.6910667109072</v>
       </c>
       <c r="M20" t="n">
-        <v>805.3296502221118</v>
+        <v>805.3296502221117</v>
       </c>
       <c r="N20" t="n">
-        <v>803.580930408112</v>
+        <v>803.5809304081118</v>
       </c>
       <c r="O20" t="n">
-        <v>713.1546070951473</v>
+        <v>713.1546070951472</v>
       </c>
       <c r="P20" t="n">
-        <v>570.6060255109124</v>
+        <v>570.6060255109123</v>
       </c>
       <c r="Q20" t="n">
-        <v>350.4995841502049</v>
+        <v>350.4995841502048</v>
       </c>
       <c r="R20" t="n">
-        <v>59.82538970349674</v>
+        <v>59.8253897034981</v>
       </c>
       <c r="S20" t="n">
         <v>0</v>
@@ -36197,13 +36197,13 @@
         <v>0</v>
       </c>
       <c r="J21" t="n">
-        <v>41.91017895490671</v>
+        <v>168.0012142953155</v>
       </c>
       <c r="K21" t="n">
-        <v>150.5754385879393</v>
+        <v>150.5754385879392</v>
       </c>
       <c r="L21" t="n">
-        <v>620.0980502594836</v>
+        <v>249.2577049560243</v>
       </c>
       <c r="M21" t="n">
         <v>776.1294408004662</v>
@@ -36212,13 +36212,13 @@
         <v>333.1945733980129</v>
       </c>
       <c r="O21" t="n">
-        <v>334.8610358541604</v>
+        <v>579.6103458172109</v>
       </c>
       <c r="P21" t="n">
-        <v>207.0934149315248</v>
+        <v>207.0934149315247</v>
       </c>
       <c r="Q21" t="n">
-        <v>88.01303278507416</v>
+        <v>88.01303278507413</v>
       </c>
       <c r="R21" t="n">
         <v>0</v>
@@ -36276,19 +36276,19 @@
         <v>0</v>
       </c>
       <c r="J22" t="n">
-        <v>12.50777016556555</v>
+        <v>12.50777016556553</v>
       </c>
       <c r="K22" t="n">
         <v>151.7024285299106</v>
       </c>
       <c r="L22" t="n">
-        <v>250.2141868799286</v>
+        <v>250.2141868799285</v>
       </c>
       <c r="M22" t="n">
         <v>274.3098411789725</v>
       </c>
       <c r="N22" t="n">
-        <v>273.2768778056037</v>
+        <v>273.2768778056036</v>
       </c>
       <c r="O22" t="n">
         <v>236.2373515206029</v>
@@ -36297,7 +36297,7 @@
         <v>178.3836006118008</v>
       </c>
       <c r="Q22" t="n">
-        <v>39.22569997187477</v>
+        <v>39.22569997187476</v>
       </c>
       <c r="R22" t="n">
         <v>0</v>
@@ -36361,25 +36361,25 @@
         <v>528.6897561303331</v>
       </c>
       <c r="L23" t="n">
-        <v>708.6910667109073</v>
+        <v>708.6910667109072</v>
       </c>
       <c r="M23" t="n">
-        <v>805.3296502221118</v>
+        <v>805.3296502221117</v>
       </c>
       <c r="N23" t="n">
-        <v>803.580930408112</v>
+        <v>803.5809304081118</v>
       </c>
       <c r="O23" t="n">
-        <v>713.1546070951473</v>
+        <v>713.1546070951472</v>
       </c>
       <c r="P23" t="n">
-        <v>570.6060255109124</v>
+        <v>570.6060255109123</v>
       </c>
       <c r="Q23" t="n">
-        <v>350.4995841502049</v>
+        <v>350.4995841502048</v>
       </c>
       <c r="R23" t="n">
-        <v>59.82538970349674</v>
+        <v>59.8253897034981</v>
       </c>
       <c r="S23" t="n">
         <v>0</v>
@@ -36434,28 +36434,28 @@
         <v>0</v>
       </c>
       <c r="J24" t="n">
-        <v>41.91017895490671</v>
+        <v>41.91017895490668</v>
       </c>
       <c r="K24" t="n">
-        <v>150.5754385879393</v>
+        <v>150.5754385879392</v>
       </c>
       <c r="L24" t="n">
-        <v>620.0980502594836</v>
+        <v>249.2577049560243</v>
       </c>
       <c r="M24" t="n">
-        <v>776.1294408004662</v>
+        <v>310.4243770504663</v>
       </c>
       <c r="N24" t="n">
-        <v>333.1945733980129</v>
+        <v>812.5369477415665</v>
       </c>
       <c r="O24" t="n">
-        <v>334.8610358541604</v>
+        <v>373.6013019241291</v>
       </c>
       <c r="P24" t="n">
-        <v>207.0934149315248</v>
+        <v>525.5561835714618</v>
       </c>
       <c r="Q24" t="n">
-        <v>88.01303278507416</v>
+        <v>88.01303278507413</v>
       </c>
       <c r="R24" t="n">
         <v>0</v>
@@ -36513,19 +36513,19 @@
         <v>0</v>
       </c>
       <c r="J25" t="n">
-        <v>12.50777016556555</v>
+        <v>12.50777016556553</v>
       </c>
       <c r="K25" t="n">
         <v>151.7024285299106</v>
       </c>
       <c r="L25" t="n">
-        <v>250.2141868799286</v>
+        <v>250.2141868799285</v>
       </c>
       <c r="M25" t="n">
         <v>274.3098411789725</v>
       </c>
       <c r="N25" t="n">
-        <v>273.2768778056037</v>
+        <v>273.2768778056036</v>
       </c>
       <c r="O25" t="n">
         <v>236.2373515206029</v>
@@ -36534,7 +36534,7 @@
         <v>178.3836006118008</v>
       </c>
       <c r="Q25" t="n">
-        <v>39.22569997187477</v>
+        <v>39.22569997187476</v>
       </c>
       <c r="R25" t="n">
         <v>0</v>
@@ -36598,25 +36598,25 @@
         <v>528.6897561303331</v>
       </c>
       <c r="L26" t="n">
-        <v>708.6910667109073</v>
+        <v>708.6910667109072</v>
       </c>
       <c r="M26" t="n">
-        <v>805.3296502221118</v>
+        <v>805.3296502221117</v>
       </c>
       <c r="N26" t="n">
-        <v>803.580930408112</v>
+        <v>803.5809304081118</v>
       </c>
       <c r="O26" t="n">
-        <v>713.1546070951473</v>
+        <v>713.1546070951472</v>
       </c>
       <c r="P26" t="n">
-        <v>570.6060255109124</v>
+        <v>570.6060255109123</v>
       </c>
       <c r="Q26" t="n">
-        <v>350.4995841502049</v>
+        <v>350.4995841502048</v>
       </c>
       <c r="R26" t="n">
-        <v>59.82538970349813</v>
+        <v>59.8253897034981</v>
       </c>
       <c r="S26" t="n">
         <v>0</v>
@@ -36671,31 +36671,31 @@
         <v>0</v>
       </c>
       <c r="J27" t="n">
-        <v>41.91017895490671</v>
+        <v>41.91017895490668</v>
       </c>
       <c r="K27" t="n">
-        <v>150.5754385879393</v>
+        <v>150.5754385879392</v>
       </c>
       <c r="L27" t="n">
-        <v>620.0980502594836</v>
+        <v>249.2577049560243</v>
       </c>
       <c r="M27" t="n">
-        <v>776.1294408004662</v>
+        <v>310.4243770504663</v>
       </c>
       <c r="N27" t="n">
-        <v>333.1945733980129</v>
+        <v>607.5603230950769</v>
       </c>
       <c r="O27" t="n">
-        <v>334.8610358541604</v>
+        <v>676.2260215178377</v>
       </c>
       <c r="P27" t="n">
-        <v>207.0934149315248</v>
+        <v>207.0934149315247</v>
       </c>
       <c r="Q27" t="n">
-        <v>88.01303278507416</v>
+        <v>298.0903205209232</v>
       </c>
       <c r="R27" t="n">
-        <v>0</v>
+        <v>10.73738595686865</v>
       </c>
       <c r="S27" t="n">
         <v>0</v>
@@ -36750,19 +36750,19 @@
         <v>0</v>
       </c>
       <c r="J28" t="n">
-        <v>12.50777016556555</v>
+        <v>12.50777016556553</v>
       </c>
       <c r="K28" t="n">
         <v>151.7024285299106</v>
       </c>
       <c r="L28" t="n">
-        <v>250.2141868799286</v>
+        <v>250.2141868799285</v>
       </c>
       <c r="M28" t="n">
         <v>274.3098411789725</v>
       </c>
       <c r="N28" t="n">
-        <v>273.2768778056037</v>
+        <v>273.2768778056036</v>
       </c>
       <c r="O28" t="n">
         <v>236.2373515206029</v>
@@ -36771,7 +36771,7 @@
         <v>178.3836006118008</v>
       </c>
       <c r="Q28" t="n">
-        <v>39.22569997187477</v>
+        <v>39.22569997187476</v>
       </c>
       <c r="R28" t="n">
         <v>0</v>
@@ -36835,25 +36835,25 @@
         <v>528.6897561303331</v>
       </c>
       <c r="L29" t="n">
-        <v>708.6910667109073</v>
+        <v>708.691066710907</v>
       </c>
       <c r="M29" t="n">
-        <v>805.3296502221118</v>
+        <v>805.3296502221117</v>
       </c>
       <c r="N29" t="n">
-        <v>803.580930408112</v>
+        <v>803.5809304081118</v>
       </c>
       <c r="O29" t="n">
-        <v>713.1546070951473</v>
+        <v>713.1546070951472</v>
       </c>
       <c r="P29" t="n">
-        <v>570.6060255109124</v>
+        <v>570.6060255109123</v>
       </c>
       <c r="Q29" t="n">
-        <v>350.4995841502049</v>
+        <v>350.4995841502048</v>
       </c>
       <c r="R29" t="n">
-        <v>59.82538970349813</v>
+        <v>59.8253897034981</v>
       </c>
       <c r="S29" t="n">
         <v>0</v>
@@ -36908,16 +36908,16 @@
         <v>0</v>
       </c>
       <c r="J30" t="n">
-        <v>168.0012142953155</v>
+        <v>41.91017895490668</v>
       </c>
       <c r="K30" t="n">
-        <v>415.0406756005179</v>
+        <v>150.5754385879392</v>
       </c>
       <c r="L30" t="n">
-        <v>249.2577049560244</v>
+        <v>620.0980502594834</v>
       </c>
       <c r="M30" t="n">
-        <v>310.4243770504664</v>
+        <v>310.4243770504663</v>
       </c>
       <c r="N30" t="n">
         <v>333.1945733980129</v>
@@ -36926,7 +36926,7 @@
         <v>282.3637022411082</v>
       </c>
       <c r="P30" t="n">
-        <v>495.5025975091996</v>
+        <v>515.2185245587281</v>
       </c>
       <c r="Q30" t="n">
         <v>298.0903205209232</v>
@@ -36987,10 +36987,10 @@
         <v>0</v>
       </c>
       <c r="J31" t="n">
-        <v>67.71102679412257</v>
+        <v>67.71102679412263</v>
       </c>
       <c r="K31" t="n">
-        <v>206.9056851584676</v>
+        <v>206.9056851584677</v>
       </c>
       <c r="L31" t="n">
         <v>305.4174435084856</v>
@@ -37002,13 +37002,13 @@
         <v>328.4801344341607</v>
       </c>
       <c r="O31" t="n">
-        <v>291.4406081491599</v>
+        <v>291.44060814916</v>
       </c>
       <c r="P31" t="n">
-        <v>233.5868572403578</v>
+        <v>233.5868572403579</v>
       </c>
       <c r="Q31" t="n">
-        <v>94.4289566004318</v>
+        <v>94.42895660043186</v>
       </c>
       <c r="R31" t="n">
         <v>0</v>
@@ -37072,25 +37072,25 @@
         <v>528.6897561303331</v>
       </c>
       <c r="L32" t="n">
-        <v>708.6910667109073</v>
+        <v>708.6910667109072</v>
       </c>
       <c r="M32" t="n">
-        <v>805.3296502221118</v>
+        <v>805.3296502221117</v>
       </c>
       <c r="N32" t="n">
-        <v>803.580930408112</v>
+        <v>803.5809304081118</v>
       </c>
       <c r="O32" t="n">
-        <v>713.1546070951473</v>
+        <v>713.1546070951472</v>
       </c>
       <c r="P32" t="n">
-        <v>570.6060255109124</v>
+        <v>570.6060255109123</v>
       </c>
       <c r="Q32" t="n">
-        <v>350.4995841502049</v>
+        <v>350.4995841502048</v>
       </c>
       <c r="R32" t="n">
-        <v>59.82538970349766</v>
+        <v>59.8253897034981</v>
       </c>
       <c r="S32" t="n">
         <v>0</v>
@@ -37148,22 +37148,22 @@
         <v>168.0012142953155</v>
       </c>
       <c r="K33" t="n">
-        <v>415.0406756005179</v>
+        <v>309.5875389014632</v>
       </c>
       <c r="L33" t="n">
-        <v>249.2577049560244</v>
+        <v>249.2577049560243</v>
       </c>
       <c r="M33" t="n">
-        <v>310.4243770504664</v>
+        <v>310.4243770504663</v>
       </c>
       <c r="N33" t="n">
         <v>333.1945733980129</v>
       </c>
       <c r="O33" t="n">
-        <v>282.3637022411082</v>
+        <v>676.2260215178377</v>
       </c>
       <c r="P33" t="n">
-        <v>495.5025975091996</v>
+        <v>207.0934149315247</v>
       </c>
       <c r="Q33" t="n">
         <v>298.0903205209232</v>
@@ -37224,7 +37224,7 @@
         <v>0</v>
       </c>
       <c r="J34" t="n">
-        <v>80.63966029520618</v>
+        <v>80.6396602952062</v>
       </c>
       <c r="K34" t="n">
         <v>219.8343186595512</v>
@@ -37309,25 +37309,25 @@
         <v>528.6897561303331</v>
       </c>
       <c r="L35" t="n">
-        <v>708.6910667109073</v>
+        <v>708.6910667109072</v>
       </c>
       <c r="M35" t="n">
-        <v>805.3296502221118</v>
+        <v>805.3296502221117</v>
       </c>
       <c r="N35" t="n">
-        <v>803.580930408112</v>
+        <v>803.5809304081118</v>
       </c>
       <c r="O35" t="n">
-        <v>713.1546070951473</v>
+        <v>713.1546070951472</v>
       </c>
       <c r="P35" t="n">
-        <v>570.6060255109124</v>
+        <v>570.6060255109123</v>
       </c>
       <c r="Q35" t="n">
-        <v>350.4995841502049</v>
+        <v>350.4995841502048</v>
       </c>
       <c r="R35" t="n">
-        <v>59.82538970349674</v>
+        <v>59.8253897034981</v>
       </c>
       <c r="S35" t="n">
         <v>0</v>
@@ -37385,22 +37385,22 @@
         <v>168.0012142953155</v>
       </c>
       <c r="K36" t="n">
-        <v>415.0406756005179</v>
+        <v>150.5754385879392</v>
       </c>
       <c r="L36" t="n">
-        <v>249.2577049560244</v>
+        <v>249.2577049560243</v>
       </c>
       <c r="M36" t="n">
-        <v>310.4243770504664</v>
+        <v>310.4243770504663</v>
       </c>
       <c r="N36" t="n">
-        <v>333.1945733980129</v>
+        <v>812.5369477415665</v>
       </c>
       <c r="O36" t="n">
         <v>282.3637022411082</v>
       </c>
       <c r="P36" t="n">
-        <v>495.5025975091996</v>
+        <v>280.6254601782248</v>
       </c>
       <c r="Q36" t="n">
         <v>298.0903205209232</v>
@@ -37461,7 +37461,7 @@
         <v>0</v>
       </c>
       <c r="J37" t="n">
-        <v>80.63966029520618</v>
+        <v>80.6396602952062</v>
       </c>
       <c r="K37" t="n">
         <v>219.8343186595512</v>
@@ -37540,31 +37540,31 @@
         <v>0</v>
       </c>
       <c r="J38" t="n">
-        <v>271.3780219415079</v>
+        <v>271.3780219415086</v>
       </c>
       <c r="K38" t="n">
         <v>528.6897561303331</v>
       </c>
       <c r="L38" t="n">
-        <v>708.6910667109073</v>
+        <v>708.6910667109072</v>
       </c>
       <c r="M38" t="n">
-        <v>805.3296502221118</v>
+        <v>805.3296502221117</v>
       </c>
       <c r="N38" t="n">
-        <v>803.580930408112</v>
+        <v>803.5809304081118</v>
       </c>
       <c r="O38" t="n">
-        <v>713.1546070951473</v>
+        <v>713.1546070951472</v>
       </c>
       <c r="P38" t="n">
-        <v>570.6060255109124</v>
+        <v>570.6060255109123</v>
       </c>
       <c r="Q38" t="n">
-        <v>350.4995841502049</v>
+        <v>350.4995841502048</v>
       </c>
       <c r="R38" t="n">
-        <v>59.82538970349582</v>
+        <v>59.8253897034981</v>
       </c>
       <c r="S38" t="n">
         <v>0</v>
@@ -37619,28 +37619,28 @@
         <v>0</v>
       </c>
       <c r="J39" t="n">
-        <v>168.0012142953155</v>
+        <v>41.91017895490668</v>
       </c>
       <c r="K39" t="n">
-        <v>415.0406756005179</v>
+        <v>415.0406756005178</v>
       </c>
       <c r="L39" t="n">
-        <v>249.2577049560244</v>
+        <v>394.4928362664036</v>
       </c>
       <c r="M39" t="n">
-        <v>310.4243770504664</v>
+        <v>310.4243770504663</v>
       </c>
       <c r="N39" t="n">
-        <v>333.1945733980129</v>
+        <v>812.5369477415665</v>
       </c>
       <c r="O39" t="n">
         <v>282.3637022411082</v>
       </c>
       <c r="P39" t="n">
-        <v>495.5025975091996</v>
+        <v>207.0934149315247</v>
       </c>
       <c r="Q39" t="n">
-        <v>298.0903205209232</v>
+        <v>88.01303278507413</v>
       </c>
       <c r="R39" t="n">
         <v>0</v>
@@ -37698,7 +37698,7 @@
         <v>0</v>
       </c>
       <c r="J40" t="n">
-        <v>80.6396602952062</v>
+        <v>80.63966029520618</v>
       </c>
       <c r="K40" t="n">
         <v>219.8343186595512</v>
@@ -37716,7 +37716,7 @@
         <v>304.3692416502436</v>
       </c>
       <c r="P40" t="n">
-        <v>246.5154907414415</v>
+        <v>246.5154907414414</v>
       </c>
       <c r="Q40" t="n">
         <v>107.3575901015154</v>
@@ -37780,13 +37780,13 @@
         <v>271.3780219415079</v>
       </c>
       <c r="K41" t="n">
-        <v>528.689756130333</v>
+        <v>528.6897561303329</v>
       </c>
       <c r="L41" t="n">
         <v>708.6910667109072</v>
       </c>
       <c r="M41" t="n">
-        <v>805.3296502221116</v>
+        <v>805.3296502221117</v>
       </c>
       <c r="N41" t="n">
         <v>803.5809304081118</v>
@@ -37801,7 +37801,7 @@
         <v>350.4995841502048</v>
       </c>
       <c r="R41" t="n">
-        <v>59.82538970349808</v>
+        <v>59.8253897034981</v>
       </c>
       <c r="S41" t="n">
         <v>0</v>
@@ -37856,31 +37856,31 @@
         <v>0</v>
       </c>
       <c r="J42" t="n">
-        <v>168.0012142953155</v>
+        <v>41.91017895490668</v>
       </c>
       <c r="K42" t="n">
-        <v>415.0406756005178</v>
+        <v>169.3134122708526</v>
       </c>
       <c r="L42" t="n">
         <v>249.2577049560243</v>
       </c>
       <c r="M42" t="n">
-        <v>310.4243770504662</v>
+        <v>776.1294408004662</v>
       </c>
       <c r="N42" t="n">
-        <v>333.1945733980128</v>
+        <v>333.1945733980129</v>
       </c>
       <c r="O42" t="n">
-        <v>282.3637022411081</v>
+        <v>676.2260215178377</v>
       </c>
       <c r="P42" t="n">
-        <v>495.5025975092001</v>
+        <v>207.0934149315247</v>
       </c>
       <c r="Q42" t="n">
-        <v>298.0903205209232</v>
+        <v>88.01303278507413</v>
       </c>
       <c r="R42" t="n">
-        <v>0</v>
+        <v>10.73738595686865</v>
       </c>
       <c r="S42" t="n">
         <v>0</v>
@@ -37950,10 +37950,10 @@
         <v>341.4087679352443</v>
       </c>
       <c r="O43" t="n">
-        <v>304.3692416502435</v>
+        <v>304.3692416502436</v>
       </c>
       <c r="P43" t="n">
-        <v>246.5154907414414</v>
+        <v>246.5154907414415</v>
       </c>
       <c r="Q43" t="n">
         <v>107.3575901015154</v>
@@ -38017,7 +38017,7 @@
         <v>271.3780219415079</v>
       </c>
       <c r="K44" t="n">
-        <v>528.689756130333</v>
+        <v>528.6897561303331</v>
       </c>
       <c r="L44" t="n">
         <v>708.6910667109072</v>
@@ -38038,7 +38038,7 @@
         <v>350.4995841502048</v>
       </c>
       <c r="R44" t="n">
-        <v>59.8253897034995</v>
+        <v>59.8253897034981</v>
       </c>
       <c r="S44" t="n">
         <v>0</v>
@@ -38093,7 +38093,7 @@
         <v>0</v>
       </c>
       <c r="J45" t="n">
-        <v>168.0012142953155</v>
+        <v>62.54807759626086</v>
       </c>
       <c r="K45" t="n">
         <v>415.0406756005178</v>
@@ -38102,16 +38102,16 @@
         <v>249.2577049560243</v>
       </c>
       <c r="M45" t="n">
-        <v>310.4243770504662</v>
+        <v>310.4243770504663</v>
       </c>
       <c r="N45" t="n">
-        <v>333.1945733980128</v>
+        <v>333.1945733980129</v>
       </c>
       <c r="O45" t="n">
-        <v>282.3637022411081</v>
+        <v>676.2260215178377</v>
       </c>
       <c r="P45" t="n">
-        <v>495.5025975092001</v>
+        <v>207.0934149315247</v>
       </c>
       <c r="Q45" t="n">
         <v>298.0903205209232</v>
@@ -38187,10 +38187,10 @@
         <v>341.4087679352443</v>
       </c>
       <c r="O46" t="n">
-        <v>304.3692416502435</v>
+        <v>304.3692416502436</v>
       </c>
       <c r="P46" t="n">
-        <v>246.5154907414414</v>
+        <v>246.5154907414415</v>
       </c>
       <c r="Q46" t="n">
         <v>107.3575901015154</v>
